--- a/RW Files/TestModelRuns/07_July Models/Jul24MS_OpVsDev.xlsx
+++ b/RW Files/TestModelRuns/07_July Models/Jul24MS_OpVsDev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apivarnik\Desktop\GIT\MTOM\RW Files\TestModelRuns\07_July Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BC888-A232-4539-B4B5-BB57917D4A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE33B308-9CB8-4DF4-8160-DF386201755E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33345" yWindow="3390" windowWidth="27240" windowHeight="10485" firstSheet="3" activeTab="5" xr2:uid="{D1DC0923-9D6C-4F9C-A644-CB11AFD367C8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" firstSheet="2" activeTab="5" xr2:uid="{ACA32295-86C6-4435-AED7-5BA48188675B}"/>
   </bookViews>
   <sheets>
     <sheet name="YearlyUse_Op" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="63">
   <si>
     <t>Thu</t>
   </si>
@@ -195,12 +195,45 @@
   <si>
     <t>Mexico Total Div</t>
   </si>
+  <si>
+    <t>Powell.Inflow</t>
+  </si>
+  <si>
+    <t>Powell Storage</t>
+  </si>
+  <si>
+    <t>FlamingGorge.Storage</t>
+  </si>
+  <si>
+    <t>Fontenelle.Storage</t>
+  </si>
+  <si>
+    <t>BlueMesa.Storage</t>
+  </si>
+  <si>
+    <t>Crystal.Storage</t>
+  </si>
+  <si>
+    <t>MorrowPoint.Storage</t>
+  </si>
+  <si>
+    <t>Navajo.Storage</t>
+  </si>
+  <si>
+    <t>TaylorPark.Storage</t>
+  </si>
+  <si>
+    <t>Vallecito.Storage</t>
+  </si>
+  <si>
+    <t>1000 acre-ft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,13 +241,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -229,24 +274,37 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,9 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC3F8-66E7-43C6-A35F-151BF197CB9C}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1130,9 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABD8A4F-23C9-4707-9C4F-321CEF6D8F7A}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1205,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2423793.8107161699</v>
+        <v>2426219.7232609601</v>
       </c>
       <c r="D5">
         <v>2748076</v>
@@ -1273,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>1417067.1892838301</v>
+        <v>1414641.2767390399</v>
       </c>
       <c r="D9">
         <v>1450633</v>
@@ -1290,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1417067.1892838301</v>
+        <v>1414641.2767390399</v>
       </c>
       <c r="D10">
         <v>1645633</v>
@@ -1341,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>4177178.05694</v>
+        <v>4178844.4069099999</v>
       </c>
       <c r="D13">
         <v>4328357</v>
@@ -1392,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>857545</v>
+        <v>857162</v>
       </c>
       <c r="D16">
         <v>859032</v>
@@ -1409,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>860371</v>
+        <v>860000</v>
       </c>
       <c r="D17">
         <v>861768</v>
@@ -1426,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>859210.94306000101</v>
+        <v>857161.59308999998</v>
       </c>
       <c r="D18">
         <v>917264</v>
@@ -1443,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>862036.94306000101</v>
+        <v>859999.59308999998</v>
       </c>
       <c r="D19">
         <v>920000</v>
@@ -1460,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>859210.94305999996</v>
+        <v>857161.59308999905</v>
       </c>
       <c r="D20">
         <v>917264</v>
@@ -1511,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>252368.49434999999</v>
+        <v>251833.80404011201</v>
       </c>
       <c r="D23">
         <v>300128</v>
@@ -1545,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>1.4496681579170999E-10</v>
+        <v>9.6644543861140197E-11</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1562,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>245540</v>
+        <v>244516.00000011199</v>
       </c>
       <c r="D26">
         <v>290786</v>
@@ -1579,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>245171.50565000001</v>
+        <v>244682.19596000001</v>
       </c>
       <c r="D27">
         <v>245658</v>
@@ -1596,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>245171.50565000001</v>
+        <v>244682.19596000001</v>
       </c>
       <c r="D28">
         <v>245658</v>
@@ -1613,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1515696.0856300001</v>
+        <v>1515821.9310099999</v>
       </c>
       <c r="D29">
         <v>1499999.9998939601</v>
@@ -1630,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>1514994.0856300001</v>
+        <v>1515119.9310099999</v>
       </c>
       <c r="D30">
         <v>1457844.9998939999</v>
@@ -1647,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>58125.674930000001</v>
+        <v>58251.569329999998</v>
       </c>
       <c r="D31">
         <v>16064</v>
@@ -1664,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>136506.000000072</v>
+        <v>136192.000000072</v>
       </c>
       <c r="D32">
         <v>126370</v>
@@ -1699,9 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA6D717-0517-4A54-BC46-0ECF9614C4A0}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1781,7 +1833,7 @@
       </c>
       <c r="C5" s="2">
         <f>YearlyUse_Op!C5-YearlyUse_Dev!C5</f>
-        <v>2425.9125431999564</v>
+        <v>-1.5902332961559296E-6</v>
       </c>
       <c r="D5" s="2">
         <f>YearlyUse_Op!D5-YearlyUse_Dev!D5</f>
@@ -1861,7 +1913,7 @@
       </c>
       <c r="C9" s="2">
         <f>YearlyUse_Op!C9-YearlyUse_Dev!C9</f>
-        <v>-2425.9125469301362</v>
+        <v>-2.1399464458227158E-6</v>
       </c>
       <c r="D9" s="2">
         <f>YearlyUse_Op!D9-YearlyUse_Dev!D9</f>
@@ -1872,7 +1924,7 @@
         <v>2.3003667593002319E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1933,7 @@
       </c>
       <c r="C10" s="4">
         <f>YearlyUse_Op!C10-YearlyUse_Dev!C10</f>
-        <v>-2425.9125469301362</v>
+        <v>-2.1399464458227158E-6</v>
       </c>
       <c r="D10" s="4">
         <f>YearlyUse_Op!D10-YearlyUse_Dev!D10</f>
@@ -1941,7 +1993,7 @@
       </c>
       <c r="C13" s="2">
         <f>YearlyUse_Op!C13-YearlyUse_Dev!C13</f>
-        <v>1666.3499695700593</v>
+        <v>-4.2980536818504333E-7</v>
       </c>
       <c r="D13" s="2">
         <f>YearlyUse_Op!D13-YearlyUse_Dev!D13</f>
@@ -2001,7 +2053,7 @@
       </c>
       <c r="C16" s="2">
         <f>YearlyUse_Op!C16-YearlyUse_Dev!C16</f>
-        <v>-382.99999668297824</v>
+        <v>3.3170217648148537E-6</v>
       </c>
       <c r="D16" s="2">
         <f>YearlyUse_Op!D16-YearlyUse_Dev!D16</f>
@@ -2021,7 +2073,7 @@
       </c>
       <c r="C17" s="2">
         <f>YearlyUse_Op!C17-YearlyUse_Dev!C17</f>
-        <v>-371.00000070396345</v>
+        <v>-7.0396345108747482E-7</v>
       </c>
       <c r="D17" s="2">
         <f>YearlyUse_Op!D17-YearlyUse_Dev!D17</f>
@@ -2041,7 +2093,7 @@
       </c>
       <c r="C18" s="2">
         <f>YearlyUse_Op!C18-YearlyUse_Dev!C18</f>
-        <v>-2049.3499698500382</v>
+        <v>1.5099067240953445E-7</v>
       </c>
       <c r="D18" s="2">
         <f>YearlyUse_Op!D18-YearlyUse_Dev!D18</f>
@@ -2061,7 +2113,7 @@
       </c>
       <c r="C19" s="2">
         <f>YearlyUse_Op!C19-YearlyUse_Dev!C19</f>
-        <v>-2037.3499738710234</v>
+        <v>-3.869994543492794E-6</v>
       </c>
       <c r="D19" s="2">
         <f>YearlyUse_Op!D19-YearlyUse_Dev!D19</f>
@@ -2072,7 +2124,7 @@
         <v>2.9103830456733704E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2081,7 +2133,7 @@
       </c>
       <c r="C20" s="4">
         <f>YearlyUse_Op!C20-YearlyUse_Dev!C20</f>
-        <v>-2049.3499698489904</v>
+        <v>1.5192199498414993E-7</v>
       </c>
       <c r="D20" s="4">
         <f>YearlyUse_Op!D20-YearlyUse_Dev!D20</f>
@@ -2141,7 +2193,7 @@
       </c>
       <c r="C23" s="2">
         <f>YearlyUse_Op!C23-YearlyUse_Dev!C23</f>
-        <v>-534.69030987098813</v>
+        <v>1.6996636986732483E-8</v>
       </c>
       <c r="D23" s="2">
         <f>YearlyUse_Op!D23-YearlyUse_Dev!D23</f>
@@ -2181,7 +2233,7 @@
       </c>
       <c r="C25" s="2">
         <f>YearlyUse_Op!C25-YearlyUse_Dev!C25</f>
-        <v>-2.4161135965302758E-10</v>
+        <v>-1.932890877224578E-10</v>
       </c>
       <c r="D25" s="2">
         <f>YearlyUse_Op!D25-YearlyUse_Dev!D25</f>
@@ -2201,7 +2253,7 @@
       </c>
       <c r="C26" s="2">
         <f>YearlyUse_Op!C26-YearlyUse_Dev!C26</f>
-        <v>-1023.9999998130079</v>
+        <v>7.5000571087002754E-8</v>
       </c>
       <c r="D26" s="2">
         <f>YearlyUse_Op!D26-YearlyUse_Dev!D26</f>
@@ -2221,7 +2273,7 @@
       </c>
       <c r="C27" s="2">
         <f>YearlyUse_Op!C27-YearlyUse_Dev!C27</f>
-        <v>-489.30968992199632</v>
+        <v>7.7998265624046326E-8</v>
       </c>
       <c r="D27" s="2">
         <f>YearlyUse_Op!D27-YearlyUse_Dev!D27</f>
@@ -2232,7 +2284,7 @@
         <v>1.100124791264534E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2241,7 +2293,7 @@
       </c>
       <c r="C28" s="4">
         <f>YearlyUse_Op!C28-YearlyUse_Dev!C28</f>
-        <v>-489.30968992199632</v>
+        <v>7.7998265624046326E-8</v>
       </c>
       <c r="D28" s="4">
         <f>YearlyUse_Op!D28-YearlyUse_Dev!D28</f>
@@ -2261,7 +2313,7 @@
       </c>
       <c r="C29" s="2">
         <f>YearlyUse_Op!C29-YearlyUse_Dev!C29</f>
-        <v>125.84538238984533</v>
+        <v>2.3900065571069717E-6</v>
       </c>
       <c r="D29" s="2">
         <f>YearlyUse_Op!D29-YearlyUse_Dev!D29</f>
@@ -2281,7 +2333,7 @@
       </c>
       <c r="C30" s="2">
         <f>YearlyUse_Op!C30-YearlyUse_Dev!C30</f>
-        <v>125.84538235981017</v>
+        <v>2.3599714040756226E-6</v>
       </c>
       <c r="D30" s="2">
         <f>YearlyUse_Op!D30-YearlyUse_Dev!D30</f>
@@ -2301,7 +2353,7 @@
       </c>
       <c r="C31" s="2">
         <f>YearlyUse_Op!C31-YearlyUse_Dev!C31</f>
-        <v>125.89440000389732</v>
+        <v>3.8999132812023163E-9</v>
       </c>
       <c r="D31" s="2">
         <f>YearlyUse_Op!D31-YearlyUse_Dev!D31</f>
@@ -2321,7 +2373,7 @@
       </c>
       <c r="C32" s="2">
         <f>YearlyUse_Op!C32-YearlyUse_Dev!C32</f>
-        <v>-314.00000029199873</v>
+        <v>-2.9199873097240925E-7</v>
       </c>
       <c r="D32" s="2">
         <f>YearlyUse_Op!D32-YearlyUse_Dev!D32</f>
@@ -2359,1069 +2411,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2084F9D8-F9CC-47B5-ABA0-5B14FE48EFEA}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44043</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>750</v>
-      </c>
-      <c r="D3">
-        <v>3608.17809045275</v>
-      </c>
-      <c r="E3">
-        <v>1085.2514934579999</v>
-      </c>
-      <c r="F3">
-        <v>10450.9044658741</v>
-      </c>
-      <c r="G3">
-        <v>890328.645587123</v>
-      </c>
-      <c r="H3">
-        <v>51999.999999929903</v>
-      </c>
-      <c r="I3">
-        <v>98995.999999910797</v>
-      </c>
-      <c r="J3">
-        <v>29427.699326569898</v>
-      </c>
-      <c r="K3">
-        <v>160188.99999998999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44074</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
-        <v>835.00000000000102</v>
-      </c>
-      <c r="D4">
-        <v>3604.07379327427</v>
-      </c>
-      <c r="E4">
-        <v>1085.2599523720501</v>
-      </c>
-      <c r="F4">
-        <v>10451.6207667333</v>
-      </c>
-      <c r="G4">
-        <v>822918.01934831298</v>
-      </c>
-      <c r="H4">
-        <v>51999.999999929903</v>
-      </c>
-      <c r="I4">
-        <v>98995.999999910797</v>
-      </c>
-      <c r="J4">
-        <v>29976.6993266061</v>
-      </c>
-      <c r="K4">
-        <v>125425.999999972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>599.97999999999797</v>
-      </c>
-      <c r="D5">
-        <v>3602.0298505905498</v>
-      </c>
-      <c r="E5">
-        <v>1083.6798558923899</v>
-      </c>
-      <c r="F5">
-        <v>10318.2346717851</v>
-      </c>
-      <c r="G5">
-        <v>732207.89033726195</v>
-      </c>
-      <c r="H5">
-        <v>140000</v>
-      </c>
-      <c r="I5">
-        <v>95803.000000076194</v>
-      </c>
-      <c r="J5">
-        <v>25363.699326649501</v>
-      </c>
-      <c r="K5">
-        <v>123996.00000003001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>639.99999999999704</v>
-      </c>
-      <c r="D6">
-        <v>3600.1030789042002</v>
-      </c>
-      <c r="E6">
-        <v>1084.5267326542</v>
-      </c>
-      <c r="F6">
-        <v>10389.607443900701</v>
-      </c>
-      <c r="G6">
-        <v>571758.33984182903</v>
-      </c>
-      <c r="H6">
-        <v>177999.999999944</v>
-      </c>
-      <c r="I6">
-        <v>99230.000000093496</v>
-      </c>
-      <c r="J6">
-        <v>24124.699326640701</v>
-      </c>
-      <c r="K6">
-        <v>84872.999999958804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>640.00000000000205</v>
-      </c>
-      <c r="D7">
-        <v>3597.7672775262399</v>
-      </c>
-      <c r="E7">
-        <v>1083.7590032841199</v>
-      </c>
-      <c r="F7">
-        <v>10324.8957162771</v>
-      </c>
-      <c r="G7">
-        <v>718069.92587468599</v>
-      </c>
-      <c r="H7">
-        <v>183853.638369572</v>
-      </c>
-      <c r="I7">
-        <v>95802.796544938101</v>
-      </c>
-      <c r="J7">
-        <v>16155.6993266715</v>
-      </c>
-      <c r="K7">
-        <v>102269.000000015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>720.00000000000296</v>
-      </c>
-      <c r="D8">
-        <v>3594.3709467191602</v>
-      </c>
-      <c r="E8">
-        <v>1085.5920461548501</v>
-      </c>
-      <c r="F8">
-        <v>10479.760877713001</v>
-      </c>
-      <c r="G8">
-        <v>571074.58530320297</v>
-      </c>
-      <c r="H8">
-        <v>133338.63836947101</v>
-      </c>
-      <c r="I8">
-        <v>98973.796544951299</v>
-      </c>
-      <c r="J8">
-        <v>10748.699326660801</v>
-      </c>
-      <c r="K8">
-        <v>106580.000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>860.00000000000296</v>
-      </c>
-      <c r="D9">
-        <v>3589.3496254265101</v>
-      </c>
-      <c r="E9">
-        <v>1089.7704484579999</v>
-      </c>
-      <c r="F9">
-        <v>10837.2068839522</v>
-      </c>
-      <c r="G9">
-        <v>532840.33308973501</v>
-      </c>
-      <c r="H9">
-        <v>90344.521249255107</v>
-      </c>
-      <c r="I9">
-        <v>103847.66666672401</v>
-      </c>
-      <c r="J9">
-        <v>10570.223105647599</v>
-      </c>
-      <c r="K9">
-        <v>113140.56996557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44255</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10">
-        <v>750</v>
-      </c>
-      <c r="D10">
-        <v>3585.2715153543299</v>
-      </c>
-      <c r="E10">
-        <v>1092.7880563189001</v>
-      </c>
-      <c r="F10">
-        <v>11099.135316674299</v>
-      </c>
-      <c r="G10">
-        <v>533273.75105636998</v>
-      </c>
-      <c r="H10">
-        <v>85138.355294972906</v>
-      </c>
-      <c r="I10">
-        <v>30736.666666738402</v>
-      </c>
-      <c r="J10">
-        <v>10650.479754865901</v>
-      </c>
-      <c r="K10">
-        <v>135767.47991953601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>800.00000000000296</v>
-      </c>
-      <c r="D11">
-        <v>3581.4789722440901</v>
-      </c>
-      <c r="E11">
-        <v>1091.2966744881901</v>
-      </c>
-      <c r="F11">
-        <v>10969.2934120554</v>
-      </c>
-      <c r="G11">
-        <v>982302.74507014803</v>
-      </c>
-      <c r="H11">
-        <v>169475.4229411</v>
-      </c>
-      <c r="I11">
-        <v>99676.666666570803</v>
-      </c>
-      <c r="J11">
-        <v>14856.7729808228</v>
-      </c>
-      <c r="K11">
-        <v>179361.26349298301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44316</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>710.00000000000296</v>
-      </c>
-      <c r="D12">
-        <v>3580.5914141732201</v>
-      </c>
-      <c r="E12">
-        <v>1087.7241588090501</v>
-      </c>
-      <c r="F12">
-        <v>10661.397027658601</v>
-      </c>
-      <c r="G12">
-        <v>1046567.5503784399</v>
-      </c>
-      <c r="H12">
-        <v>163228.20009679001</v>
-      </c>
-      <c r="I12">
-        <v>97182.666666673002</v>
-      </c>
-      <c r="J12">
-        <v>21043.293425406799</v>
-      </c>
-      <c r="K12">
-        <v>166221.93272148899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44347</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>710</v>
-      </c>
-      <c r="D13">
-        <v>3587.9761713582602</v>
-      </c>
-      <c r="E13">
-        <v>1084.1785632808401</v>
-      </c>
-      <c r="F13">
-        <v>10360.2380270214</v>
-      </c>
-      <c r="G13">
-        <v>1007075.92823171</v>
-      </c>
-      <c r="H13">
-        <v>171558.41822573301</v>
-      </c>
-      <c r="I13">
-        <v>88435.666666570003</v>
-      </c>
-      <c r="J13">
-        <v>27429.188282873802</v>
-      </c>
-      <c r="K13">
-        <v>140778.50333762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>750.00000000000102</v>
-      </c>
-      <c r="D14">
-        <v>3601.5245949803102</v>
-      </c>
-      <c r="E14">
-        <v>1081.22423926181</v>
-      </c>
-      <c r="F14">
-        <v>10112.6771305373</v>
-      </c>
-      <c r="G14">
-        <v>961012.25183805102</v>
-      </c>
-      <c r="H14">
-        <v>99714.9147634244</v>
-      </c>
-      <c r="I14">
-        <v>85852.666666641002</v>
-      </c>
-      <c r="J14">
-        <v>27521.272227658399</v>
-      </c>
-      <c r="K14">
-        <v>150484.92434841499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44408</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>849.99999999999898</v>
-      </c>
-      <c r="D15">
-        <v>3600.67035964567</v>
-      </c>
-      <c r="E15">
-        <v>1081.0852705642999</v>
-      </c>
-      <c r="F15">
-        <v>10101.1010380767</v>
-      </c>
-      <c r="G15">
-        <v>840711.37854659895</v>
-      </c>
-      <c r="H15">
-        <v>51819.245788692097</v>
-      </c>
-      <c r="I15">
-        <v>88663.666666664503</v>
-      </c>
-      <c r="J15">
-        <v>28006.191350299501</v>
-      </c>
-      <c r="K15">
-        <v>161399.83763827899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16">
-        <v>900.00000000000205</v>
-      </c>
-      <c r="D16">
-        <v>3596.2241566601001</v>
-      </c>
-      <c r="E16">
-        <v>1082.12067383202</v>
-      </c>
-      <c r="F16">
-        <v>10187.471159270999</v>
-      </c>
-      <c r="G16">
-        <v>799183.13938007294</v>
-      </c>
-      <c r="H16">
-        <v>51819.245788692097</v>
-      </c>
-      <c r="I16">
-        <v>88663.666666664503</v>
-      </c>
-      <c r="J16">
-        <v>28476.748756777499</v>
-      </c>
-      <c r="K16">
-        <v>127605.01913813299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>669.99999999999795</v>
-      </c>
-      <c r="D17">
-        <v>3593.4042543307</v>
-      </c>
-      <c r="E17">
-        <v>1081.38074228346</v>
-      </c>
-      <c r="F17">
-        <v>10125.7138321818</v>
-      </c>
-      <c r="G17">
-        <v>727328.51725362905</v>
-      </c>
-      <c r="H17">
-        <v>140322.30400390999</v>
-      </c>
-      <c r="I17">
-        <v>70337.666666763806</v>
-      </c>
-      <c r="J17">
-        <v>24583.034059359499</v>
-      </c>
-      <c r="K17">
-        <v>124008.88650594999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18">
-        <v>639.99999999999704</v>
-      </c>
-      <c r="D18">
-        <v>3591.73950925196</v>
-      </c>
-      <c r="E18">
-        <v>1082.65486512795</v>
-      </c>
-      <c r="F18">
-        <v>10232.175697774501</v>
-      </c>
-      <c r="G18">
-        <v>535328.15397537197</v>
-      </c>
-      <c r="H18">
-        <v>172599.47511558601</v>
-      </c>
-      <c r="I18">
-        <v>56619.666666734498</v>
-      </c>
-      <c r="J18">
-        <v>23522.801482902501</v>
-      </c>
-      <c r="K18">
-        <v>88278.672327672204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <v>640.00000000000205</v>
-      </c>
-      <c r="D19">
-        <v>3589.67259438976</v>
-      </c>
-      <c r="E19">
-        <v>1082.5916416765101</v>
-      </c>
-      <c r="F19">
-        <v>10226.8775724183</v>
-      </c>
-      <c r="G19">
-        <v>654420.87115926202</v>
-      </c>
-      <c r="H19">
-        <v>166352.25227133199</v>
-      </c>
-      <c r="I19">
-        <v>54828.666666610501</v>
-      </c>
-      <c r="J19">
-        <v>16775.329300589401</v>
-      </c>
-      <c r="K19">
-        <v>103900.461258426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>720.00000000000296</v>
-      </c>
-      <c r="D20">
-        <v>3587.01894117454</v>
-      </c>
-      <c r="E20">
-        <v>1085.3033778051199</v>
-      </c>
-      <c r="F20">
-        <v>10455.298032390499</v>
-      </c>
-      <c r="G20">
-        <v>491365.91085902002</v>
-      </c>
-      <c r="H20">
-        <v>88260.644460128999</v>
-      </c>
-      <c r="I20">
-        <v>56309.6666666651</v>
-      </c>
-      <c r="J20">
-        <v>12222.6652727455</v>
-      </c>
-      <c r="K20">
-        <v>109331.44934599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44592</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
-        <v>860.00000000000296</v>
-      </c>
-      <c r="D21">
-        <v>3582.9292508530102</v>
-      </c>
-      <c r="E21">
-        <v>1089.63267459646</v>
-      </c>
-      <c r="F21">
-        <v>10825.322510665301</v>
-      </c>
-      <c r="G21">
-        <v>519253.528981518</v>
-      </c>
-      <c r="H21">
-        <v>90587.050475676297</v>
-      </c>
-      <c r="I21">
-        <v>89889.333333229501</v>
-      </c>
-      <c r="J21">
-        <v>10785.3641372036</v>
-      </c>
-      <c r="K21">
-        <v>113140.56996557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44620</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
-        <v>750</v>
-      </c>
-      <c r="D22">
-        <v>3579.83329744094</v>
-      </c>
-      <c r="E22">
-        <v>1092.7962117454099</v>
-      </c>
-      <c r="F22">
-        <v>11099.8472854064</v>
-      </c>
-      <c r="G22">
-        <v>519648.67346952599</v>
-      </c>
-      <c r="H22">
-        <v>85379.611040820193</v>
-      </c>
-      <c r="I22">
-        <v>16677.333333329199</v>
-      </c>
-      <c r="J22">
-        <v>10867.254290097701</v>
-      </c>
-      <c r="K22">
-        <v>135767.47991953601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>800.00000000000296</v>
-      </c>
-      <c r="D23">
-        <v>3577.4520645669299</v>
-      </c>
-      <c r="E23">
-        <v>1091.45100947835</v>
-      </c>
-      <c r="F23">
-        <v>10982.686602694401</v>
-      </c>
-      <c r="G23">
-        <v>968485.29717838694</v>
-      </c>
-      <c r="H23">
-        <v>169737.30838273</v>
-      </c>
-      <c r="I23">
-        <v>85417.333333356306</v>
-      </c>
-      <c r="J23">
-        <v>15159.1603034491</v>
-      </c>
-      <c r="K23">
-        <v>179361.26349298301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44681</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>710.00000000000296</v>
-      </c>
-      <c r="D24">
-        <v>3579.2598363517</v>
-      </c>
-      <c r="E24">
-        <v>1088.0272570669299</v>
-      </c>
-      <c r="F24">
-        <v>10687.3350209278</v>
-      </c>
-      <c r="G24">
-        <v>1032745.57435416</v>
-      </c>
-      <c r="H24">
-        <v>163488.55740483699</v>
-      </c>
-      <c r="I24">
-        <v>82932.333333254603</v>
-      </c>
-      <c r="J24">
-        <v>21471.5980893833</v>
-      </c>
-      <c r="K24">
-        <v>166221.93272148899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44712</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25">
-        <v>710</v>
-      </c>
-      <c r="D25">
-        <v>3594.0292250984198</v>
-      </c>
-      <c r="E25">
-        <v>1084.6320435662701</v>
-      </c>
-      <c r="F25">
-        <v>10398.508322264501</v>
-      </c>
-      <c r="G25">
-        <v>993319.98986239603</v>
-      </c>
-      <c r="H25">
-        <v>171820.81318884101</v>
-      </c>
-      <c r="I25">
-        <v>74209.333333406306</v>
-      </c>
-      <c r="J25">
-        <v>27987.468254986001</v>
-      </c>
-      <c r="K25">
-        <v>140778.50333762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>750.00000000000102</v>
-      </c>
-      <c r="D26">
-        <v>3609.40800515091</v>
-      </c>
-      <c r="E26">
-        <v>1081.8303308464599</v>
-      </c>
-      <c r="F26">
-        <v>10163.2174124469</v>
-      </c>
-      <c r="G26">
-        <v>947276.73982303601</v>
-      </c>
-      <c r="H26">
-        <v>99959.736082482399</v>
-      </c>
-      <c r="I26">
-        <v>71633.333333232396</v>
-      </c>
-      <c r="J26">
-        <v>28081.426430512402</v>
-      </c>
-      <c r="K26">
-        <v>150484.92434841499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44773</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27">
-        <v>849.99999999999898</v>
-      </c>
-      <c r="D27">
-        <v>3609.9950997703399</v>
-      </c>
-      <c r="E27">
-        <v>1081.8374736778201</v>
-      </c>
-      <c r="F27">
-        <v>10163.813553287901</v>
-      </c>
-      <c r="G27">
-        <v>827005.15076903696</v>
-      </c>
-      <c r="H27">
-        <v>52052.351344924296</v>
-      </c>
-      <c r="I27">
-        <v>74436.333333413801</v>
-      </c>
-      <c r="J27">
-        <v>28576.215354325701</v>
-      </c>
-      <c r="K27">
-        <v>161399.83763827899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>900.00000000000205</v>
-      </c>
-      <c r="D28">
-        <v>3606.4237946850399</v>
-      </c>
-      <c r="E28">
-        <v>1083.0145074081399</v>
-      </c>
-      <c r="F28">
-        <v>10262.316622325099</v>
-      </c>
-      <c r="G28">
-        <v>785459.911602768</v>
-      </c>
-      <c r="H28">
-        <v>52052.351344924296</v>
-      </c>
-      <c r="I28">
-        <v>74436.333333413801</v>
-      </c>
-      <c r="J28">
-        <v>29056.350250718799</v>
-      </c>
-      <c r="K28">
-        <v>127605.01913813299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>669.99999999999795</v>
-      </c>
-      <c r="D29">
-        <v>3604.5290588254602</v>
-      </c>
-      <c r="E29">
-        <v>1082.4227507283499</v>
-      </c>
-      <c r="F29">
-        <v>10212.7368708132</v>
-      </c>
-      <c r="G29">
-        <v>713643.938214903</v>
-      </c>
-      <c r="H29">
-        <v>140577.05829921601</v>
-      </c>
-      <c r="I29">
-        <v>56163.333333281204</v>
-      </c>
-      <c r="J29">
-        <v>25083.3848328764</v>
-      </c>
-      <c r="K29">
-        <v>124008.88650594999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <v>172862.12473173</v>
-      </c>
-      <c r="I30">
-        <v>42486.333333417999</v>
-      </c>
-      <c r="J30">
-        <v>24001.572813028801</v>
-      </c>
-      <c r="K30">
-        <v>88278.672327672204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H31">
-        <v>166613.37375383699</v>
-      </c>
-      <c r="I31">
-        <v>40699.333333264003</v>
-      </c>
-      <c r="J31">
-        <v>17116.7659584721</v>
-      </c>
-      <c r="K31">
-        <v>103900.461258426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <v>88502.663949451002</v>
-      </c>
-      <c r="I32">
-        <v>42174.3333333915</v>
-      </c>
-      <c r="J32">
-        <v>12471.439285255099</v>
-      </c>
-      <c r="K32">
-        <v>109331.44934599999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7804839C-1F1A-4C02-90BD-3C445F71C981}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3440,65 +2430,125 @@
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
       <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44043</v>
       </c>
@@ -3506,34 +2556,64 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>3298.69360156123</v>
+      </c>
+      <c r="D3">
+        <v>327.86540073835499</v>
+      </c>
+      <c r="E3">
+        <v>550.81598225058997</v>
+      </c>
+      <c r="F3">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G3">
+        <v>107.48</v>
+      </c>
+      <c r="H3">
+        <v>1286.6008250233799</v>
+      </c>
+      <c r="I3">
+        <v>81.095794000409199</v>
+      </c>
+      <c r="J3">
+        <v>83.998545081137706</v>
+      </c>
+      <c r="K3">
+        <v>538.91500000049905</v>
+      </c>
+      <c r="L3">
+        <v>12547.79502994</v>
+      </c>
+      <c r="M3">
         <v>750</v>
       </c>
-      <c r="D3">
-        <v>3608.1749115566499</v>
-      </c>
-      <c r="E3">
-        <v>1085.25248021026</v>
-      </c>
-      <c r="F3">
-        <v>10450.9880241716</v>
-      </c>
-      <c r="G3">
-        <v>890328.64558036195</v>
-      </c>
-      <c r="H3">
-        <v>52000</v>
-      </c>
-      <c r="I3">
-        <v>98996</v>
-      </c>
-      <c r="J3">
-        <v>29338.584275000001</v>
-      </c>
-      <c r="K3">
-        <v>160189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>3608.17809045275</v>
+      </c>
+      <c r="O3">
+        <v>1085.2514934579999</v>
+      </c>
+      <c r="P3">
+        <v>10450.9044658741</v>
+      </c>
+      <c r="Q3">
+        <v>890328.645587123</v>
+      </c>
+      <c r="R3">
+        <v>51999.999999929903</v>
+      </c>
+      <c r="S3">
+        <v>98995.999999910797</v>
+      </c>
+      <c r="T3">
+        <v>29427.699326569898</v>
+      </c>
+      <c r="U3">
+        <v>160188.99999998999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44074</v>
       </c>
@@ -3541,34 +2621,64 @@
         <v>44</v>
       </c>
       <c r="C4">
+        <v>3256.76316974163</v>
+      </c>
+      <c r="D4">
+        <v>318.36433981369498</v>
+      </c>
+      <c r="E4">
+        <v>517.794051688575</v>
+      </c>
+      <c r="F4">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G4">
+        <v>107.48</v>
+      </c>
+      <c r="H4">
+        <v>1241.1404295939001</v>
+      </c>
+      <c r="I4">
+        <v>68.955794000349997</v>
+      </c>
+      <c r="J4">
+        <v>57.900152474882702</v>
+      </c>
+      <c r="K4">
+        <v>450.18499999971903</v>
+      </c>
+      <c r="L4">
+        <v>12143.0391413631</v>
+      </c>
+      <c r="M4">
         <v>835.00000000000102</v>
       </c>
-      <c r="D4">
-        <v>3604.0705567543</v>
-      </c>
-      <c r="E4">
-        <v>1085.2619228388</v>
-      </c>
-      <c r="F4">
-        <v>10451.7876259558</v>
-      </c>
-      <c r="G4">
-        <v>822918.01934705698</v>
-      </c>
-      <c r="H4">
-        <v>52000</v>
-      </c>
-      <c r="I4">
-        <v>98996</v>
-      </c>
-      <c r="J4">
-        <v>29887.584275000001</v>
-      </c>
-      <c r="K4">
-        <v>125426.00000003399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3604.07379327427</v>
+      </c>
+      <c r="O4">
+        <v>1085.2599523720501</v>
+      </c>
+      <c r="P4">
+        <v>10451.6207667333</v>
+      </c>
+      <c r="Q4">
+        <v>822918.01934831298</v>
+      </c>
+      <c r="R4">
+        <v>51999.999999929903</v>
+      </c>
+      <c r="S4">
+        <v>98995.999999910797</v>
+      </c>
+      <c r="T4">
+        <v>29976.6993266061</v>
+      </c>
+      <c r="U4">
+        <v>125425.999999972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44104</v>
       </c>
@@ -3576,34 +2686,64 @@
         <v>45</v>
       </c>
       <c r="C5">
+        <v>3212.6714189639101</v>
+      </c>
+      <c r="D5">
+        <v>294.06220675788899</v>
+      </c>
+      <c r="E5">
+        <v>485.36554160322999</v>
+      </c>
+      <c r="F5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G5">
+        <v>107.48</v>
+      </c>
+      <c r="H5">
+        <v>1225.2253709506101</v>
+      </c>
+      <c r="I5">
+        <v>56.205794000375001</v>
+      </c>
+      <c r="J5">
+        <v>39.387219307579201</v>
+      </c>
+      <c r="K5">
+        <v>433.23899999916802</v>
+      </c>
+      <c r="L5">
+        <v>11944.7807915797</v>
+      </c>
+      <c r="M5">
         <v>599.97999999999797</v>
       </c>
-      <c r="D5">
-        <v>3602.0265892400198</v>
-      </c>
-      <c r="E5">
-        <v>1083.6828266482901</v>
-      </c>
-      <c r="F5">
-        <v>10318.4846907355</v>
-      </c>
-      <c r="G5">
-        <v>732207.89033649897</v>
-      </c>
-      <c r="H5">
+      <c r="N5">
+        <v>3602.0298505905498</v>
+      </c>
+      <c r="O5">
+        <v>1083.6798558923899</v>
+      </c>
+      <c r="P5">
+        <v>10318.2346717851</v>
+      </c>
+      <c r="Q5">
+        <v>732207.89033726195</v>
+      </c>
+      <c r="R5">
         <v>140000</v>
       </c>
-      <c r="I5">
-        <v>95803</v>
-      </c>
-      <c r="J5">
-        <v>25274.584275000001</v>
-      </c>
-      <c r="K5">
-        <v>123996.000000035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>95803.000000076194</v>
+      </c>
+      <c r="T5">
+        <v>25363.699326649501</v>
+      </c>
+      <c r="U5">
+        <v>123996.00000003001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44135</v>
       </c>
@@ -3611,34 +2751,64 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>3203.8119006172701</v>
+      </c>
+      <c r="D6">
+        <v>273.32964237182102</v>
+      </c>
+      <c r="E6">
+        <v>447.34127919718298</v>
+      </c>
+      <c r="F6">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G6">
+        <v>107.48</v>
+      </c>
+      <c r="H6">
+        <v>1228.7311620764799</v>
+      </c>
+      <c r="I6">
+        <v>53.915794000361899</v>
+      </c>
+      <c r="J6">
+        <v>32.796740062126403</v>
+      </c>
+      <c r="K6">
+        <v>472.78700000104999</v>
+      </c>
+      <c r="L6">
+        <v>11759.915889674499</v>
+      </c>
+      <c r="M6">
         <v>639.99999999999704</v>
       </c>
-      <c r="D6">
-        <v>3600.09978886006</v>
-      </c>
-      <c r="E6">
-        <v>1084.53067454559</v>
-      </c>
-      <c r="F6">
-        <v>10389.940612602</v>
-      </c>
-      <c r="G6">
-        <v>571758.33984100597</v>
-      </c>
-      <c r="H6">
-        <v>178000</v>
-      </c>
-      <c r="I6">
-        <v>99230</v>
-      </c>
-      <c r="J6">
-        <v>24035.584275000001</v>
-      </c>
-      <c r="K6">
-        <v>84873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>3600.1030789042002</v>
+      </c>
+      <c r="O6">
+        <v>1084.5267326542</v>
+      </c>
+      <c r="P6">
+        <v>10389.607443900701</v>
+      </c>
+      <c r="Q6">
+        <v>571758.33984182903</v>
+      </c>
+      <c r="R6">
+        <v>177999.999999944</v>
+      </c>
+      <c r="S6">
+        <v>99230.000000093496</v>
+      </c>
+      <c r="T6">
+        <v>24124.699326640701</v>
+      </c>
+      <c r="U6">
+        <v>84872.999999958804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44165</v>
       </c>
@@ -3646,34 +2816,64 @@
         <v>44</v>
       </c>
       <c r="C7">
+        <v>3208.0443242339602</v>
+      </c>
+      <c r="D7">
+        <v>245.683082784204</v>
+      </c>
+      <c r="E7">
+        <v>454.56517506395699</v>
+      </c>
+      <c r="F7">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G7">
+        <v>107.48</v>
+      </c>
+      <c r="H7">
+        <v>1229.4803414335399</v>
+      </c>
+      <c r="I7">
+        <v>52.865794000301001</v>
+      </c>
+      <c r="J7">
+        <v>37.245350690564997</v>
+      </c>
+      <c r="K7">
+        <v>431.65100000049898</v>
+      </c>
+      <c r="L7">
+        <v>11538.3236659548</v>
+      </c>
+      <c r="M7">
         <v>640.00000000000205</v>
       </c>
-      <c r="D7">
-        <v>3597.7639515046999</v>
-      </c>
-      <c r="E7">
-        <v>1083.74114034171</v>
-      </c>
-      <c r="F7">
-        <v>10323.3923711714</v>
-      </c>
-      <c r="G7">
-        <v>720116.05713191198</v>
-      </c>
-      <c r="H7">
-        <v>185066.594641915</v>
-      </c>
-      <c r="I7">
-        <v>96635.971530000301</v>
-      </c>
-      <c r="J7">
-        <v>16066.584274999999</v>
-      </c>
-      <c r="K7">
-        <v>102268.99999998001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>3597.7672775262399</v>
+      </c>
+      <c r="O7">
+        <v>1083.7590032841199</v>
+      </c>
+      <c r="P7">
+        <v>10324.8957162771</v>
+      </c>
+      <c r="Q7">
+        <v>718069.92587468599</v>
+      </c>
+      <c r="R7">
+        <v>183853.638369572</v>
+      </c>
+      <c r="S7">
+        <v>95802.796544938101</v>
+      </c>
+      <c r="T7">
+        <v>16155.6993266715</v>
+      </c>
+      <c r="U7">
+        <v>102269.000000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44196</v>
       </c>
@@ -3681,34 +2881,64 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <v>3187.10737361672</v>
+      </c>
+      <c r="D8">
+        <v>207.84323279516701</v>
+      </c>
+      <c r="E8">
+        <v>452.366706995394</v>
+      </c>
+      <c r="F8">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G8">
+        <v>107.48</v>
+      </c>
+      <c r="H8">
+        <v>1225.2074122102999</v>
+      </c>
+      <c r="I8">
+        <v>51.165794000326002</v>
+      </c>
+      <c r="J8">
+        <v>40.351306537484803</v>
+      </c>
+      <c r="K8">
+        <v>401.49000000009499</v>
+      </c>
+      <c r="L8">
+        <v>11220.842698193999</v>
+      </c>
+      <c r="M8">
         <v>720.00000000000296</v>
       </c>
-      <c r="D8">
-        <v>3594.36756481662</v>
-      </c>
-      <c r="E8">
-        <v>1085.55272991066</v>
-      </c>
-      <c r="F8">
-        <v>10476.4237147844</v>
-      </c>
-      <c r="G8">
-        <v>573120.71656130196</v>
-      </c>
-      <c r="H8">
-        <v>134551.594641915</v>
-      </c>
-      <c r="I8">
-        <v>99806.971530000301</v>
-      </c>
-      <c r="J8">
-        <v>10659.584274999999</v>
-      </c>
-      <c r="K8">
-        <v>106580.000000024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>3594.3709467191602</v>
+      </c>
+      <c r="O8">
+        <v>1085.5920461548501</v>
+      </c>
+      <c r="P8">
+        <v>10479.760877713001</v>
+      </c>
+      <c r="Q8">
+        <v>571074.58530320297</v>
+      </c>
+      <c r="R8">
+        <v>133338.63836947101</v>
+      </c>
+      <c r="S8">
+        <v>98973.796544951299</v>
+      </c>
+      <c r="T8">
+        <v>10748.699326660801</v>
+      </c>
+      <c r="U8">
+        <v>106580.000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44227</v>
       </c>
@@ -3716,34 +2946,64 @@
         <v>46</v>
       </c>
       <c r="C9">
+        <v>3172.9080420280002</v>
+      </c>
+      <c r="D9">
+        <v>168.08046843009399</v>
+      </c>
+      <c r="E9">
+        <v>447.16890753873798</v>
+      </c>
+      <c r="F9">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G9">
+        <v>107.48</v>
+      </c>
+      <c r="H9">
+        <v>1218.9389768230601</v>
+      </c>
+      <c r="I9">
+        <v>49.465794000350897</v>
+      </c>
+      <c r="J9">
+        <v>43.454885986057299</v>
+      </c>
+      <c r="K9">
+        <v>371.48999999988501</v>
+      </c>
+      <c r="L9">
+        <v>10761.738927905901</v>
+      </c>
+      <c r="M9">
         <v>860.00000000000296</v>
       </c>
-      <c r="D9">
-        <v>3589.3461542775399</v>
-      </c>
-      <c r="E9">
-        <v>1089.7318097703401</v>
-      </c>
-      <c r="F9">
-        <v>10833.8739108061</v>
-      </c>
-      <c r="G9">
-        <v>532840.33309400803</v>
-      </c>
-      <c r="H9">
-        <v>90344.521249270096</v>
-      </c>
-      <c r="I9">
-        <v>103847.66666666701</v>
-      </c>
-      <c r="J9">
-        <v>10570.223105651599</v>
-      </c>
-      <c r="K9">
-        <v>113140.56997013099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>3589.3496254265101</v>
+      </c>
+      <c r="O9">
+        <v>1089.7704484579999</v>
+      </c>
+      <c r="P9">
+        <v>10837.2068839522</v>
+      </c>
+      <c r="Q9">
+        <v>532840.33308973501</v>
+      </c>
+      <c r="R9">
+        <v>90344.521249255107</v>
+      </c>
+      <c r="S9">
+        <v>103847.66666672401</v>
+      </c>
+      <c r="T9">
+        <v>10570.223105647599</v>
+      </c>
+      <c r="U9">
+        <v>113140.56996557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44255</v>
       </c>
@@ -3751,34 +3011,64 @@
         <v>46</v>
       </c>
       <c r="C10">
+        <v>3164.31205356895</v>
+      </c>
+      <c r="D10">
+        <v>133.10355755252399</v>
+      </c>
+      <c r="E10">
+        <v>441.90795984946999</v>
+      </c>
+      <c r="F10">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G10">
+        <v>107.48</v>
+      </c>
+      <c r="H10">
+        <v>1219.26218955945</v>
+      </c>
+      <c r="I10">
+        <v>47.765794000375898</v>
+      </c>
+      <c r="J10">
+        <v>45.711754935773598</v>
+      </c>
+      <c r="K10">
+        <v>364.69099999961099</v>
+      </c>
+      <c r="L10">
+        <v>10397.8925425449</v>
+      </c>
+      <c r="M10">
         <v>750</v>
       </c>
-      <c r="D10">
-        <v>3585.2679699118999</v>
-      </c>
-      <c r="E10">
-        <v>1092.74992126087</v>
-      </c>
-      <c r="F10">
-        <v>11095.8061260545</v>
-      </c>
-      <c r="G10">
-        <v>533273.75105629803</v>
-      </c>
-      <c r="H10">
-        <v>85138.355294892594</v>
-      </c>
-      <c r="I10">
-        <v>30736.666666666701</v>
-      </c>
-      <c r="J10">
-        <v>10650.4797548713</v>
-      </c>
-      <c r="K10">
-        <v>135767.47991919899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>3585.2715153543299</v>
+      </c>
+      <c r="O10">
+        <v>1092.7880563189001</v>
+      </c>
+      <c r="P10">
+        <v>11099.135316674299</v>
+      </c>
+      <c r="Q10">
+        <v>533273.75105636998</v>
+      </c>
+      <c r="R10">
+        <v>85138.355294972906</v>
+      </c>
+      <c r="S10">
+        <v>30736.666666738402</v>
+      </c>
+      <c r="T10">
+        <v>10650.479754865901</v>
+      </c>
+      <c r="U10">
+        <v>135767.47991953601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44286</v>
       </c>
@@ -3786,34 +3076,64 @@
         <v>45</v>
       </c>
       <c r="C11">
+        <v>3192.9126969478102</v>
+      </c>
+      <c r="D11">
+        <v>111.221728062708</v>
+      </c>
+      <c r="E11">
+        <v>446.606188779636</v>
+      </c>
+      <c r="F11">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G11">
+        <v>107.48</v>
+      </c>
+      <c r="H11">
+        <v>1243.3586263980301</v>
+      </c>
+      <c r="I11">
+        <v>45.565794000379597</v>
+      </c>
+      <c r="J11">
+        <v>50.718510642674801</v>
+      </c>
+      <c r="K11">
+        <v>455.06900000029202</v>
+      </c>
+      <c r="L11">
+        <v>10066.7628504272</v>
+      </c>
+      <c r="M11">
         <v>800.00000000000296</v>
       </c>
-      <c r="D11">
-        <v>3581.4753507229998</v>
-      </c>
-      <c r="E11">
-        <v>1091.2583595808801</v>
-      </c>
-      <c r="F11">
-        <v>10965.9684444341</v>
-      </c>
-      <c r="G11">
-        <v>982302.74506866501</v>
-      </c>
-      <c r="H11">
-        <v>169475.422941203</v>
-      </c>
-      <c r="I11">
-        <v>99676.666666666599</v>
-      </c>
-      <c r="J11">
-        <v>14856.772980817501</v>
-      </c>
-      <c r="K11">
-        <v>179361.26349244299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>3581.4789722440901</v>
+      </c>
+      <c r="O11">
+        <v>1091.2966744881901</v>
+      </c>
+      <c r="P11">
+        <v>10969.2934120554</v>
+      </c>
+      <c r="Q11">
+        <v>982302.74507014803</v>
+      </c>
+      <c r="R11">
+        <v>169475.4229411</v>
+      </c>
+      <c r="S11">
+        <v>99676.666666570803</v>
+      </c>
+      <c r="T11">
+        <v>14856.7729808228</v>
+      </c>
+      <c r="U11">
+        <v>179361.26349298301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44316</v>
       </c>
@@ -3821,34 +3141,64 @@
         <v>1</v>
       </c>
       <c r="C12">
+        <v>3226.8148481891699</v>
+      </c>
+      <c r="D12">
+        <v>114.397270218876</v>
+      </c>
+      <c r="E12">
+        <v>464.40706744896102</v>
+      </c>
+      <c r="F12">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G12">
+        <v>107.48</v>
+      </c>
+      <c r="H12">
+        <v>1288.2400290379501</v>
+      </c>
+      <c r="I12">
+        <v>41.565794000371497</v>
+      </c>
+      <c r="J12">
+        <v>67.668108393760093</v>
+      </c>
+      <c r="K12">
+        <v>647.27499999910799</v>
+      </c>
+      <c r="L12">
+        <v>9990.2885438515896</v>
+      </c>
+      <c r="M12">
         <v>710.00000000000296</v>
       </c>
-      <c r="D12">
-        <v>3580.5877885270202</v>
-      </c>
-      <c r="E12">
-        <v>1087.68535946822</v>
-      </c>
-      <c r="F12">
-        <v>10658.077356080599</v>
-      </c>
-      <c r="G12">
-        <v>1046567.55028786</v>
-      </c>
-      <c r="H12">
-        <v>163228.20009686201</v>
-      </c>
-      <c r="I12">
-        <v>97182.666666666599</v>
-      </c>
-      <c r="J12">
-        <v>21043.293425405602</v>
-      </c>
-      <c r="K12">
-        <v>166221.93267248699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>3580.5914141732201</v>
+      </c>
+      <c r="O12">
+        <v>1087.7241588090501</v>
+      </c>
+      <c r="P12">
+        <v>10661.397027658601</v>
+      </c>
+      <c r="Q12">
+        <v>1046567.5503784399</v>
+      </c>
+      <c r="R12">
+        <v>163228.20009679001</v>
+      </c>
+      <c r="S12">
+        <v>97182.666666673002</v>
+      </c>
+      <c r="T12">
+        <v>21043.293425406799</v>
+      </c>
+      <c r="U12">
+        <v>166221.93272148899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44347</v>
       </c>
@@ -3856,34 +3206,64 @@
         <v>44</v>
       </c>
       <c r="C13">
+        <v>3273.1376665320799</v>
+      </c>
+      <c r="D13">
+        <v>161.95200632802499</v>
+      </c>
+      <c r="E13">
+        <v>609.40540174353396</v>
+      </c>
+      <c r="F13">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G13">
+        <v>107.48</v>
+      </c>
+      <c r="H13">
+        <v>1407.30511718874</v>
+      </c>
+      <c r="I13">
+        <v>52.565794000353101</v>
+      </c>
+      <c r="J13">
+        <v>99.197847544541602</v>
+      </c>
+      <c r="K13">
+        <v>1433.81399999993</v>
+      </c>
+      <c r="L13">
+        <v>10638.2869090235</v>
+      </c>
+      <c r="M13">
         <v>710</v>
       </c>
-      <c r="D13">
-        <v>3587.9726904771501</v>
-      </c>
-      <c r="E13">
-        <v>1084.1392759567</v>
-      </c>
-      <c r="F13">
-        <v>10356.9245341933</v>
-      </c>
-      <c r="G13">
-        <v>1007075.92822259</v>
-      </c>
-      <c r="H13">
-        <v>171558.418225692</v>
-      </c>
-      <c r="I13">
-        <v>88435.666666666599</v>
-      </c>
-      <c r="J13">
-        <v>27429.188282792202</v>
-      </c>
-      <c r="K13">
-        <v>140778.50333723301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>3587.9761713582602</v>
+      </c>
+      <c r="O13">
+        <v>1084.1785632808401</v>
+      </c>
+      <c r="P13">
+        <v>10360.2380270214</v>
+      </c>
+      <c r="Q13">
+        <v>1007075.92823171</v>
+      </c>
+      <c r="R13">
+        <v>171558.41822573301</v>
+      </c>
+      <c r="S13">
+        <v>88435.666666570003</v>
+      </c>
+      <c r="T13">
+        <v>27429.188282873802</v>
+      </c>
+      <c r="U13">
+        <v>140778.50333762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44377</v>
       </c>
@@ -3891,34 +3271,64 @@
         <v>45</v>
       </c>
       <c r="C14">
+        <v>3244.0049233200298</v>
+      </c>
+      <c r="D14">
+        <v>289.54399488937798</v>
+      </c>
+      <c r="E14">
+        <v>698.31921591534206</v>
+      </c>
+      <c r="F14">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G14">
+        <v>107.48</v>
+      </c>
+      <c r="H14">
+        <v>1462.8268090899101</v>
+      </c>
+      <c r="I14">
+        <v>70.565794000308202</v>
+      </c>
+      <c r="J14">
+        <v>121.892538578386</v>
+      </c>
+      <c r="K14">
+        <v>2148.71700000078</v>
+      </c>
+      <c r="L14">
+        <v>11896.1117424112</v>
+      </c>
+      <c r="M14">
         <v>750.00000000000102</v>
       </c>
-      <c r="D14">
-        <v>3601.5213721076002</v>
-      </c>
-      <c r="E14">
-        <v>1081.1845520243801</v>
-      </c>
-      <c r="F14">
-        <v>10109.371183617501</v>
-      </c>
-      <c r="G14">
-        <v>961012.25189437298</v>
-      </c>
-      <c r="H14">
-        <v>99714.914763498295</v>
-      </c>
-      <c r="I14">
-        <v>85852.666666666599</v>
-      </c>
-      <c r="J14">
-        <v>27521.272227686299</v>
-      </c>
-      <c r="K14">
-        <v>150484.924352906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>3601.5245949803102</v>
+      </c>
+      <c r="O14">
+        <v>1081.22423926181</v>
+      </c>
+      <c r="P14">
+        <v>10112.6771305373</v>
+      </c>
+      <c r="Q14">
+        <v>961012.25183805102</v>
+      </c>
+      <c r="R14">
+        <v>99714.9147634244</v>
+      </c>
+      <c r="S14">
+        <v>85852.666666641002</v>
+      </c>
+      <c r="T14">
+        <v>27521.272227658399</v>
+      </c>
+      <c r="U14">
+        <v>150484.92434841499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44408</v>
       </c>
@@ -3926,34 +3336,64 @@
         <v>2</v>
       </c>
       <c r="C15">
+        <v>3313.72404672519</v>
+      </c>
+      <c r="D15">
+        <v>325.28197075746698</v>
+      </c>
+      <c r="E15">
+        <v>718.09708125100406</v>
+      </c>
+      <c r="F15">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G15">
+        <v>107.48</v>
+      </c>
+      <c r="H15">
+        <v>1423.5696126999901</v>
+      </c>
+      <c r="I15">
+        <v>62.0657940003519</v>
+      </c>
+      <c r="J15">
+        <v>106.752027120081</v>
+      </c>
+      <c r="K15">
+        <v>811.95400000081304</v>
+      </c>
+      <c r="L15">
+        <v>11814.146729775901</v>
+      </c>
+      <c r="M15">
         <v>849.99999999999898</v>
       </c>
-      <c r="D15">
-        <v>3600.6671305701602</v>
-      </c>
-      <c r="E15">
-        <v>1081.04569697286</v>
-      </c>
-      <c r="F15">
-        <v>10097.804557811</v>
-      </c>
-      <c r="G15">
-        <v>840711.37849656004</v>
-      </c>
-      <c r="H15">
-        <v>51819.245788702603</v>
-      </c>
-      <c r="I15">
-        <v>88663.666666666599</v>
-      </c>
-      <c r="J15">
-        <v>28006.191350340101</v>
-      </c>
-      <c r="K15">
-        <v>161399.83758928199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>3600.67035964567</v>
+      </c>
+      <c r="O15">
+        <v>1081.0852705642999</v>
+      </c>
+      <c r="P15">
+        <v>10101.1010380767</v>
+      </c>
+      <c r="Q15">
+        <v>840711.37854659895</v>
+      </c>
+      <c r="R15">
+        <v>51819.245788692097</v>
+      </c>
+      <c r="S15">
+        <v>88663.666666664503</v>
+      </c>
+      <c r="T15">
+        <v>28006.191350299501</v>
+      </c>
+      <c r="U15">
+        <v>161399.83763827899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -3961,34 +3401,64 @@
         <v>47</v>
       </c>
       <c r="C16">
+        <v>3301.6441000843702</v>
+      </c>
+      <c r="D16">
+        <v>306.87314212635698</v>
+      </c>
+      <c r="E16">
+        <v>695.731971700749</v>
+      </c>
+      <c r="F16">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G16">
+        <v>107.48</v>
+      </c>
+      <c r="H16">
+        <v>1393.7825623993201</v>
+      </c>
+      <c r="I16">
+        <v>51.065794000370403</v>
+      </c>
+      <c r="J16">
+        <v>85.480837415198593</v>
+      </c>
+      <c r="K16">
+        <v>495.16699999998701</v>
+      </c>
+      <c r="L16">
+        <v>11393.3829942255</v>
+      </c>
+      <c r="M16">
         <v>900.00000000000205</v>
       </c>
-      <c r="D16">
-        <v>3596.22086210315</v>
-      </c>
-      <c r="E16">
-        <v>1082.08138076567</v>
-      </c>
-      <c r="F16">
-        <v>10184.184687270599</v>
-      </c>
-      <c r="G16">
-        <v>799183.13937485404</v>
-      </c>
-      <c r="H16">
-        <v>51819.245788702603</v>
-      </c>
-      <c r="I16">
-        <v>88663.666666666599</v>
-      </c>
-      <c r="J16">
-        <v>28476.748756817698</v>
-      </c>
-      <c r="K16">
-        <v>127605.019132897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>3596.2241566601001</v>
+      </c>
+      <c r="O16">
+        <v>1082.12067383202</v>
+      </c>
+      <c r="P16">
+        <v>10187.471159270999</v>
+      </c>
+      <c r="Q16">
+        <v>799183.13938007294</v>
+      </c>
+      <c r="R16">
+        <v>51819.245788692097</v>
+      </c>
+      <c r="S16">
+        <v>88663.666666664503</v>
+      </c>
+      <c r="T16">
+        <v>28476.748756777499</v>
+      </c>
+      <c r="U16">
+        <v>127605.01913813299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44469</v>
       </c>
@@ -3996,34 +3466,64 @@
         <v>0</v>
       </c>
       <c r="C17">
+        <v>3272.8662178412301</v>
+      </c>
+      <c r="D17">
+        <v>284.62803568882998</v>
+      </c>
+      <c r="E17">
+        <v>662.94857731336197</v>
+      </c>
+      <c r="F17">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G17">
+        <v>107.48</v>
+      </c>
+      <c r="H17">
+        <v>1381.11749296379</v>
+      </c>
+      <c r="I17">
+        <v>39.565794000367497</v>
+      </c>
+      <c r="J17">
+        <v>70.531288254050395</v>
+      </c>
+      <c r="K17">
+        <v>431.97799999900798</v>
+      </c>
+      <c r="L17">
+        <v>11131.502249031701</v>
+      </c>
+      <c r="M17">
         <v>669.99999999999795</v>
       </c>
-      <c r="D17">
-        <v>3593.4009175810302</v>
-      </c>
-      <c r="E17">
-        <v>1081.3413875087399</v>
-      </c>
-      <c r="F17">
-        <v>10122.4355794814</v>
-      </c>
-      <c r="G17">
-        <v>727328.51724845101</v>
-      </c>
-      <c r="H17">
-        <v>140322.30400399101</v>
-      </c>
-      <c r="I17">
-        <v>70337.666666666599</v>
-      </c>
-      <c r="J17">
-        <v>24583.034059411399</v>
-      </c>
-      <c r="K17">
-        <v>124008.88650078099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>3593.4042543307</v>
+      </c>
+      <c r="O17">
+        <v>1081.38074228346</v>
+      </c>
+      <c r="P17">
+        <v>10125.7138321818</v>
+      </c>
+      <c r="Q17">
+        <v>727328.51725362905</v>
+      </c>
+      <c r="R17">
+        <v>140322.30400390999</v>
+      </c>
+      <c r="S17">
+        <v>70337.666666763806</v>
+      </c>
+      <c r="T17">
+        <v>24583.034059359499</v>
+      </c>
+      <c r="U17">
+        <v>124008.88650594999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44500</v>
       </c>
@@ -4031,34 +3531,64 @@
         <v>46</v>
       </c>
       <c r="C18">
+        <v>3267.7818018011199</v>
+      </c>
+      <c r="D18">
+        <v>263.85169190256602</v>
+      </c>
+      <c r="E18">
+        <v>624.35050034235303</v>
+      </c>
+      <c r="F18">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G18">
+        <v>107.48</v>
+      </c>
+      <c r="H18">
+        <v>1380.7234833844</v>
+      </c>
+      <c r="I18">
+        <v>33.895794000362997</v>
+      </c>
+      <c r="J18">
+        <v>67.303392497825598</v>
+      </c>
+      <c r="K18">
+        <v>505.64700000059798</v>
+      </c>
+      <c r="L18">
+        <v>10978.722875016199</v>
+      </c>
+      <c r="M18">
         <v>639.99999999999704</v>
       </c>
-      <c r="D18">
-        <v>3591.7361529598502</v>
-      </c>
-      <c r="E18">
-        <v>1082.61581618215</v>
-      </c>
-      <c r="F18">
-        <v>10228.903396063801</v>
-      </c>
-      <c r="G18">
-        <v>535328.15397481795</v>
-      </c>
-      <c r="H18">
-        <v>172599.47511565499</v>
-      </c>
-      <c r="I18">
-        <v>56619.666666666599</v>
-      </c>
-      <c r="J18">
-        <v>23522.801482877399</v>
-      </c>
-      <c r="K18">
-        <v>88278.672327498905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>3591.73950925196</v>
+      </c>
+      <c r="O18">
+        <v>1082.65486512795</v>
+      </c>
+      <c r="P18">
+        <v>10232.175697774501</v>
+      </c>
+      <c r="Q18">
+        <v>535328.15397537197</v>
+      </c>
+      <c r="R18">
+        <v>172599.47511558601</v>
+      </c>
+      <c r="S18">
+        <v>56619.666666734498</v>
+      </c>
+      <c r="T18">
+        <v>23522.801482902501</v>
+      </c>
+      <c r="U18">
+        <v>88278.672327672204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44530</v>
       </c>
@@ -4066,34 +3596,64 @@
         <v>47</v>
       </c>
       <c r="C19">
+        <v>3260.7677630721901</v>
+      </c>
+      <c r="D19">
+        <v>238.04462665198201</v>
+      </c>
+      <c r="E19">
+        <v>626.48973814519502</v>
+      </c>
+      <c r="F19">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G19">
+        <v>107.48</v>
+      </c>
+      <c r="H19">
+        <v>1375.02876228987</v>
+      </c>
+      <c r="I19">
+        <v>33.635794000332503</v>
+      </c>
+      <c r="J19">
+        <v>73.090073103753099</v>
+      </c>
+      <c r="K19">
+        <v>466.51000000078602</v>
+      </c>
+      <c r="L19">
+        <v>10790.9005670197</v>
+      </c>
+      <c r="M19">
         <v>640.00000000000205</v>
       </c>
-      <c r="D19">
-        <v>3589.6692087732099</v>
-      </c>
-      <c r="E19">
-        <v>1082.55266317927</v>
-      </c>
-      <c r="F19">
-        <v>10223.611174422</v>
-      </c>
-      <c r="G19">
-        <v>654420.87115466106</v>
-      </c>
-      <c r="H19">
-        <v>166352.25227131401</v>
-      </c>
-      <c r="I19">
-        <v>54828.666666666599</v>
-      </c>
-      <c r="J19">
-        <v>16775.329300585301</v>
-      </c>
-      <c r="K19">
-        <v>103900.461253398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>3589.67259438976</v>
+      </c>
+      <c r="O19">
+        <v>1082.5916416765101</v>
+      </c>
+      <c r="P19">
+        <v>10226.8775724183</v>
+      </c>
+      <c r="Q19">
+        <v>654420.87115926202</v>
+      </c>
+      <c r="R19">
+        <v>166352.25227133199</v>
+      </c>
+      <c r="S19">
+        <v>54828.666666610501</v>
+      </c>
+      <c r="T19">
+        <v>16775.329300589401</v>
+      </c>
+      <c r="U19">
+        <v>103900.461258426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44561</v>
       </c>
@@ -4101,34 +3661,64 @@
         <v>1</v>
       </c>
       <c r="C20">
+        <v>3214.8440895281801</v>
+      </c>
+      <c r="D20">
+        <v>200.20855305823301</v>
+      </c>
+      <c r="E20">
+        <v>592.21720409471095</v>
+      </c>
+      <c r="F20">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G20">
+        <v>107.48</v>
+      </c>
+      <c r="H20">
+        <v>1364.2218039673201</v>
+      </c>
+      <c r="I20">
+        <v>33.115794000352501</v>
+      </c>
+      <c r="J20">
+        <v>77.514711040985603</v>
+      </c>
+      <c r="K20">
+        <v>486.00699999923597</v>
+      </c>
+      <c r="L20">
+        <v>10552.795363311199</v>
+      </c>
+      <c r="M20">
         <v>720.00000000000296</v>
       </c>
-      <c r="D20">
-        <v>3587.0155149488101</v>
-      </c>
-      <c r="E20">
-        <v>1085.2648642991001</v>
-      </c>
-      <c r="F20">
-        <v>10452.036708814299</v>
-      </c>
-      <c r="G20">
-        <v>491365.91085857298</v>
-      </c>
-      <c r="H20">
-        <v>88260.644460216907</v>
-      </c>
-      <c r="I20">
-        <v>56309.666666666599</v>
-      </c>
-      <c r="J20">
-        <v>12222.665272743499</v>
-      </c>
-      <c r="K20">
-        <v>109331.449345741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>3587.01894117454</v>
+      </c>
+      <c r="O20">
+        <v>1085.3033778051199</v>
+      </c>
+      <c r="P20">
+        <v>10455.298032390499</v>
+      </c>
+      <c r="Q20">
+        <v>491365.91085902002</v>
+      </c>
+      <c r="R20">
+        <v>88260.644460128999</v>
+      </c>
+      <c r="S20">
+        <v>56309.6666666651</v>
+      </c>
+      <c r="T20">
+        <v>12222.6652727455</v>
+      </c>
+      <c r="U20">
+        <v>109331.44934599999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44592</v>
       </c>
@@ -4136,34 +3726,64 @@
         <v>44</v>
       </c>
       <c r="C21">
+        <v>3175.8310974555202</v>
+      </c>
+      <c r="D21">
+        <v>160.775721050177</v>
+      </c>
+      <c r="E21">
+        <v>562.64892406675801</v>
+      </c>
+      <c r="F21">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G21">
+        <v>107.48</v>
+      </c>
+      <c r="H21">
+        <v>1351.2697671122301</v>
+      </c>
+      <c r="I21">
+        <v>32.265794000364998</v>
+      </c>
+      <c r="J21">
+        <v>80.988001572946899</v>
+      </c>
+      <c r="K21">
+        <v>477.90000000072001</v>
+      </c>
+      <c r="L21">
+        <v>10192.562541494</v>
+      </c>
+      <c r="M21">
         <v>860.00000000000296</v>
       </c>
-      <c r="D21">
-        <v>3582.9257405322401</v>
-      </c>
-      <c r="E21">
-        <v>1089.59491405619</v>
-      </c>
-      <c r="F21">
-        <v>10822.065286515401</v>
-      </c>
-      <c r="G21">
-        <v>519253.528987189</v>
-      </c>
-      <c r="H21">
-        <v>90587.050475757802</v>
-      </c>
-      <c r="I21">
-        <v>89889.333333333299</v>
-      </c>
-      <c r="J21">
-        <v>10785.3641372006</v>
-      </c>
-      <c r="K21">
-        <v>113140.56997013099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>3582.9292508530102</v>
+      </c>
+      <c r="O21">
+        <v>1089.63267459646</v>
+      </c>
+      <c r="P21">
+        <v>10825.322510665301</v>
+      </c>
+      <c r="Q21">
+        <v>519253.528981518</v>
+      </c>
+      <c r="R21">
+        <v>90587.050475676297</v>
+      </c>
+      <c r="S21">
+        <v>89889.333333229501</v>
+      </c>
+      <c r="T21">
+        <v>10785.3641372036</v>
+      </c>
+      <c r="U21">
+        <v>113140.56996557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44620</v>
       </c>
@@ -4171,34 +3791,64 @@
         <v>44</v>
       </c>
       <c r="C22">
+        <v>3147.5846290200602</v>
+      </c>
+      <c r="D22">
+        <v>125.478196330586</v>
+      </c>
+      <c r="E22">
+        <v>547.73574994368005</v>
+      </c>
+      <c r="F22">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G22">
+        <v>107.48</v>
+      </c>
+      <c r="H22">
+        <v>1349.4634785539499</v>
+      </c>
+      <c r="I22">
+        <v>31.365794000359099</v>
+      </c>
+      <c r="J22">
+        <v>83.960311781250795</v>
+      </c>
+      <c r="K22">
+        <v>468.61600000091101</v>
+      </c>
+      <c r="L22">
+        <v>9925.26926350332</v>
+      </c>
+      <c r="M22">
         <v>750</v>
       </c>
-      <c r="D22">
-        <v>3579.8297295679899</v>
-      </c>
-      <c r="E22">
-        <v>1092.7589433882299</v>
-      </c>
-      <c r="F22">
-        <v>11096.5937577733</v>
-      </c>
-      <c r="G22">
-        <v>519648.67346885498</v>
-      </c>
-      <c r="H22">
-        <v>85379.611040783493</v>
-      </c>
-      <c r="I22">
-        <v>16677.333333333401</v>
-      </c>
-      <c r="J22">
-        <v>10867.2542900965</v>
-      </c>
-      <c r="K22">
-        <v>135767.47991919899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>3579.83329744094</v>
+      </c>
+      <c r="O22">
+        <v>1092.7962117454099</v>
+      </c>
+      <c r="P22">
+        <v>11099.8472854064</v>
+      </c>
+      <c r="Q22">
+        <v>519648.67346952599</v>
+      </c>
+      <c r="R22">
+        <v>85379.611040820193</v>
+      </c>
+      <c r="S22">
+        <v>16677.333333329199</v>
+      </c>
+      <c r="T22">
+        <v>10867.254290097701</v>
+      </c>
+      <c r="U22">
+        <v>135767.47991953601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44651</v>
       </c>
@@ -4206,34 +3856,64 @@
         <v>0</v>
       </c>
       <c r="C23">
+        <v>3190.84561906925</v>
+      </c>
+      <c r="D23">
+        <v>108.677994573905</v>
+      </c>
+      <c r="E23">
+        <v>540.97331929242296</v>
+      </c>
+      <c r="F23">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G23">
+        <v>107.48</v>
+      </c>
+      <c r="H23">
+        <v>1388.3535019006899</v>
+      </c>
+      <c r="I23">
+        <v>30.605794000307402</v>
+      </c>
+      <c r="J23">
+        <v>90.519875328685899</v>
+      </c>
+      <c r="K23">
+        <v>593.58699999989904</v>
+      </c>
+      <c r="L23">
+        <v>9722.8333172258499</v>
+      </c>
+      <c r="M23">
         <v>800.00000000000296</v>
       </c>
-      <c r="D23">
-        <v>3577.4484494093399</v>
-      </c>
-      <c r="E23">
-        <v>1091.41356536136</v>
-      </c>
-      <c r="F23">
-        <v>10979.437202080901</v>
-      </c>
-      <c r="G23">
-        <v>968485.29717689205</v>
-      </c>
-      <c r="H23">
-        <v>169737.308382763</v>
-      </c>
-      <c r="I23">
-        <v>85417.333333333299</v>
-      </c>
-      <c r="J23">
-        <v>15159.1603034534</v>
-      </c>
-      <c r="K23">
-        <v>179361.26349244299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>3577.4520645669299</v>
+      </c>
+      <c r="O23">
+        <v>1091.45100947835</v>
+      </c>
+      <c r="P23">
+        <v>10982.686602694401</v>
+      </c>
+      <c r="Q23">
+        <v>968485.29717838694</v>
+      </c>
+      <c r="R23">
+        <v>169737.30838273</v>
+      </c>
+      <c r="S23">
+        <v>85417.333333356306</v>
+      </c>
+      <c r="T23">
+        <v>15159.1603034491</v>
+      </c>
+      <c r="U23">
+        <v>179361.26349298301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44681</v>
       </c>
@@ -4241,34 +3921,64 @@
         <v>2</v>
       </c>
       <c r="C24">
+        <v>3224.9902750892702</v>
+      </c>
+      <c r="D24">
+        <v>120.338405599978</v>
+      </c>
+      <c r="E24">
+        <v>551.09321854105701</v>
+      </c>
+      <c r="F24">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G24">
+        <v>107.48</v>
+      </c>
+      <c r="H24">
+        <v>1462.4003559278201</v>
+      </c>
+      <c r="I24">
+        <v>29.365794000355098</v>
+      </c>
+      <c r="J24">
+        <v>111.725652913548</v>
+      </c>
+      <c r="K24">
+        <v>895.16400000058002</v>
+      </c>
+      <c r="L24">
+        <v>9876.2700793562908</v>
+      </c>
+      <c r="M24">
         <v>710.00000000000296</v>
       </c>
-      <c r="D24">
-        <v>3579.2562682345301</v>
-      </c>
-      <c r="E24">
-        <v>1087.9893968215799</v>
-      </c>
-      <c r="F24">
-        <v>10684.090792029199</v>
-      </c>
-      <c r="G24">
-        <v>1032745.5742625</v>
-      </c>
-      <c r="H24">
-        <v>163488.55740483201</v>
-      </c>
-      <c r="I24">
-        <v>82932.333333333299</v>
-      </c>
-      <c r="J24">
-        <v>21471.5980893165</v>
-      </c>
-      <c r="K24">
-        <v>166221.93267248699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>3579.2598363517</v>
+      </c>
+      <c r="O24">
+        <v>1088.0272570669299</v>
+      </c>
+      <c r="P24">
+        <v>10687.3350209278</v>
+      </c>
+      <c r="Q24">
+        <v>1032745.57435416</v>
+      </c>
+      <c r="R24">
+        <v>163488.55740483699</v>
+      </c>
+      <c r="S24">
+        <v>82932.333333254603</v>
+      </c>
+      <c r="T24">
+        <v>21471.5980893833</v>
+      </c>
+      <c r="U24">
+        <v>166221.93272148899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44712</v>
       </c>
@@ -4276,34 +3986,64 @@
         <v>47</v>
       </c>
       <c r="C25">
+        <v>3276.7635047356598</v>
+      </c>
+      <c r="D25">
+        <v>192.742169649369</v>
+      </c>
+      <c r="E25">
+        <v>574.04437330575695</v>
+      </c>
+      <c r="F25">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G25">
+        <v>107.48</v>
+      </c>
+      <c r="H25">
+        <v>1462.7098281051799</v>
+      </c>
+      <c r="I25">
+        <v>43.645794000372497</v>
+      </c>
+      <c r="J25">
+        <v>124.19611094281601</v>
+      </c>
+      <c r="K25">
+        <v>2152.3819999992602</v>
+      </c>
+      <c r="L25">
+        <v>11189.202011552299</v>
+      </c>
+      <c r="M25">
         <v>710</v>
       </c>
-      <c r="D25">
-        <v>3594.0259442123502</v>
-      </c>
-      <c r="E25">
-        <v>1084.5937307228201</v>
-      </c>
-      <c r="F25">
-        <v>10395.270120696099</v>
-      </c>
-      <c r="G25">
-        <v>993319.98985242797</v>
-      </c>
-      <c r="H25">
-        <v>171820.81318886601</v>
-      </c>
-      <c r="I25">
-        <v>74209.333333333299</v>
-      </c>
-      <c r="J25">
-        <v>27987.468255005399</v>
-      </c>
-      <c r="K25">
-        <v>140778.50333723301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>3594.0292250984198</v>
+      </c>
+      <c r="O25">
+        <v>1084.6320435662701</v>
+      </c>
+      <c r="P25">
+        <v>10398.508322264501</v>
+      </c>
+      <c r="Q25">
+        <v>993319.98986239603</v>
+      </c>
+      <c r="R25">
+        <v>171820.81318884101</v>
+      </c>
+      <c r="S25">
+        <v>74209.333333406306</v>
+      </c>
+      <c r="T25">
+        <v>27987.468254986001</v>
+      </c>
+      <c r="U25">
+        <v>140778.50333762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44742</v>
       </c>
@@ -4311,34 +4051,64 @@
         <v>0</v>
       </c>
       <c r="C26">
+        <v>3348.3449187964902</v>
+      </c>
+      <c r="D26">
+        <v>294.88823540945498</v>
+      </c>
+      <c r="E26">
+        <v>770.58126392994495</v>
+      </c>
+      <c r="F26">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G26">
+        <v>107.48</v>
+      </c>
+      <c r="H26">
+        <v>1322.8514755793001</v>
+      </c>
+      <c r="I26">
+        <v>65.365794000346398</v>
+      </c>
+      <c r="J26">
+        <v>123.707756017219</v>
+      </c>
+      <c r="K26">
+        <v>2392.4750000077001</v>
+      </c>
+      <c r="L26">
+        <v>12670.808412935299</v>
+      </c>
+      <c r="M26">
         <v>750.00000000000102</v>
       </c>
-      <c r="D26">
-        <v>3609.40498381514</v>
-      </c>
-      <c r="E26">
-        <v>1081.7916195835401</v>
-      </c>
-      <c r="F26">
-        <v>10159.9865704719</v>
-      </c>
-      <c r="G26">
-        <v>947276.73988010106</v>
-      </c>
-      <c r="H26">
-        <v>99959.736082560499</v>
-      </c>
-      <c r="I26">
-        <v>71633.333333333299</v>
-      </c>
-      <c r="J26">
-        <v>28081.426430433399</v>
-      </c>
-      <c r="K26">
-        <v>150484.924352906</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>3609.40800515091</v>
+      </c>
+      <c r="O26">
+        <v>1081.8303308464599</v>
+      </c>
+      <c r="P26">
+        <v>10163.2174124469</v>
+      </c>
+      <c r="Q26">
+        <v>947276.73982303601</v>
+      </c>
+      <c r="R26">
+        <v>99959.736082482399</v>
+      </c>
+      <c r="S26">
+        <v>71633.333333232396</v>
+      </c>
+      <c r="T26">
+        <v>28081.426430512402</v>
+      </c>
+      <c r="U26">
+        <v>150484.92434841499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44773</v>
       </c>
@@ -4346,34 +4116,64 @@
         <v>46</v>
       </c>
       <c r="C27">
+        <v>3437.1017081770901</v>
+      </c>
+      <c r="D27">
+        <v>325.63570947393498</v>
+      </c>
+      <c r="E27">
+        <v>799.32204334546202</v>
+      </c>
+      <c r="F27">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G27">
+        <v>107.48</v>
+      </c>
+      <c r="H27">
+        <v>1288.0655186127101</v>
+      </c>
+      <c r="I27">
+        <v>62.005794000313699</v>
+      </c>
+      <c r="J27">
+        <v>110.57176399546699</v>
+      </c>
+      <c r="K27">
+        <v>967.36300000038295</v>
+      </c>
+      <c r="L27">
+        <v>12729.8024002685</v>
+      </c>
+      <c r="M27">
         <v>849.99999999999898</v>
       </c>
-      <c r="D27">
-        <v>3609.9920966039899</v>
-      </c>
-      <c r="E27">
-        <v>1081.79887305484</v>
-      </c>
-      <c r="F27">
-        <v>10160.591945187</v>
-      </c>
-      <c r="G27">
-        <v>827005.15071954799</v>
-      </c>
-      <c r="H27">
-        <v>52052.351345023402</v>
-      </c>
-      <c r="I27">
-        <v>74436.333333333299</v>
-      </c>
-      <c r="J27">
-        <v>28576.2153542468</v>
-      </c>
-      <c r="K27">
-        <v>161399.83758928199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>3609.9950997703399</v>
+      </c>
+      <c r="O27">
+        <v>1081.8374736778201</v>
+      </c>
+      <c r="P27">
+        <v>10163.813553287901</v>
+      </c>
+      <c r="Q27">
+        <v>827005.15076903696</v>
+      </c>
+      <c r="R27">
+        <v>52052.351344924296</v>
+      </c>
+      <c r="S27">
+        <v>74436.333333413801</v>
+      </c>
+      <c r="T27">
+        <v>28576.215354325701</v>
+      </c>
+      <c r="U27">
+        <v>161399.83763827899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44804</v>
       </c>
@@ -4381,34 +4181,64 @@
         <v>45</v>
       </c>
       <c r="C28">
+        <v>3433.6570999139899</v>
+      </c>
+      <c r="D28">
+        <v>317.08013397638098</v>
+      </c>
+      <c r="E28">
+        <v>771.15706340941904</v>
+      </c>
+      <c r="F28">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G28">
+        <v>107.48</v>
+      </c>
+      <c r="H28">
+        <v>1266.55903651262</v>
+      </c>
+      <c r="I28">
+        <v>53.305794000365097</v>
+      </c>
+      <c r="J28">
+        <v>92.091778056378303</v>
+      </c>
+      <c r="K28">
+        <v>568.49099999983196</v>
+      </c>
+      <c r="L28">
+        <v>12373.7000606724</v>
+      </c>
+      <c r="M28">
         <v>900.00000000000205</v>
       </c>
-      <c r="D28">
-        <v>3606.4207456980798</v>
-      </c>
-      <c r="E28">
-        <v>1082.97621423843</v>
-      </c>
-      <c r="F28">
-        <v>10259.1047531844</v>
-      </c>
-      <c r="G28">
-        <v>785459.91159784095</v>
-      </c>
-      <c r="H28">
-        <v>52052.351345023402</v>
-      </c>
-      <c r="I28">
-        <v>74436.333333333299</v>
-      </c>
-      <c r="J28">
-        <v>29056.350250699801</v>
-      </c>
-      <c r="K28">
-        <v>127605.019132897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>3606.4237946850399</v>
+      </c>
+      <c r="O28">
+        <v>1083.0145074081399</v>
+      </c>
+      <c r="P28">
+        <v>10262.316622325099</v>
+      </c>
+      <c r="Q28">
+        <v>785459.911602768</v>
+      </c>
+      <c r="R28">
+        <v>52052.351344924296</v>
+      </c>
+      <c r="S28">
+        <v>74436.333333413801</v>
+      </c>
+      <c r="T28">
+        <v>29056.350250718799</v>
+      </c>
+      <c r="U28">
+        <v>127605.01913813299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44834</v>
       </c>
@@ -4416,72 +4246,2065 @@
         <v>1</v>
       </c>
       <c r="C29">
+        <v>3414.4087882102599</v>
+      </c>
+      <c r="D29">
+        <v>289.73513696445599</v>
+      </c>
+      <c r="E29">
+        <v>719.97059353683903</v>
+      </c>
+      <c r="F29">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G29">
+        <v>107.48</v>
+      </c>
+      <c r="H29">
+        <v>1260.8169767397001</v>
+      </c>
+      <c r="I29">
+        <v>43.175794000329802</v>
+      </c>
+      <c r="J29">
+        <v>80.338835440276398</v>
+      </c>
+      <c r="K29">
+        <v>517.08300000079703</v>
+      </c>
+      <c r="L29">
+        <v>12187.4926271226</v>
+      </c>
+      <c r="M29">
         <v>669.99999999999795</v>
       </c>
-      <c r="D29">
+      <c r="N29">
+        <v>3604.5290588254602</v>
+      </c>
+      <c r="O29">
+        <v>1082.4227507283499</v>
+      </c>
+      <c r="P29">
+        <v>10212.7368708132</v>
+      </c>
+      <c r="Q29">
+        <v>713643.938214903</v>
+      </c>
+      <c r="R29">
+        <v>140577.05829921601</v>
+      </c>
+      <c r="S29">
+        <v>56163.333333281204</v>
+      </c>
+      <c r="T29">
+        <v>25083.3848328764</v>
+      </c>
+      <c r="U29">
+        <v>124008.88650594999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>172862.12473173</v>
+      </c>
+      <c r="S30">
+        <v>42486.333333417999</v>
+      </c>
+      <c r="T30">
+        <v>24001.572813028801</v>
+      </c>
+      <c r="U30">
+        <v>88278.672327672204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>166613.37375383699</v>
+      </c>
+      <c r="S31">
+        <v>40699.333333264003</v>
+      </c>
+      <c r="T31">
+        <v>17116.7659584721</v>
+      </c>
+      <c r="U31">
+        <v>103900.461258426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>88502.663949451002</v>
+      </c>
+      <c r="S32">
+        <v>42174.3333333915</v>
+      </c>
+      <c r="T32">
+        <v>12471.439285255099</v>
+      </c>
+      <c r="U32">
+        <v>109331.44934599999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7804839C-1F1A-4C02-90BD-3C445F71C981}">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47:R48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>44043</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3298.69</v>
+      </c>
+      <c r="D3" s="5">
+        <v>327.87</v>
+      </c>
+      <c r="E3" s="5">
+        <v>550.82000000000005</v>
+      </c>
+      <c r="F3" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G3" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1286.5999999999999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>80.850549999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <v>84</v>
+      </c>
+      <c r="K3" s="5">
+        <v>538.572</v>
+      </c>
+      <c r="L3" s="5">
+        <v>12547.4829790372</v>
+      </c>
+      <c r="M3" s="5">
+        <v>750</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3608.1749115566499</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1085.25149345718</v>
+      </c>
+      <c r="P3" s="5">
+        <v>10450.904465920699</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>890328.64558036195</v>
+      </c>
+      <c r="R3" s="5">
+        <v>52000</v>
+      </c>
+      <c r="S3" s="5">
+        <v>98996</v>
+      </c>
+      <c r="T3" s="5">
+        <v>29427.6993266481</v>
+      </c>
+      <c r="U3" s="5">
+        <v>160189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>44074</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3256.76</v>
+      </c>
+      <c r="D4" s="5">
+        <v>318.36</v>
+      </c>
+      <c r="E4" s="5">
+        <v>517.79</v>
+      </c>
+      <c r="F4" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G4" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1241.54</v>
+      </c>
+      <c r="I4" s="5">
+        <v>68.710549999999998</v>
+      </c>
+      <c r="J4" s="5">
+        <v>57.9</v>
+      </c>
+      <c r="K4" s="5">
+        <v>450.185</v>
+      </c>
+      <c r="L4" s="5">
+        <v>12142.7281737053</v>
+      </c>
+      <c r="M4" s="5">
+        <v>835.00000000000102</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3604.0705567543</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1085.25995237128</v>
+      </c>
+      <c r="P4" s="5">
+        <v>10451.6207667663</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>822918.01934705698</v>
+      </c>
+      <c r="R4" s="5">
+        <v>52000</v>
+      </c>
+      <c r="S4" s="5">
+        <v>98996</v>
+      </c>
+      <c r="T4" s="5">
+        <v>29976.699326647999</v>
+      </c>
+      <c r="U4" s="5">
+        <v>125426.00000003399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>44104</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3212.67</v>
+      </c>
+      <c r="D5" s="5">
+        <v>294.06</v>
+      </c>
+      <c r="E5" s="5">
+        <v>485.37</v>
+      </c>
+      <c r="F5" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1225.6300000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>55.960550000000005</v>
+      </c>
+      <c r="J5" s="5">
+        <v>39.39</v>
+      </c>
+      <c r="K5" s="5">
+        <v>433.23899999999998</v>
+      </c>
+      <c r="L5" s="5">
+        <v>11944.4708292993</v>
+      </c>
+      <c r="M5" s="5">
+        <v>599.97999999999797</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3602.0265892400198</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1083.6798558913499</v>
+      </c>
+      <c r="P5" s="5">
+        <v>10318.2346718313</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>732207.89033649897</v>
+      </c>
+      <c r="R5" s="5">
+        <v>140000</v>
+      </c>
+      <c r="S5" s="5">
+        <v>95803</v>
+      </c>
+      <c r="T5" s="5">
+        <v>25363.6993266481</v>
+      </c>
+      <c r="U5" s="5">
+        <v>123996.000000035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>44135</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3203.81</v>
+      </c>
+      <c r="D6" s="5">
+        <v>273.33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>447.34</v>
+      </c>
+      <c r="F6" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1229.1300000000001</v>
+      </c>
+      <c r="I6" s="5">
+        <v>53.670550000000006</v>
+      </c>
+      <c r="J6" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K6" s="5">
+        <v>472.78699999999998</v>
+      </c>
+      <c r="L6" s="5">
+        <v>11759.6066323216</v>
+      </c>
+      <c r="M6" s="5">
+        <v>639.99999999999704</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3600.09978886006</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1084.52673265411</v>
+      </c>
+      <c r="P6" s="5">
+        <v>10389.607443934699</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>571758.33984100597</v>
+      </c>
+      <c r="R6" s="5">
+        <v>178000</v>
+      </c>
+      <c r="S6" s="5">
+        <v>99230</v>
+      </c>
+      <c r="T6" s="5">
+        <v>24124.6993266481</v>
+      </c>
+      <c r="U6" s="5">
+        <v>84873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>44165</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3208.04</v>
+      </c>
+      <c r="D7" s="5">
+        <v>245.68</v>
+      </c>
+      <c r="E7" s="5">
+        <v>454.57</v>
+      </c>
+      <c r="F7" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G7" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1229.8800000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>52.620550000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>37.25</v>
+      </c>
+      <c r="K7" s="5">
+        <v>431.65100000000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>11538.0150431897</v>
+      </c>
+      <c r="M7" s="5">
+        <v>640.00000000000205</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3597.7639515046999</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1083.75900328282</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10324.895716294401</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>718069.92587451404</v>
+      </c>
+      <c r="R7" s="5">
+        <v>183853.63836951801</v>
+      </c>
+      <c r="S7" s="5">
+        <v>95802.796544999801</v>
+      </c>
+      <c r="T7" s="5">
+        <v>16155.6993266481</v>
+      </c>
+      <c r="U7" s="5">
+        <v>102268.99999998001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>44196</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3187.11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>207.84</v>
+      </c>
+      <c r="E8" s="5">
+        <v>452.37</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G8" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1225.6099999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <v>50.920550000000006</v>
+      </c>
+      <c r="J8" s="5">
+        <v>40.35</v>
+      </c>
+      <c r="K8" s="5">
+        <v>401.49</v>
+      </c>
+      <c r="L8" s="5">
+        <v>11220.5345615239</v>
+      </c>
+      <c r="M8" s="5">
+        <v>720.00000000000296</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3594.36756481662</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1085.59204615623</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10479.760877708601</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>571074.58530390495</v>
+      </c>
+      <c r="R8" s="5">
+        <v>133338.63836951801</v>
+      </c>
+      <c r="S8" s="5">
+        <v>98973.796544999801</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10748.6993266481</v>
+      </c>
+      <c r="U8" s="5">
+        <v>106580.000000024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>44227</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3172.91</v>
+      </c>
+      <c r="D9" s="5">
+        <v>168.08</v>
+      </c>
+      <c r="E9" s="5">
+        <v>447.17</v>
+      </c>
+      <c r="F9" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G9" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1219.3399999999999</v>
+      </c>
+      <c r="I9" s="5">
+        <v>49.220550000000003</v>
+      </c>
+      <c r="J9" s="5">
+        <v>43.45</v>
+      </c>
+      <c r="K9" s="5">
+        <v>371.49</v>
+      </c>
+      <c r="L9" s="5">
+        <v>10761.430961985099</v>
+      </c>
+      <c r="M9" s="5">
+        <v>860.00000000000296</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3589.3461542775399</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1089.77044845715</v>
+      </c>
+      <c r="P9" s="5">
+        <v>10837.2068839272</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>532840.33309400803</v>
+      </c>
+      <c r="R9" s="5">
+        <v>90344.521249270096</v>
+      </c>
+      <c r="S9" s="5">
+        <v>103847.66666666701</v>
+      </c>
+      <c r="T9" s="5">
+        <v>10570.223105651599</v>
+      </c>
+      <c r="U9" s="5">
+        <v>113140.56997013099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44255</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3164.31</v>
+      </c>
+      <c r="D10" s="5">
+        <v>133.1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>441.91</v>
+      </c>
+      <c r="F10" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1219.6600000000001</v>
+      </c>
+      <c r="I10" s="5">
+        <v>47.52055</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45.71</v>
+      </c>
+      <c r="K10" s="5">
+        <v>364.69099999999997</v>
+      </c>
+      <c r="L10" s="5">
+        <v>10397.5847696869</v>
+      </c>
+      <c r="M10" s="5">
+        <v>750</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3585.2679699118999</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1092.7880563200099</v>
+      </c>
+      <c r="P10" s="5">
+        <v>11099.1353167169</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>533273.75105629803</v>
+      </c>
+      <c r="R10" s="5">
+        <v>85138.355294892594</v>
+      </c>
+      <c r="S10" s="5">
+        <v>30736.666666666701</v>
+      </c>
+      <c r="T10" s="5">
+        <v>10650.4797548713</v>
+      </c>
+      <c r="U10" s="5">
+        <v>135767.47991919899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>44286</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3192.91</v>
+      </c>
+      <c r="D11" s="5">
+        <v>111.22</v>
+      </c>
+      <c r="E11" s="5">
+        <v>446.61</v>
+      </c>
+      <c r="F11" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G11" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1243.76</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45.320550000000004</v>
+      </c>
+      <c r="J11" s="5">
+        <v>50.72</v>
+      </c>
+      <c r="K11" s="5">
+        <v>455.06900000000002</v>
+      </c>
+      <c r="L11" s="5">
+        <v>10066.4554083076</v>
+      </c>
+      <c r="M11" s="5">
+        <v>800.00000000000296</v>
+      </c>
+      <c r="N11" s="5">
+        <v>3581.4753507229998</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1091.2966744876001</v>
+      </c>
+      <c r="P11" s="5">
+        <v>10969.2934120435</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>982302.74506866501</v>
+      </c>
+      <c r="R11" s="5">
+        <v>169475.422941203</v>
+      </c>
+      <c r="S11" s="5">
+        <v>99676.666666666599</v>
+      </c>
+      <c r="T11" s="5">
+        <v>14856.772980817501</v>
+      </c>
+      <c r="U11" s="5">
+        <v>179361.26349244299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44316</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3226.81</v>
+      </c>
+      <c r="D12" s="5">
+        <v>114.4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>464.41</v>
+      </c>
+      <c r="F12" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G12" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1288.6400000000001</v>
+      </c>
+      <c r="I12" s="5">
+        <v>41.320550000000004</v>
+      </c>
+      <c r="J12" s="5">
+        <v>67.67</v>
+      </c>
+      <c r="K12" s="5">
+        <v>647.275000000001</v>
+      </c>
+      <c r="L12" s="5">
+        <v>9989.9816225472405</v>
+      </c>
+      <c r="M12" s="5">
+        <v>710.00000000000296</v>
+      </c>
+      <c r="N12" s="5">
+        <v>3580.5877885270202</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1087.72415881029</v>
+      </c>
+      <c r="P12" s="5">
+        <v>10661.3970277874</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1046567.55028786</v>
+      </c>
+      <c r="R12" s="5">
+        <v>163228.20009686201</v>
+      </c>
+      <c r="S12" s="5">
+        <v>97182.666666666599</v>
+      </c>
+      <c r="T12" s="5">
+        <v>21043.293425405602</v>
+      </c>
+      <c r="U12" s="5">
+        <v>166221.93267248699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3273.14</v>
+      </c>
+      <c r="D13" s="5">
+        <v>161.94999999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>609.41</v>
+      </c>
+      <c r="F13" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1407.7</v>
+      </c>
+      <c r="I13" s="5">
+        <v>52.320550000000004</v>
+      </c>
+      <c r="J13" s="5">
+        <v>99.2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1433.8140000000001</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10637.9806001163</v>
+      </c>
+      <c r="M13" s="5">
+        <v>710</v>
+      </c>
+      <c r="N13" s="5">
+        <v>3587.9726904771501</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1084.1785632813501</v>
+      </c>
+      <c r="P13" s="5">
+        <v>10360.238027155199</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1007075.92822259</v>
+      </c>
+      <c r="R13" s="5">
+        <v>171558.418225692</v>
+      </c>
+      <c r="S13" s="5">
+        <v>88435.666666666599</v>
+      </c>
+      <c r="T13" s="5">
+        <v>27429.188282792202</v>
+      </c>
+      <c r="U13" s="5">
+        <v>140778.50333723301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44377</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3244</v>
+      </c>
+      <c r="D14" s="5">
+        <v>289.55</v>
+      </c>
+      <c r="E14" s="5">
+        <v>698.32</v>
+      </c>
+      <c r="F14" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G14" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1463.23</v>
+      </c>
+      <c r="I14" s="5">
+        <v>70.320549999999997</v>
+      </c>
+      <c r="J14" s="5">
+        <v>121.89</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2148.7170000000001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>11895.806347710801</v>
+      </c>
+      <c r="M14" s="5">
+        <v>750.00000000000102</v>
+      </c>
+      <c r="N14" s="5">
+        <v>3601.5213721076002</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1081.2242392631999</v>
+      </c>
+      <c r="P14" s="5">
+        <v>10112.677130615401</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>961012.25189437298</v>
+      </c>
+      <c r="R14" s="5">
+        <v>99714.914763498295</v>
+      </c>
+      <c r="S14" s="5">
+        <v>85852.666666666599</v>
+      </c>
+      <c r="T14" s="5">
+        <v>27521.272227686299</v>
+      </c>
+      <c r="U14" s="5">
+        <v>150484.924352906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>44408</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3313.72</v>
+      </c>
+      <c r="D15" s="5">
+        <v>325.27999999999997</v>
+      </c>
+      <c r="E15" s="5">
+        <v>718.1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G15" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1423.97</v>
+      </c>
+      <c r="I15" s="5">
+        <v>61.820550000000004</v>
+      </c>
+      <c r="J15" s="5">
+        <v>106.75</v>
+      </c>
+      <c r="K15" s="5">
+        <v>811.954000000002</v>
+      </c>
+      <c r="L15" s="5">
+        <v>11813.842434541601</v>
+      </c>
+      <c r="M15" s="5">
+        <v>849.99999999999898</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3600.6671305701602</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1081.0852705664799</v>
+      </c>
+      <c r="P15" s="5">
+        <v>10101.101038163801</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>840711.37849656004</v>
+      </c>
+      <c r="R15" s="5">
+        <v>51819.245788702603</v>
+      </c>
+      <c r="S15" s="5">
+        <v>88663.666666666599</v>
+      </c>
+      <c r="T15" s="5">
+        <v>28006.191350340101</v>
+      </c>
+      <c r="U15" s="5">
+        <v>161399.83758928199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44439</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3301.64</v>
+      </c>
+      <c r="D16" s="5">
+        <v>306.87</v>
+      </c>
+      <c r="E16" s="5">
+        <v>695.73</v>
+      </c>
+      <c r="F16" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G16" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1394.18</v>
+      </c>
+      <c r="I16" s="5">
+        <v>50.820550000000004</v>
+      </c>
+      <c r="J16" s="5">
+        <v>85.48</v>
+      </c>
+      <c r="K16" s="5">
+        <v>495.16699999999997</v>
+      </c>
+      <c r="L16" s="5">
+        <v>11393.0797418486</v>
+      </c>
+      <c r="M16" s="5">
+        <v>900.00000000000205</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3596.22086210315</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1082.12067383197</v>
+      </c>
+      <c r="P16" s="5">
+        <v>10187.471159333099</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>799183.13937485404</v>
+      </c>
+      <c r="R16" s="5">
+        <v>51819.245788702603</v>
+      </c>
+      <c r="S16" s="5">
+        <v>88663.666666666599</v>
+      </c>
+      <c r="T16" s="5">
+        <v>28476.748756817698</v>
+      </c>
+      <c r="U16" s="5">
+        <v>127605.019132897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>44469</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3272.87</v>
+      </c>
+      <c r="D17" s="5">
+        <v>284.63</v>
+      </c>
+      <c r="E17" s="5">
+        <v>662.95</v>
+      </c>
+      <c r="F17" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G17" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1381.51</v>
+      </c>
+      <c r="I17" s="5">
+        <v>39.320550000000004</v>
+      </c>
+      <c r="J17" s="5">
+        <v>70.53</v>
+      </c>
+      <c r="K17" s="5">
+        <v>431.97800000000001</v>
+      </c>
+      <c r="L17" s="5">
+        <v>11131.1999147467</v>
+      </c>
+      <c r="M17" s="5">
+        <v>669.99999999999795</v>
+      </c>
+      <c r="N17" s="5">
+        <v>3593.4009175810302</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1081.3807422843199</v>
+      </c>
+      <c r="P17" s="5">
+        <v>10125.7138322913</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>727328.51724845101</v>
+      </c>
+      <c r="R17" s="5">
+        <v>140322.30400399101</v>
+      </c>
+      <c r="S17" s="5">
+        <v>70337.666666666599</v>
+      </c>
+      <c r="T17" s="5">
+        <v>24583.034059411399</v>
+      </c>
+      <c r="U17" s="5">
+        <v>124008.88650078099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>44500</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3267.78</v>
+      </c>
+      <c r="D18" s="5">
+        <v>263.85000000000002</v>
+      </c>
+      <c r="E18" s="5">
+        <v>624.35</v>
+      </c>
+      <c r="F18" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1381.12</v>
+      </c>
+      <c r="I18" s="5">
+        <v>33.650550000000003</v>
+      </c>
+      <c r="J18" s="5">
+        <v>67.3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>505.64699999999999</v>
+      </c>
+      <c r="L18" s="5">
+        <v>10978.421185192999</v>
+      </c>
+      <c r="M18" s="5">
+        <v>639.99999999999704</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3591.7361529598502</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1082.6548651294399</v>
+      </c>
+      <c r="P18" s="5">
+        <v>10232.1756978474</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>535328.15397481795</v>
+      </c>
+      <c r="R18" s="5">
+        <v>172599.47511565499</v>
+      </c>
+      <c r="S18" s="5">
+        <v>56619.666666666599</v>
+      </c>
+      <c r="T18" s="5">
+        <v>23522.801482877399</v>
+      </c>
+      <c r="U18" s="5">
+        <v>88278.672327498905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>44530</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3260.77</v>
+      </c>
+      <c r="D19" s="5">
+        <v>238.05</v>
+      </c>
+      <c r="E19" s="5">
+        <v>626.49</v>
+      </c>
+      <c r="F19" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1375.42</v>
+      </c>
+      <c r="I19" s="5">
+        <v>33.390550000000005</v>
+      </c>
+      <c r="J19" s="5">
+        <v>73.09</v>
+      </c>
+      <c r="K19" s="5">
+        <v>466.51</v>
+      </c>
+      <c r="L19" s="5">
+        <v>10790.599488358799</v>
+      </c>
+      <c r="M19" s="5">
+        <v>640.00000000000205</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3589.6692087732099</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1082.5916416765699</v>
+      </c>
+      <c r="P19" s="5">
+        <v>10226.8775724958</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>654420.87115466106</v>
+      </c>
+      <c r="R19" s="5">
+        <v>166352.25227131401</v>
+      </c>
+      <c r="S19" s="5">
+        <v>54828.666666666599</v>
+      </c>
+      <c r="T19" s="5">
+        <v>16775.329300585301</v>
+      </c>
+      <c r="U19" s="5">
+        <v>103900.461253398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44561</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3214.84</v>
+      </c>
+      <c r="D20" s="5">
+        <v>200.21</v>
+      </c>
+      <c r="E20" s="5">
+        <v>592.22</v>
+      </c>
+      <c r="F20" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G20" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1364.62</v>
+      </c>
+      <c r="I20" s="5">
+        <v>32.870550000000001</v>
+      </c>
+      <c r="J20" s="5">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="K20" s="5">
+        <v>486.00700000000001</v>
+      </c>
+      <c r="L20" s="5">
+        <v>10552.494778247001</v>
+      </c>
+      <c r="M20" s="5">
+        <v>720.00000000000296</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3587.0155149488101</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1085.30337780544</v>
+      </c>
+      <c r="P20" s="5">
+        <v>10455.2980325313</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>491365.91085857298</v>
+      </c>
+      <c r="R20" s="5">
+        <v>88260.644460216907</v>
+      </c>
+      <c r="S20" s="5">
+        <v>56309.666666666599</v>
+      </c>
+      <c r="T20" s="5">
+        <v>12222.665272743499</v>
+      </c>
+      <c r="U20" s="5">
+        <v>109331.449345741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>44592</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3175.83</v>
+      </c>
+      <c r="D21" s="5">
+        <v>160.78</v>
+      </c>
+      <c r="E21" s="5">
+        <v>562.65</v>
+      </c>
+      <c r="F21" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G21" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1351.66</v>
+      </c>
+      <c r="I21" s="5">
+        <v>32.02055</v>
+      </c>
+      <c r="J21" s="5">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="K21" s="5">
+        <v>477.9</v>
+      </c>
+      <c r="L21" s="5">
+        <v>10192.2621292842</v>
+      </c>
+      <c r="M21" s="5">
+        <v>860.00000000000296</v>
+      </c>
+      <c r="N21" s="5">
+        <v>3582.9257405322401</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1089.6326745971</v>
+      </c>
+      <c r="P21" s="5">
+        <v>10825.3225107708</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>519253.528987189</v>
+      </c>
+      <c r="R21" s="5">
+        <v>90587.050475757802</v>
+      </c>
+      <c r="S21" s="5">
+        <v>89889.333333333299</v>
+      </c>
+      <c r="T21" s="5">
+        <v>10785.3641372006</v>
+      </c>
+      <c r="U21" s="5">
+        <v>113140.56997013099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>44620</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3147.58</v>
+      </c>
+      <c r="D22" s="5">
+        <v>125.48</v>
+      </c>
+      <c r="E22" s="5">
+        <v>547.74</v>
+      </c>
+      <c r="F22" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G22" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1349.86</v>
+      </c>
+      <c r="I22" s="5">
+        <v>31.120549999999998</v>
+      </c>
+      <c r="J22" s="5">
+        <v>83.96</v>
+      </c>
+      <c r="K22" s="5">
+        <v>468.61599999999902</v>
+      </c>
+      <c r="L22" s="5">
+        <v>9924.9690456323697</v>
+      </c>
+      <c r="M22" s="5">
+        <v>750</v>
+      </c>
+      <c r="N22" s="5">
+        <v>3579.8297295679899</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1092.7962117474699</v>
+      </c>
+      <c r="P22" s="5">
+        <v>11099.847285534501</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>519648.67346885498</v>
+      </c>
+      <c r="R22" s="5">
+        <v>85379.611040783493</v>
+      </c>
+      <c r="S22" s="5">
+        <v>16677.333333333401</v>
+      </c>
+      <c r="T22" s="5">
+        <v>10867.2542900965</v>
+      </c>
+      <c r="U22" s="5">
+        <v>135767.47991919899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>44651</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3190.85</v>
+      </c>
+      <c r="D23" s="5">
+        <v>108.68</v>
+      </c>
+      <c r="E23" s="5">
+        <v>540.97</v>
+      </c>
+      <c r="F23" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G23" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1388.75</v>
+      </c>
+      <c r="I23" s="5">
+        <v>30.36055</v>
+      </c>
+      <c r="J23" s="5">
+        <v>90.52</v>
+      </c>
+      <c r="K23" s="5">
+        <v>593.58699999999999</v>
+      </c>
+      <c r="L23" s="5">
+        <v>9722.5334294000804</v>
+      </c>
+      <c r="M23" s="5">
+        <v>800.00000000000296</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3577.4484494093399</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1091.4510094807599</v>
+      </c>
+      <c r="P23" s="5">
+        <v>10982.6866027668</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>968485.29717689205</v>
+      </c>
+      <c r="R23" s="5">
+        <v>169737.308382763</v>
+      </c>
+      <c r="S23" s="5">
+        <v>85417.333333333299</v>
+      </c>
+      <c r="T23" s="5">
+        <v>15159.1603034534</v>
+      </c>
+      <c r="U23" s="5">
+        <v>179361.26349244299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3224.99</v>
+      </c>
+      <c r="D24" s="5">
+        <v>120.34</v>
+      </c>
+      <c r="E24" s="5">
+        <v>551.09</v>
+      </c>
+      <c r="F24" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G24" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1462.79</v>
+      </c>
+      <c r="I24" s="5">
+        <v>29.120549999999998</v>
+      </c>
+      <c r="J24" s="5">
+        <v>111.73</v>
+      </c>
+      <c r="K24" s="5">
+        <v>895.16400000000203</v>
+      </c>
+      <c r="L24" s="5">
+        <v>9875.9707054681603</v>
+      </c>
+      <c r="M24" s="5">
+        <v>710.00000000000296</v>
+      </c>
+      <c r="N24" s="5">
+        <v>3579.2562682345301</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1088.0272570694301</v>
+      </c>
+      <c r="P24" s="5">
+        <v>10687.3350211083</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>1032745.5742625</v>
+      </c>
+      <c r="R24" s="5">
+        <v>163488.55740483201</v>
+      </c>
+      <c r="S24" s="5">
+        <v>82932.333333333299</v>
+      </c>
+      <c r="T24" s="5">
+        <v>21471.5980893165</v>
+      </c>
+      <c r="U24" s="5">
+        <v>166221.93267248699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>44712</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3276.76</v>
+      </c>
+      <c r="D25" s="5">
+        <v>192.74</v>
+      </c>
+      <c r="E25" s="5">
+        <v>574.04</v>
+      </c>
+      <c r="F25" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G25" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1463.1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>43.400550000000003</v>
+      </c>
+      <c r="J25" s="5">
+        <v>124.2</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2152.3820000000001</v>
+      </c>
+      <c r="L25" s="5">
+        <v>11188.9032265061</v>
+      </c>
+      <c r="M25" s="5">
+        <v>710</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3594.0259442123502</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1084.6320435689199</v>
+      </c>
+      <c r="P25" s="5">
+        <v>10398.508322445099</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>993319.98985242797</v>
+      </c>
+      <c r="R25" s="5">
+        <v>171820.81318886601</v>
+      </c>
+      <c r="S25" s="5">
+        <v>74209.333333333299</v>
+      </c>
+      <c r="T25" s="5">
+        <v>27987.468255005399</v>
+      </c>
+      <c r="U25" s="5">
+        <v>140778.50333723301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>44742</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3348.34</v>
+      </c>
+      <c r="D26" s="5">
+        <v>294.89</v>
+      </c>
+      <c r="E26" s="5">
+        <v>770.58</v>
+      </c>
+      <c r="F26" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G26" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1323.24</v>
+      </c>
+      <c r="I26" s="5">
+        <v>65.120550000000009</v>
+      </c>
+      <c r="J26" s="5">
+        <v>123.71</v>
+      </c>
+      <c r="K26" s="5">
+        <v>2392.4749999999999</v>
+      </c>
+      <c r="L26" s="5">
+        <v>12670.510487249199</v>
+      </c>
+      <c r="M26" s="5">
+        <v>750.00000000000102</v>
+      </c>
+      <c r="N26" s="5">
+        <v>3609.40498381514</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1081.8303308482</v>
+      </c>
+      <c r="P26" s="5">
+        <v>10163.217412621299</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>947276.73988010106</v>
+      </c>
+      <c r="R26" s="5">
+        <v>99959.736082560499</v>
+      </c>
+      <c r="S26" s="5">
+        <v>71633.333333333299</v>
+      </c>
+      <c r="T26" s="5">
+        <v>28081.426430433399</v>
+      </c>
+      <c r="U26" s="5">
+        <v>150484.924352906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>44773</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3437.1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>325.64</v>
+      </c>
+      <c r="E27" s="5">
+        <v>799.32</v>
+      </c>
+      <c r="F27" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G27" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1288.46</v>
+      </c>
+      <c r="I27" s="5">
+        <v>61.760550000000002</v>
+      </c>
+      <c r="J27" s="5">
+        <v>110.57</v>
+      </c>
+      <c r="K27" s="5">
+        <v>967.36300000000006</v>
+      </c>
+      <c r="L27" s="5">
+        <v>12729.5055031883</v>
+      </c>
+      <c r="M27" s="5">
+        <v>849.99999999999898</v>
+      </c>
+      <c r="N27" s="5">
+        <v>3609.9920966039899</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1081.8374736810699</v>
+      </c>
+      <c r="P27" s="5">
+        <v>10163.813553453399</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>827005.15071954799</v>
+      </c>
+      <c r="R27" s="5">
+        <v>52052.351345023402</v>
+      </c>
+      <c r="S27" s="5">
+        <v>74436.333333333299</v>
+      </c>
+      <c r="T27" s="5">
+        <v>28576.2153542468</v>
+      </c>
+      <c r="U27" s="5">
+        <v>161399.83758928199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>44804</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3433.66</v>
+      </c>
+      <c r="D28" s="5">
+        <v>317.08</v>
+      </c>
+      <c r="E28" s="5">
+        <v>771.16</v>
+      </c>
+      <c r="F28" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G28" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1266.95</v>
+      </c>
+      <c r="I28" s="5">
+        <v>53.060550000000006</v>
+      </c>
+      <c r="J28" s="5">
+        <v>92.09</v>
+      </c>
+      <c r="K28" s="5">
+        <v>568.49099999999999</v>
+      </c>
+      <c r="L28" s="5">
+        <v>12373.404185491099</v>
+      </c>
+      <c r="M28" s="5">
+        <v>900.00000000000205</v>
+      </c>
+      <c r="N28" s="5">
+        <v>3606.4207456980798</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1083.0145074106999</v>
+      </c>
+      <c r="P28" s="5">
+        <v>10262.3166225035</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>785459.91159784095</v>
+      </c>
+      <c r="R28" s="5">
+        <v>52052.351345023402</v>
+      </c>
+      <c r="S28" s="5">
+        <v>74436.333333333299</v>
+      </c>
+      <c r="T28" s="5">
+        <v>29056.350250699801</v>
+      </c>
+      <c r="U28" s="5">
+        <v>127605.019132897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>44834</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3414.41</v>
+      </c>
+      <c r="D29" s="5">
+        <v>289.74</v>
+      </c>
+      <c r="E29" s="5">
+        <v>719.97</v>
+      </c>
+      <c r="F29" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G29" s="5">
+        <v>107.48</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1261.21</v>
+      </c>
+      <c r="I29" s="5">
+        <v>42.930550000000004</v>
+      </c>
+      <c r="J29" s="5">
+        <v>80.34</v>
+      </c>
+      <c r="K29" s="5">
+        <v>517.08299999999997</v>
+      </c>
+      <c r="L29" s="5">
+        <v>12187.197694030499</v>
+      </c>
+      <c r="M29" s="5">
+        <v>669.99999999999795</v>
+      </c>
+      <c r="N29" s="5">
         <v>3604.5259949132301</v>
       </c>
-      <c r="E29">
-        <v>1082.3844451355999</v>
-      </c>
-      <c r="F29">
-        <v>10209.532991148801</v>
-      </c>
-      <c r="G29">
+      <c r="O29" s="5">
+        <v>1082.42275072917</v>
+      </c>
+      <c r="P29" s="5">
+        <v>10212.736870991899</v>
+      </c>
+      <c r="Q29" s="5">
         <v>713643.93821033498</v>
       </c>
-      <c r="H29">
+      <c r="R29" s="5">
         <v>140577.05829920899</v>
       </c>
-      <c r="I29">
+      <c r="S29" s="5">
         <v>56163.333333333401</v>
       </c>
-      <c r="J29">
+      <c r="T29" s="5">
         <v>25083.384832832398</v>
       </c>
-      <c r="K29">
+      <c r="U29" s="5">
         <v>124008.88650078099</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>44865</v>
+      </c>
+      <c r="R30" s="5">
         <v>172862.12473182299</v>
       </c>
-      <c r="I30">
+      <c r="S30" s="5">
         <v>42486.333333333299</v>
       </c>
-      <c r="J30">
+      <c r="T30" s="5">
         <v>24001.572812996499</v>
       </c>
-      <c r="K30">
+      <c r="U30" s="5">
         <v>88278.672327498905</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>44895</v>
+      </c>
+      <c r="R31" s="5">
         <v>166613.373753892</v>
       </c>
-      <c r="I31">
+      <c r="S31" s="5">
         <v>40699.333333333401</v>
       </c>
-      <c r="J31">
+      <c r="T31" s="5">
         <v>17116.765958471198</v>
       </c>
-      <c r="K31">
+      <c r="U31" s="5">
         <v>103900.461253398</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>44926</v>
+      </c>
+      <c r="R32" s="5">
         <v>88502.663949466005</v>
       </c>
-      <c r="I32">
+      <c r="S32" s="5">
         <v>42174.333333333401</v>
       </c>
-      <c r="J32">
+      <c r="T32" s="5">
         <v>12471.439285247599</v>
       </c>
-      <c r="K32">
+      <c r="U32" s="5">
         <v>109331.449345741</v>
       </c>
     </row>
@@ -4492,1270 +6315,2420 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8A6CC9-3BB5-41C6-A4AF-2D79923387EB}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
       <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44043</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <f>Monthly_Op!C3-Monthly_Dev!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+        <v>3.6015612299706845E-3</v>
+      </c>
+      <c r="D3" s="8">
         <f>Monthly_Op!D3-Monthly_Dev!D3</f>
+        <v>-4.5992616450121204E-3</v>
+      </c>
+      <c r="E3" s="8">
+        <f>Monthly_Op!E3-Monthly_Dev!E3</f>
+        <v>-4.0177494100817057E-3</v>
+      </c>
+      <c r="F3" s="8">
+        <f>Monthly_Op!F3-Monthly_Dev!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>Monthly_Op!G3-Monthly_Dev!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <f>Monthly_Op!H3-Monthly_Dev!H3</f>
+        <v>8.2502338000267628E-4</v>
+      </c>
+      <c r="I3" s="10">
+        <f>Monthly_Op!I3-Monthly_Dev!I3</f>
+        <v>0.24524400040920113</v>
+      </c>
+      <c r="J3" s="8">
+        <f>Monthly_Op!J3-Monthly_Dev!J3</f>
+        <v>-1.4549188622936526E-3</v>
+      </c>
+      <c r="K3" s="10">
+        <f>Monthly_Op!K3-Monthly_Dev!K3</f>
+        <v>0.34300000049904611</v>
+      </c>
+      <c r="L3" s="10">
+        <f>Monthly_Op!L3-Monthly_Dev!L3</f>
+        <v>0.3120509027994558</v>
+      </c>
+      <c r="M3" s="8">
+        <f>Monthly_Op!M3-Monthly_Dev!M3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <f>Monthly_Op!N3-Monthly_Dev!N3</f>
         <v>3.1788961000529525E-3</v>
       </c>
-      <c r="E3" s="5">
-        <f>Monthly_Op!E3-Monthly_Dev!E3</f>
-        <v>-9.8675226013256179E-4</v>
-      </c>
-      <c r="F3" s="5">
-        <f>Monthly_Op!F3-Monthly_Dev!F3</f>
-        <v>-8.3558297499621403E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>Monthly_Op!G3-Monthly_Dev!G3</f>
+      <c r="O3" s="8">
+        <f>Monthly_Op!O3-Monthly_Dev!O3</f>
+        <v>8.1990947364829481E-10</v>
+      </c>
+      <c r="P3" s="8">
+        <f>Monthly_Op!P3-Monthly_Dev!P3</f>
+        <v>-4.6598870540037751E-8</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>Monthly_Op!Q3-Monthly_Dev!Q3</f>
         <v>6.7610526457428932E-6</v>
       </c>
-      <c r="H3" s="5">
-        <f>Monthly_Op!H3-Monthly_Dev!H3</f>
+      <c r="R3" s="8">
+        <f>Monthly_Op!R3-Monthly_Dev!R3</f>
         <v>-7.0096575655043125E-8</v>
       </c>
-      <c r="I3" s="5">
-        <f>Monthly_Op!I3-Monthly_Dev!I3</f>
+      <c r="S3" s="8">
+        <f>Monthly_Op!S3-Monthly_Dev!S3</f>
         <v>-8.9203240349888802E-8</v>
       </c>
-      <c r="J3" s="5">
-        <f>Monthly_Op!J3-Monthly_Dev!J3</f>
-        <v>89.115051569897332</v>
-      </c>
-      <c r="K3" s="5">
-        <f>Monthly_Op!K3-Monthly_Dev!K3</f>
+      <c r="T3" s="8">
+        <f>Monthly_Op!T3-Monthly_Dev!T3</f>
+        <v>-7.8201992437243462E-8</v>
+      </c>
+      <c r="U3" s="8">
+        <f>Monthly_Op!U3-Monthly_Dev!U3</f>
         <v>-1.0011717677116394E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44074</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <f>Monthly_Op!C4-Monthly_Dev!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+        <v>3.1697416297902237E-3</v>
+      </c>
+      <c r="D4" s="8">
         <f>Monthly_Op!D4-Monthly_Dev!D4</f>
+        <v>4.3398136949690524E-3</v>
+      </c>
+      <c r="E4" s="8">
+        <f>Monthly_Op!E4-Monthly_Dev!E4</f>
+        <v>4.0516885750321308E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <f>Monthly_Op!F4-Monthly_Dev!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <f>Monthly_Op!G4-Monthly_Dev!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <f>Monthly_Op!H4-Monthly_Dev!H4</f>
+        <v>-0.39957040609988326</v>
+      </c>
+      <c r="I4" s="10">
+        <f>Monthly_Op!I4-Monthly_Dev!I4</f>
+        <v>0.24524400034999871</v>
+      </c>
+      <c r="J4" s="8">
+        <f>Monthly_Op!J4-Monthly_Dev!J4</f>
+        <v>1.5247488270375698E-4</v>
+      </c>
+      <c r="K4" s="8">
+        <f>Monthly_Op!K4-Monthly_Dev!K4</f>
+        <v>-2.8097701942897402E-10</v>
+      </c>
+      <c r="L4" s="10">
+        <f>Monthly_Op!L4-Monthly_Dev!L4</f>
+        <v>0.31096765780057467</v>
+      </c>
+      <c r="M4" s="8">
+        <f>Monthly_Op!M4-Monthly_Dev!M4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <f>Monthly_Op!N4-Monthly_Dev!N4</f>
         <v>3.2365199699597724E-3</v>
       </c>
-      <c r="E4" s="5">
-        <f>Monthly_Op!E4-Monthly_Dev!E4</f>
-        <v>-1.9704667499809148E-3</v>
-      </c>
-      <c r="F4" s="5">
-        <f>Monthly_Op!F4-Monthly_Dev!F4</f>
-        <v>-0.16685922249962459</v>
-      </c>
-      <c r="G4" s="5">
-        <f>Monthly_Op!G4-Monthly_Dev!G4</f>
+      <c r="O4" s="8">
+        <f>Monthly_Op!O4-Monthly_Dev!O4</f>
+        <v>7.7011463872622699E-10</v>
+      </c>
+      <c r="P4" s="8">
+        <f>Monthly_Op!P4-Monthly_Dev!P4</f>
+        <v>-3.3000105759128928E-8</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>Monthly_Op!Q4-Monthly_Dev!Q4</f>
         <v>1.2560049071907997E-6</v>
       </c>
-      <c r="H4" s="5">
-        <f>Monthly_Op!H4-Monthly_Dev!H4</f>
+      <c r="R4" s="8">
+        <f>Monthly_Op!R4-Monthly_Dev!R4</f>
         <v>-7.0096575655043125E-8</v>
       </c>
-      <c r="I4" s="5">
-        <f>Monthly_Op!I4-Monthly_Dev!I4</f>
+      <c r="S4" s="8">
+        <f>Monthly_Op!S4-Monthly_Dev!S4</f>
         <v>-8.9203240349888802E-8</v>
       </c>
-      <c r="J4" s="5">
-        <f>Monthly_Op!J4-Monthly_Dev!J4</f>
-        <v>89.115051606098859</v>
-      </c>
-      <c r="K4" s="5">
-        <f>Monthly_Op!K4-Monthly_Dev!K4</f>
+      <c r="T4" s="8">
+        <f>Monthly_Op!T4-Monthly_Dev!T4</f>
+        <v>-4.1898601921275258E-8</v>
+      </c>
+      <c r="U4" s="8">
+        <f>Monthly_Op!U4-Monthly_Dev!U4</f>
         <v>-6.1991158872842789E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44104</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <f>Monthly_Op!C5-Monthly_Dev!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+        <v>1.4189639100550266E-3</v>
+      </c>
+      <c r="D5" s="8">
         <f>Monthly_Op!D5-Monthly_Dev!D5</f>
+        <v>2.2067578889846118E-3</v>
+      </c>
+      <c r="E5" s="8">
+        <f>Monthly_Op!E5-Monthly_Dev!E5</f>
+        <v>-4.4583967700191351E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <f>Monthly_Op!F5-Monthly_Dev!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <f>Monthly_Op!G5-Monthly_Dev!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f>Monthly_Op!H5-Monthly_Dev!H5</f>
+        <v>-0.404629049389996</v>
+      </c>
+      <c r="I5" s="10">
+        <f>Monthly_Op!I5-Monthly_Dev!I5</f>
+        <v>0.24524400037499561</v>
+      </c>
+      <c r="J5" s="8">
+        <f>Monthly_Op!J5-Monthly_Dev!J5</f>
+        <v>-2.7806924207993688E-3</v>
+      </c>
+      <c r="K5" s="8">
+        <f>Monthly_Op!K5-Monthly_Dev!K5</f>
+        <v>-8.3196027844678611E-10</v>
+      </c>
+      <c r="L5" s="10">
+        <f>Monthly_Op!L5-Monthly_Dev!L5</f>
+        <v>0.30996228040021379</v>
+      </c>
+      <c r="M5" s="8">
+        <f>Monthly_Op!M5-Monthly_Dev!M5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <f>Monthly_Op!N5-Monthly_Dev!N5</f>
         <v>3.2613505300105317E-3</v>
       </c>
-      <c r="E5" s="5">
-        <f>Monthly_Op!E5-Monthly_Dev!E5</f>
-        <v>-2.9707559001508343E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <f>Monthly_Op!F5-Monthly_Dev!F5</f>
-        <v>-0.25001895040077216</v>
-      </c>
-      <c r="G5" s="5">
-        <f>Monthly_Op!G5-Monthly_Dev!G5</f>
+      <c r="O5" s="8">
+        <f>Monthly_Op!O5-Monthly_Dev!O5</f>
+        <v>1.0400071914773434E-9</v>
+      </c>
+      <c r="P5" s="8">
+        <f>Monthly_Op!P5-Monthly_Dev!P5</f>
+        <v>-4.6200511860661209E-8</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>Monthly_Op!Q5-Monthly_Dev!Q5</f>
         <v>7.6298601925373077E-7</v>
       </c>
-      <c r="H5" s="5">
-        <f>Monthly_Op!H5-Monthly_Dev!H5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f>Monthly_Op!I5-Monthly_Dev!I5</f>
+      <c r="R5" s="8">
+        <f>Monthly_Op!R5-Monthly_Dev!R5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <f>Monthly_Op!S5-Monthly_Dev!S5</f>
         <v>7.6193828135728836E-8</v>
       </c>
-      <c r="J5" s="5">
-        <f>Monthly_Op!J5-Monthly_Dev!J5</f>
-        <v>89.115051649499947</v>
-      </c>
-      <c r="K5" s="5">
-        <f>Monthly_Op!K5-Monthly_Dev!K5</f>
+      <c r="T5" s="8">
+        <f>Monthly_Op!T5-Monthly_Dev!T5</f>
+        <v>1.4006218407303095E-9</v>
+      </c>
+      <c r="U5" s="8">
+        <f>Monthly_Op!U5-Monthly_Dev!U5</f>
         <v>-4.9913069233298302E-9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44135</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <f>Monthly_Op!C6-Monthly_Dev!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
+        <v>1.9006172701665491E-3</v>
+      </c>
+      <c r="D6" s="8">
         <f>Monthly_Op!D6-Monthly_Dev!D6</f>
+        <v>-3.5762817896056731E-4</v>
+      </c>
+      <c r="E6" s="8">
+        <f>Monthly_Op!E6-Monthly_Dev!E6</f>
+        <v>1.2791971830097282E-3</v>
+      </c>
+      <c r="F6" s="8">
+        <f>Monthly_Op!F6-Monthly_Dev!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f>Monthly_Op!G6-Monthly_Dev!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f>Monthly_Op!H6-Monthly_Dev!H6</f>
+        <v>-0.39883792352020464</v>
+      </c>
+      <c r="I6" s="10">
+        <f>Monthly_Op!I6-Monthly_Dev!I6</f>
+        <v>0.2452440003618932</v>
+      </c>
+      <c r="J6" s="8">
+        <f>Monthly_Op!J6-Monthly_Dev!J6</f>
+        <v>-3.2599378735937989E-3</v>
+      </c>
+      <c r="K6" s="8">
+        <f>Monthly_Op!K6-Monthly_Dev!K6</f>
+        <v>1.0500116331968457E-9</v>
+      </c>
+      <c r="L6" s="10">
+        <f>Monthly_Op!L6-Monthly_Dev!L6</f>
+        <v>0.30925735289929435</v>
+      </c>
+      <c r="M6" s="8">
+        <f>Monthly_Op!M6-Monthly_Dev!M6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f>Monthly_Op!N6-Monthly_Dev!N6</f>
         <v>3.2900441401579883E-3</v>
       </c>
-      <c r="E6" s="5">
-        <f>Monthly_Op!E6-Monthly_Dev!E6</f>
-        <v>-3.9418913900135522E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <f>Monthly_Op!F6-Monthly_Dev!F6</f>
-        <v>-0.33316870129965537</v>
-      </c>
-      <c r="G6" s="5">
-        <f>Monthly_Op!G6-Monthly_Dev!G6</f>
+      <c r="O6" s="8">
+        <f>Monthly_Op!O6-Monthly_Dev!O6</f>
+        <v>9.0039975475519896E-11</v>
+      </c>
+      <c r="P6" s="8">
+        <f>Monthly_Op!P6-Monthly_Dev!P6</f>
+        <v>-3.3998730941675603E-8</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>Monthly_Op!Q6-Monthly_Dev!Q6</f>
         <v>8.2305632531642914E-7</v>
       </c>
-      <c r="H6" s="5">
-        <f>Monthly_Op!H6-Monthly_Dev!H6</f>
+      <c r="R6" s="8">
+        <f>Monthly_Op!R6-Monthly_Dev!R6</f>
         <v>-5.5995769798755646E-8</v>
       </c>
-      <c r="I6" s="5">
-        <f>Monthly_Op!I6-Monthly_Dev!I6</f>
+      <c r="S6" s="8">
+        <f>Monthly_Op!S6-Monthly_Dev!S6</f>
         <v>9.3496055342257023E-8</v>
       </c>
-      <c r="J6" s="5">
-        <f>Monthly_Op!J6-Monthly_Dev!J6</f>
-        <v>89.115051640699676</v>
-      </c>
-      <c r="K6" s="5">
-        <f>Monthly_Op!K6-Monthly_Dev!K6</f>
+      <c r="T6" s="8">
+        <f>Monthly_Op!T6-Monthly_Dev!T6</f>
+        <v>-7.3996488936245441E-9</v>
+      </c>
+      <c r="U6" s="8">
+        <f>Monthly_Op!U6-Monthly_Dev!U6</f>
         <v>-4.1196472011506557E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44165</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <f>Monthly_Op!C7-Monthly_Dev!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+        <v>4.3242339602329594E-3</v>
+      </c>
+      <c r="D7" s="8">
         <f>Monthly_Op!D7-Monthly_Dev!D7</f>
+        <v>3.08278420399688E-3</v>
+      </c>
+      <c r="E7" s="8">
+        <f>Monthly_Op!E7-Monthly_Dev!E7</f>
+        <v>-4.8249360430077104E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <f>Monthly_Op!F7-Monthly_Dev!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f>Monthly_Op!G7-Monthly_Dev!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f>Monthly_Op!H7-Monthly_Dev!H7</f>
+        <v>-0.39965856646017528</v>
+      </c>
+      <c r="I7" s="10">
+        <f>Monthly_Op!I7-Monthly_Dev!I7</f>
+        <v>0.24524400030099969</v>
+      </c>
+      <c r="J7" s="8">
+        <f>Monthly_Op!J7-Monthly_Dev!J7</f>
+        <v>-4.6493094350026354E-3</v>
+      </c>
+      <c r="K7" s="8">
+        <f>Monthly_Op!K7-Monthly_Dev!K7</f>
+        <v>4.9897153076017275E-10</v>
+      </c>
+      <c r="L7" s="10">
+        <f>Monthly_Op!L7-Monthly_Dev!L7</f>
+        <v>0.30862276510015363</v>
+      </c>
+      <c r="M7" s="8">
+        <f>Monthly_Op!M7-Monthly_Dev!M7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f>Monthly_Op!N7-Monthly_Dev!N7</f>
         <v>3.3260215400332527E-3</v>
       </c>
-      <c r="E7" s="5">
-        <f>Monthly_Op!E7-Monthly_Dev!E7</f>
-        <v>1.7862942409919924E-2</v>
-      </c>
-      <c r="F7" s="5">
-        <f>Monthly_Op!F7-Monthly_Dev!F7</f>
-        <v>1.5033451057006459</v>
-      </c>
-      <c r="G7" s="5">
-        <f>Monthly_Op!G7-Monthly_Dev!G7</f>
-        <v>-2046.1312572259922</v>
-      </c>
-      <c r="H7" s="5">
-        <f>Monthly_Op!H7-Monthly_Dev!H7</f>
-        <v>-1212.956272342999</v>
-      </c>
-      <c r="I7" s="5">
-        <f>Monthly_Op!I7-Monthly_Dev!I7</f>
-        <v>-833.17498506219999</v>
-      </c>
-      <c r="J7" s="5">
-        <f>Monthly_Op!J7-Monthly_Dev!J7</f>
-        <v>89.115051671500623</v>
-      </c>
-      <c r="K7" s="5">
-        <f>Monthly_Op!K7-Monthly_Dev!K7</f>
+      <c r="O7" s="8">
+        <f>Monthly_Op!O7-Monthly_Dev!O7</f>
+        <v>1.2998953025089577E-9</v>
+      </c>
+      <c r="P7" s="8">
+        <f>Monthly_Op!P7-Monthly_Dev!P7</f>
+        <v>-1.7300408217124641E-8</v>
+      </c>
+      <c r="Q7" s="8">
+        <f>Monthly_Op!Q7-Monthly_Dev!Q7</f>
+        <v>1.7194543033838272E-7</v>
+      </c>
+      <c r="R7" s="8">
+        <f>Monthly_Op!R7-Monthly_Dev!R7</f>
+        <v>5.398760549724102E-8</v>
+      </c>
+      <c r="S7" s="8">
+        <f>Monthly_Op!S7-Monthly_Dev!S7</f>
+        <v>-6.1700120568275452E-8</v>
+      </c>
+      <c r="T7" s="8">
+        <f>Monthly_Op!T7-Monthly_Dev!T7</f>
+        <v>2.3399479687213898E-8</v>
+      </c>
+      <c r="U7" s="8">
+        <f>Monthly_Op!U7-Monthly_Dev!U7</f>
         <v>3.4997356124222279E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44196</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <f>Monthly_Op!C8-Monthly_Dev!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+        <v>-2.6263832801305398E-3</v>
+      </c>
+      <c r="D8" s="8">
         <f>Monthly_Op!D8-Monthly_Dev!D8</f>
+        <v>3.2327951670083621E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <f>Monthly_Op!E8-Monthly_Dev!E8</f>
+        <v>-3.2930046060073437E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <f>Monthly_Op!F8-Monthly_Dev!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>Monthly_Op!G8-Monthly_Dev!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f>Monthly_Op!H8-Monthly_Dev!H8</f>
+        <v>-0.40258778969996456</v>
+      </c>
+      <c r="I8" s="10">
+        <f>Monthly_Op!I8-Monthly_Dev!I8</f>
+        <v>0.24524400032599658</v>
+      </c>
+      <c r="J8" s="8">
+        <f>Monthly_Op!J8-Monthly_Dev!J8</f>
+        <v>1.3065374848011402E-3</v>
+      </c>
+      <c r="K8" s="8">
+        <f>Monthly_Op!K8-Monthly_Dev!K8</f>
+        <v>9.4985352916410193E-11</v>
+      </c>
+      <c r="L8" s="10">
+        <f>Monthly_Op!L8-Monthly_Dev!L8</f>
+        <v>0.30813667009897472</v>
+      </c>
+      <c r="M8" s="8">
+        <f>Monthly_Op!M8-Monthly_Dev!M8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f>Monthly_Op!N8-Monthly_Dev!N8</f>
         <v>3.3819025402408442E-3</v>
       </c>
-      <c r="E8" s="5">
-        <f>Monthly_Op!E8-Monthly_Dev!E8</f>
-        <v>3.9316244190104044E-2</v>
-      </c>
-      <c r="F8" s="5">
-        <f>Monthly_Op!F8-Monthly_Dev!F8</f>
-        <v>3.3371629286011739</v>
-      </c>
-      <c r="G8" s="5">
-        <f>Monthly_Op!G8-Monthly_Dev!G8</f>
-        <v>-2046.1312580989907</v>
-      </c>
-      <c r="H8" s="5">
-        <f>Monthly_Op!H8-Monthly_Dev!H8</f>
-        <v>-1212.9562724439893</v>
-      </c>
-      <c r="I8" s="5">
-        <f>Monthly_Op!I8-Monthly_Dev!I8</f>
-        <v>-833.17498504900141</v>
-      </c>
-      <c r="J8" s="5">
-        <f>Monthly_Op!J8-Monthly_Dev!J8</f>
-        <v>89.115051660801328</v>
-      </c>
-      <c r="K8" s="5">
-        <f>Monthly_Op!K8-Monthly_Dev!K8</f>
+      <c r="O8" s="8">
+        <f>Monthly_Op!O8-Monthly_Dev!O8</f>
+        <v>-1.3799308362649754E-9</v>
+      </c>
+      <c r="P8" s="8">
+        <f>Monthly_Op!P8-Monthly_Dev!P8</f>
+        <v>4.4001353671774268E-9</v>
+      </c>
+      <c r="Q8" s="8">
+        <f>Monthly_Op!Q8-Monthly_Dev!Q8</f>
+        <v>-7.0198439061641693E-7</v>
+      </c>
+      <c r="R8" s="8">
+        <f>Monthly_Op!R8-Monthly_Dev!R8</f>
+        <v>-4.7002686187624931E-8</v>
+      </c>
+      <c r="S8" s="8">
+        <f>Monthly_Op!S8-Monthly_Dev!S8</f>
+        <v>-4.8501533456146717E-8</v>
+      </c>
+      <c r="T8" s="8">
+        <f>Monthly_Op!T8-Monthly_Dev!T8</f>
+        <v>1.270018401555717E-8</v>
+      </c>
+      <c r="U8" s="8">
+        <f>Monthly_Op!U8-Monthly_Dev!U8</f>
         <v>-1.9994331523776054E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44227</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <f>Monthly_Op!C9-Monthly_Dev!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
+        <v>-1.9579719996727363E-3</v>
+      </c>
+      <c r="D9" s="8">
         <f>Monthly_Op!D9-Monthly_Dev!D9</f>
+        <v>4.6843009397434798E-4</v>
+      </c>
+      <c r="E9" s="8">
+        <f>Monthly_Op!E9-Monthly_Dev!E9</f>
+        <v>-1.0924612620328844E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <f>Monthly_Op!F9-Monthly_Dev!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f>Monthly_Op!G9-Monthly_Dev!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f>Monthly_Op!H9-Monthly_Dev!H9</f>
+        <v>-0.40102317693981604</v>
+      </c>
+      <c r="I9" s="10">
+        <f>Monthly_Op!I9-Monthly_Dev!I9</f>
+        <v>0.245244000350894</v>
+      </c>
+      <c r="J9" s="8">
+        <f>Monthly_Op!J9-Monthly_Dev!J9</f>
+        <v>4.8859860572960656E-3</v>
+      </c>
+      <c r="K9" s="8">
+        <f>Monthly_Op!K9-Monthly_Dev!K9</f>
+        <v>-1.1499423635541461E-10</v>
+      </c>
+      <c r="L9" s="10">
+        <f>Monthly_Op!L9-Monthly_Dev!L9</f>
+        <v>0.30796592080150731</v>
+      </c>
+      <c r="M9" s="8">
+        <f>Monthly_Op!M9-Monthly_Dev!M9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <f>Monthly_Op!N9-Monthly_Dev!N9</f>
         <v>3.4711489702203835E-3</v>
       </c>
-      <c r="E9" s="5">
-        <f>Monthly_Op!E9-Monthly_Dev!E9</f>
-        <v>3.8638687659840798E-2</v>
-      </c>
-      <c r="F9" s="5">
-        <f>Monthly_Op!F9-Monthly_Dev!F9</f>
-        <v>3.3329731460999028</v>
-      </c>
-      <c r="G9" s="5">
-        <f>Monthly_Op!G9-Monthly_Dev!G9</f>
+      <c r="O9" s="8">
+        <f>Monthly_Op!O9-Monthly_Dev!O9</f>
+        <v>8.4992279880680144E-10</v>
+      </c>
+      <c r="P9" s="8">
+        <f>Monthly_Op!P9-Monthly_Dev!P9</f>
+        <v>2.5000190362334251E-8</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>Monthly_Op!Q9-Monthly_Dev!Q9</f>
         <v>-4.2730243876576424E-6</v>
       </c>
-      <c r="H9" s="5">
-        <f>Monthly_Op!H9-Monthly_Dev!H9</f>
+      <c r="R9" s="8">
+        <f>Monthly_Op!R9-Monthly_Dev!R9</f>
         <v>-1.4988472685217857E-8</v>
       </c>
-      <c r="I9" s="5">
-        <f>Monthly_Op!I9-Monthly_Dev!I9</f>
+      <c r="S9" s="8">
+        <f>Monthly_Op!S9-Monthly_Dev!S9</f>
         <v>5.6999851949512959E-8</v>
       </c>
-      <c r="J9" s="5">
-        <f>Monthly_Op!J9-Monthly_Dev!J9</f>
+      <c r="T9" s="8">
+        <f>Monthly_Op!T9-Monthly_Dev!T9</f>
         <v>-3.9999576983973384E-9</v>
       </c>
-      <c r="K9" s="5">
-        <f>Monthly_Op!K9-Monthly_Dev!K9</f>
+      <c r="U9" s="8">
+        <f>Monthly_Op!U9-Monthly_Dev!U9</f>
         <v>-4.560992238111794E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44255</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <f>Monthly_Op!C10-Monthly_Dev!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+        <v>2.0535689500320586E-3</v>
+      </c>
+      <c r="D10" s="8">
         <f>Monthly_Op!D10-Monthly_Dev!D10</f>
+        <v>3.5575525240005845E-3</v>
+      </c>
+      <c r="E10" s="8">
+        <f>Monthly_Op!E10-Monthly_Dev!E10</f>
+        <v>-2.0401505300355893E-3</v>
+      </c>
+      <c r="F10" s="8">
+        <f>Monthly_Op!F10-Monthly_Dev!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f>Monthly_Op!G10-Monthly_Dev!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f>Monthly_Op!H10-Monthly_Dev!H10</f>
+        <v>-0.39781044055007442</v>
+      </c>
+      <c r="I10" s="10">
+        <f>Monthly_Op!I10-Monthly_Dev!I10</f>
+        <v>0.245244000375898</v>
+      </c>
+      <c r="J10" s="8">
+        <f>Monthly_Op!J10-Monthly_Dev!J10</f>
+        <v>1.7549357735973103E-3</v>
+      </c>
+      <c r="K10" s="8">
+        <f>Monthly_Op!K10-Monthly_Dev!K10</f>
+        <v>-3.8897951526450925E-10</v>
+      </c>
+      <c r="L10" s="10">
+        <f>Monthly_Op!L10-Monthly_Dev!L10</f>
+        <v>0.30777285799922538</v>
+      </c>
+      <c r="M10" s="8">
+        <f>Monthly_Op!M10-Monthly_Dev!M10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <f>Monthly_Op!N10-Monthly_Dev!N10</f>
         <v>3.5454424300951359E-3</v>
       </c>
-      <c r="E10" s="5">
-        <f>Monthly_Op!E10-Monthly_Dev!E10</f>
-        <v>3.8135058030093205E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <f>Monthly_Op!F10-Monthly_Dev!F10</f>
-        <v>3.3291906197991921</v>
-      </c>
-      <c r="G10" s="5">
-        <f>Monthly_Op!G10-Monthly_Dev!G10</f>
+      <c r="O10" s="8">
+        <f>Monthly_Op!O10-Monthly_Dev!O10</f>
+        <v>-1.1098109098384157E-9</v>
+      </c>
+      <c r="P10" s="8">
+        <f>Monthly_Op!P10-Monthly_Dev!P10</f>
+        <v>-4.2600731831043959E-8</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>Monthly_Op!Q10-Monthly_Dev!Q10</f>
         <v>7.1944668889045715E-8</v>
       </c>
-      <c r="H10" s="5">
-        <f>Monthly_Op!H10-Monthly_Dev!H10</f>
+      <c r="R10" s="8">
+        <f>Monthly_Op!R10-Monthly_Dev!R10</f>
         <v>8.0312020145356655E-8</v>
       </c>
-      <c r="I10" s="5">
-        <f>Monthly_Op!I10-Monthly_Dev!I10</f>
+      <c r="S10" s="8">
+        <f>Monthly_Op!S10-Monthly_Dev!S10</f>
         <v>7.1700924308970571E-8</v>
       </c>
-      <c r="J10" s="5">
-        <f>Monthly_Op!J10-Monthly_Dev!J10</f>
+      <c r="T10" s="8">
+        <f>Monthly_Op!T10-Monthly_Dev!T10</f>
         <v>-5.398760549724102E-9</v>
       </c>
-      <c r="K10" s="5">
-        <f>Monthly_Op!K10-Monthly_Dev!K10</f>
+      <c r="U10" s="8">
+        <f>Monthly_Op!U10-Monthly_Dev!U10</f>
         <v>3.3702235668897629E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44286</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <f>Monthly_Op!C11-Monthly_Dev!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+        <v>2.6969478103637812E-3</v>
+      </c>
+      <c r="D11" s="8">
         <f>Monthly_Op!D11-Monthly_Dev!D11</f>
+        <v>1.728062707996969E-3</v>
+      </c>
+      <c r="E11" s="8">
+        <f>Monthly_Op!E11-Monthly_Dev!E11</f>
+        <v>-3.8112203640139342E-3</v>
+      </c>
+      <c r="F11" s="8">
+        <f>Monthly_Op!F11-Monthly_Dev!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f>Monthly_Op!G11-Monthly_Dev!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f>Monthly_Op!H11-Monthly_Dev!H11</f>
+        <v>-0.40137360196990812</v>
+      </c>
+      <c r="I11" s="10">
+        <f>Monthly_Op!I11-Monthly_Dev!I11</f>
+        <v>0.24524400037959282</v>
+      </c>
+      <c r="J11" s="8">
+        <f>Monthly_Op!J11-Monthly_Dev!J11</f>
+        <v>-1.4893573251981707E-3</v>
+      </c>
+      <c r="K11" s="8">
+        <f>Monthly_Op!K11-Monthly_Dev!K11</f>
+        <v>2.9200464268797077E-10</v>
+      </c>
+      <c r="L11" s="10">
+        <f>Monthly_Op!L11-Monthly_Dev!L11</f>
+        <v>0.30744211959972745</v>
+      </c>
+      <c r="M11" s="8">
+        <f>Monthly_Op!M11-Monthly_Dev!M11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <f>Monthly_Op!N11-Monthly_Dev!N11</f>
         <v>3.6215210902810213E-3</v>
       </c>
-      <c r="E11" s="5">
-        <f>Monthly_Op!E11-Monthly_Dev!E11</f>
-        <v>3.831490730999576E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <f>Monthly_Op!F11-Monthly_Dev!F11</f>
-        <v>3.3249676212999475</v>
-      </c>
-      <c r="G11" s="5">
-        <f>Monthly_Op!G11-Monthly_Dev!G11</f>
+      <c r="O11" s="8">
+        <f>Monthly_Op!O11-Monthly_Dev!O11</f>
+        <v>5.9003468777518719E-10</v>
+      </c>
+      <c r="P11" s="8">
+        <f>Monthly_Op!P11-Monthly_Dev!P11</f>
+        <v>1.1899828677996993E-8</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>Monthly_Op!Q11-Monthly_Dev!Q11</f>
         <v>1.4830147847533226E-6</v>
       </c>
-      <c r="H11" s="5">
-        <f>Monthly_Op!H11-Monthly_Dev!H11</f>
+      <c r="R11" s="8">
+        <f>Monthly_Op!R11-Monthly_Dev!R11</f>
         <v>-1.0299845598638058E-7</v>
       </c>
-      <c r="I11" s="5">
-        <f>Monthly_Op!I11-Monthly_Dev!I11</f>
+      <c r="S11" s="8">
+        <f>Monthly_Op!S11-Monthly_Dev!S11</f>
         <v>-9.5795257948338985E-8</v>
       </c>
-      <c r="J11" s="5">
-        <f>Monthly_Op!J11-Monthly_Dev!J11</f>
+      <c r="T11" s="8">
+        <f>Monthly_Op!T11-Monthly_Dev!T11</f>
         <v>5.2987161325290799E-9</v>
       </c>
-      <c r="K11" s="5">
-        <f>Monthly_Op!K11-Monthly_Dev!K11</f>
+      <c r="U11" s="8">
+        <f>Monthly_Op!U11-Monthly_Dev!U11</f>
         <v>5.4002157412469387E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44316</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <f>Monthly_Op!C12-Monthly_Dev!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+        <v>4.848189169933903E-3</v>
+      </c>
+      <c r="D12" s="8">
         <f>Monthly_Op!D12-Monthly_Dev!D12</f>
+        <v>-2.7297811240032388E-3</v>
+      </c>
+      <c r="E12" s="8">
+        <f>Monthly_Op!E12-Monthly_Dev!E12</f>
+        <v>-2.9325510390094678E-3</v>
+      </c>
+      <c r="F12" s="8">
+        <f>Monthly_Op!F12-Monthly_Dev!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f>Monthly_Op!G12-Monthly_Dev!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f>Monthly_Op!H12-Monthly_Dev!H12</f>
+        <v>-0.39997096205001981</v>
+      </c>
+      <c r="I12" s="10">
+        <f>Monthly_Op!I12-Monthly_Dev!I12</f>
+        <v>0.24524400037149263</v>
+      </c>
+      <c r="J12" s="8">
+        <f>Monthly_Op!J12-Monthly_Dev!J12</f>
+        <v>-1.8916062399085831E-3</v>
+      </c>
+      <c r="K12" s="8">
+        <f>Monthly_Op!K12-Monthly_Dev!K12</f>
+        <v>-8.9301011030329391E-10</v>
+      </c>
+      <c r="L12" s="10">
+        <f>Monthly_Op!L12-Monthly_Dev!L12</f>
+        <v>0.30692130434908904</v>
+      </c>
+      <c r="M12" s="8">
+        <f>Monthly_Op!M12-Monthly_Dev!M12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <f>Monthly_Op!N12-Monthly_Dev!N12</f>
         <v>3.6256461999073508E-3</v>
       </c>
-      <c r="E12" s="5">
-        <f>Monthly_Op!E12-Monthly_Dev!E12</f>
-        <v>3.8799340830109941E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <f>Monthly_Op!F12-Monthly_Dev!F12</f>
-        <v>3.3196715780013619</v>
-      </c>
-      <c r="G12" s="5">
-        <f>Monthly_Op!G12-Monthly_Dev!G12</f>
+      <c r="O12" s="8">
+        <f>Monthly_Op!O12-Monthly_Dev!O12</f>
+        <v>-1.2398686521919444E-9</v>
+      </c>
+      <c r="P12" s="8">
+        <f>Monthly_Op!P12-Monthly_Dev!P12</f>
+        <v>-1.2879900168627501E-7</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>Monthly_Op!Q12-Monthly_Dev!Q12</f>
         <v>9.0579967945814133E-5</v>
       </c>
-      <c r="H12" s="5">
-        <f>Monthly_Op!H12-Monthly_Dev!H12</f>
+      <c r="R12" s="8">
+        <f>Monthly_Op!R12-Monthly_Dev!R12</f>
         <v>-7.2002876549959183E-8</v>
       </c>
-      <c r="I12" s="5">
-        <f>Monthly_Op!I12-Monthly_Dev!I12</f>
+      <c r="S12" s="8">
+        <f>Monthly_Op!S12-Monthly_Dev!S12</f>
         <v>6.4028427004814148E-9</v>
       </c>
-      <c r="J12" s="5">
-        <f>Monthly_Op!J12-Monthly_Dev!J12</f>
+      <c r="T12" s="8">
+        <f>Monthly_Op!T12-Monthly_Dev!T12</f>
         <v>1.1968950275331736E-9</v>
       </c>
-      <c r="K12" s="5">
-        <f>Monthly_Op!K12-Monthly_Dev!K12</f>
+      <c r="U12" s="8">
+        <f>Monthly_Op!U12-Monthly_Dev!U12</f>
         <v>4.900200292468071E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44347</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <f>Monthly_Op!C13-Monthly_Dev!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
+        <v>-2.3334679199251696E-3</v>
+      </c>
+      <c r="D13" s="8">
         <f>Monthly_Op!D13-Monthly_Dev!D13</f>
+        <v>2.0063280250042226E-3</v>
+      </c>
+      <c r="E13" s="8">
+        <f>Monthly_Op!E13-Monthly_Dev!E13</f>
+        <v>-4.5982564660107528E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <f>Monthly_Op!F13-Monthly_Dev!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f>Monthly_Op!G13-Monthly_Dev!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f>Monthly_Op!H13-Monthly_Dev!H13</f>
+        <v>-0.39488281126000402</v>
+      </c>
+      <c r="I13" s="10">
+        <f>Monthly_Op!I13-Monthly_Dev!I13</f>
+        <v>0.24524400035309668</v>
+      </c>
+      <c r="J13" s="8">
+        <f>Monthly_Op!J13-Monthly_Dev!J13</f>
+        <v>-2.1524554584004818E-3</v>
+      </c>
+      <c r="K13" s="8">
+        <f>Monthly_Op!K13-Monthly_Dev!K13</f>
+        <v>-7.0031092036515474E-11</v>
+      </c>
+      <c r="L13" s="10">
+        <f>Monthly_Op!L13-Monthly_Dev!L13</f>
+        <v>0.30630890720021853</v>
+      </c>
+      <c r="M13" s="8">
+        <f>Monthly_Op!M13-Monthly_Dev!M13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <f>Monthly_Op!N13-Monthly_Dev!N13</f>
         <v>3.4808811101356696E-3</v>
       </c>
-      <c r="E13" s="5">
-        <f>Monthly_Op!E13-Monthly_Dev!E13</f>
-        <v>3.9287324140104829E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <f>Monthly_Op!F13-Monthly_Dev!F13</f>
-        <v>3.3134928280996974</v>
-      </c>
-      <c r="G13" s="5">
-        <f>Monthly_Op!G13-Monthly_Dev!G13</f>
+      <c r="O13" s="8">
+        <f>Monthly_Op!O13-Monthly_Dev!O13</f>
+        <v>-5.0999915401916951E-10</v>
+      </c>
+      <c r="P13" s="8">
+        <f>Monthly_Op!P13-Monthly_Dev!P13</f>
+        <v>-1.3379940355662256E-7</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>Monthly_Op!Q13-Monthly_Dev!Q13</f>
         <v>9.1199763119220734E-6</v>
       </c>
-      <c r="H13" s="5">
-        <f>Monthly_Op!H13-Monthly_Dev!H13</f>
+      <c r="R13" s="8">
+        <f>Monthly_Op!R13-Monthly_Dev!R13</f>
         <v>4.1007297113537788E-8</v>
       </c>
-      <c r="I13" s="5">
-        <f>Monthly_Op!I13-Monthly_Dev!I13</f>
+      <c r="S13" s="8">
+        <f>Monthly_Op!S13-Monthly_Dev!S13</f>
         <v>-9.6595613285899162E-8</v>
       </c>
-      <c r="J13" s="5">
-        <f>Monthly_Op!J13-Monthly_Dev!J13</f>
+      <c r="T13" s="8">
+        <f>Monthly_Op!T13-Monthly_Dev!T13</f>
         <v>8.1599864643067122E-8</v>
       </c>
-      <c r="K13" s="5">
-        <f>Monthly_Op!K13-Monthly_Dev!K13</f>
+      <c r="U13" s="8">
+        <f>Monthly_Op!U13-Monthly_Dev!U13</f>
         <v>3.8699363358318806E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44377</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <f>Monthly_Op!C14-Monthly_Dev!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
+        <v>4.9233200297749136E-3</v>
+      </c>
+      <c r="D14" s="8">
         <f>Monthly_Op!D14-Monthly_Dev!D14</f>
+        <v>-6.0051106220271322E-3</v>
+      </c>
+      <c r="E14" s="8">
+        <f>Monthly_Op!E14-Monthly_Dev!E14</f>
+        <v>-7.840846579938443E-4</v>
+      </c>
+      <c r="F14" s="8">
+        <f>Monthly_Op!F14-Monthly_Dev!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f>Monthly_Op!G14-Monthly_Dev!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f>Monthly_Op!H14-Monthly_Dev!H14</f>
+        <v>-0.40319091008996111</v>
+      </c>
+      <c r="I14" s="10">
+        <f>Monthly_Op!I14-Monthly_Dev!I14</f>
+        <v>0.24524400030820459</v>
+      </c>
+      <c r="J14" s="8">
+        <f>Monthly_Op!J14-Monthly_Dev!J14</f>
+        <v>2.5385783859945832E-3</v>
+      </c>
+      <c r="K14" s="8">
+        <f>Monthly_Op!K14-Monthly_Dev!K14</f>
+        <v>7.7989170677028596E-10</v>
+      </c>
+      <c r="L14" s="10">
+        <f>Monthly_Op!L14-Monthly_Dev!L14</f>
+        <v>0.30539470039911976</v>
+      </c>
+      <c r="M14" s="8">
+        <f>Monthly_Op!M14-Monthly_Dev!M14</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <f>Monthly_Op!N14-Monthly_Dev!N14</f>
         <v>3.2228727100118704E-3</v>
       </c>
-      <c r="E14" s="5">
-        <f>Monthly_Op!E14-Monthly_Dev!E14</f>
-        <v>3.9687237429916422E-2</v>
-      </c>
-      <c r="F14" s="5">
-        <f>Monthly_Op!F14-Monthly_Dev!F14</f>
-        <v>3.3059469197996805</v>
-      </c>
-      <c r="G14" s="5">
-        <f>Monthly_Op!G14-Monthly_Dev!G14</f>
+      <c r="O14" s="8">
+        <f>Monthly_Op!O14-Monthly_Dev!O14</f>
+        <v>-1.3899352779844776E-9</v>
+      </c>
+      <c r="P14" s="8">
+        <f>Monthly_Op!P14-Monthly_Dev!P14</f>
+        <v>-7.8100129030644894E-8</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>Monthly_Op!Q14-Monthly_Dev!Q14</f>
         <v>-5.6321965530514717E-5</v>
       </c>
-      <c r="H14" s="5">
-        <f>Monthly_Op!H14-Monthly_Dev!H14</f>
+      <c r="R14" s="8">
+        <f>Monthly_Op!R14-Monthly_Dev!R14</f>
         <v>-7.3894625529646873E-8</v>
       </c>
-      <c r="I14" s="5">
-        <f>Monthly_Op!I14-Monthly_Dev!I14</f>
+      <c r="S14" s="8">
+        <f>Monthly_Op!S14-Monthly_Dev!S14</f>
         <v>-2.5596818886697292E-8</v>
       </c>
-      <c r="J14" s="5">
-        <f>Monthly_Op!J14-Monthly_Dev!J14</f>
+      <c r="T14" s="8">
+        <f>Monthly_Op!T14-Monthly_Dev!T14</f>
         <v>-2.7899659471586347E-8</v>
       </c>
-      <c r="K14" s="5">
-        <f>Monthly_Op!K14-Monthly_Dev!K14</f>
+      <c r="U14" s="8">
+        <f>Monthly_Op!U14-Monthly_Dev!U14</f>
         <v>-4.4910120777785778E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44408</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <f>Monthly_Op!C15-Monthly_Dev!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
+        <v>4.0467251901645795E-3</v>
+      </c>
+      <c r="D15" s="8">
         <f>Monthly_Op!D15-Monthly_Dev!D15</f>
+        <v>1.9707574670064787E-3</v>
+      </c>
+      <c r="E15" s="8">
+        <f>Monthly_Op!E15-Monthly_Dev!E15</f>
+        <v>-2.9187489959667801E-3</v>
+      </c>
+      <c r="F15" s="8">
+        <f>Monthly_Op!F15-Monthly_Dev!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f>Monthly_Op!G15-Monthly_Dev!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f>Monthly_Op!H15-Monthly_Dev!H15</f>
+        <v>-0.40038730000992473</v>
+      </c>
+      <c r="I15" s="10">
+        <f>Monthly_Op!I15-Monthly_Dev!I15</f>
+        <v>0.24524400035189586</v>
+      </c>
+      <c r="J15" s="8">
+        <f>Monthly_Op!J15-Monthly_Dev!J15</f>
+        <v>2.0271200809958145E-3</v>
+      </c>
+      <c r="K15" s="8">
+        <f>Monthly_Op!K15-Monthly_Dev!K15</f>
+        <v>8.1104190030600876E-10</v>
+      </c>
+      <c r="L15" s="10">
+        <f>Monthly_Op!L15-Monthly_Dev!L15</f>
+        <v>0.30429523430029803</v>
+      </c>
+      <c r="M15" s="8">
+        <f>Monthly_Op!M15-Monthly_Dev!M15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f>Monthly_Op!N15-Monthly_Dev!N15</f>
         <v>3.2290755098074442E-3</v>
       </c>
-      <c r="E15" s="5">
-        <f>Monthly_Op!E15-Monthly_Dev!E15</f>
-        <v>3.9573591439875599E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <f>Monthly_Op!F15-Monthly_Dev!F15</f>
-        <v>3.2964802657006658</v>
-      </c>
-      <c r="G15" s="5">
-        <f>Monthly_Op!G15-Monthly_Dev!G15</f>
+      <c r="O15" s="8">
+        <f>Monthly_Op!O15-Monthly_Dev!O15</f>
+        <v>-2.180058800149709E-9</v>
+      </c>
+      <c r="P15" s="8">
+        <f>Monthly_Op!P15-Monthly_Dev!P15</f>
+        <v>-8.7100488599389791E-8</v>
+      </c>
+      <c r="Q15" s="8">
+        <f>Monthly_Op!Q15-Monthly_Dev!Q15</f>
         <v>5.0038914196193218E-5</v>
       </c>
-      <c r="H15" s="5">
-        <f>Monthly_Op!H15-Monthly_Dev!H15</f>
+      <c r="R15" s="8">
+        <f>Monthly_Op!R15-Monthly_Dev!R15</f>
         <v>-1.0506482794880867E-8</v>
       </c>
-      <c r="I15" s="5">
-        <f>Monthly_Op!I15-Monthly_Dev!I15</f>
+      <c r="S15" s="8">
+        <f>Monthly_Op!S15-Monthly_Dev!S15</f>
         <v>-2.0954757928848267E-9</v>
       </c>
-      <c r="J15" s="5">
-        <f>Monthly_Op!J15-Monthly_Dev!J15</f>
+      <c r="T15" s="8">
+        <f>Monthly_Op!T15-Monthly_Dev!T15</f>
         <v>-4.0599843487143517E-8</v>
       </c>
-      <c r="K15" s="5">
-        <f>Monthly_Op!K15-Monthly_Dev!K15</f>
+      <c r="U15" s="8">
+        <f>Monthly_Op!U15-Monthly_Dev!U15</f>
         <v>4.8996997065842152E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <f>Monthly_Op!C16-Monthly_Dev!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
+        <v>4.1000843702931888E-3</v>
+      </c>
+      <c r="D16" s="8">
         <f>Monthly_Op!D16-Monthly_Dev!D16</f>
+        <v>3.1421263569768598E-3</v>
+      </c>
+      <c r="E16" s="8">
+        <f>Monthly_Op!E16-Monthly_Dev!E16</f>
+        <v>1.9717007489816751E-3</v>
+      </c>
+      <c r="F16" s="8">
+        <f>Monthly_Op!F16-Monthly_Dev!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f>Monthly_Op!G16-Monthly_Dev!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f>Monthly_Op!H16-Monthly_Dev!H16</f>
+        <v>-0.39743760067995026</v>
+      </c>
+      <c r="I16" s="10">
+        <f>Monthly_Op!I16-Monthly_Dev!I16</f>
+        <v>0.2452440003703984</v>
+      </c>
+      <c r="J16" s="8">
+        <f>Monthly_Op!J16-Monthly_Dev!J16</f>
+        <v>8.3741519858904212E-4</v>
+      </c>
+      <c r="K16" s="8">
+        <f>Monthly_Op!K16-Monthly_Dev!K16</f>
+        <v>-1.2960299500264227E-11</v>
+      </c>
+      <c r="L16" s="10">
+        <f>Monthly_Op!L16-Monthly_Dev!L16</f>
+        <v>0.30325237689976348</v>
+      </c>
+      <c r="M16" s="8">
+        <f>Monthly_Op!M16-Monthly_Dev!M16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <f>Monthly_Op!N16-Monthly_Dev!N16</f>
         <v>3.2945569500952843E-3</v>
       </c>
-      <c r="E16" s="5">
-        <f>Monthly_Op!E16-Monthly_Dev!E16</f>
-        <v>3.9293066349955552E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <f>Monthly_Op!F16-Monthly_Dev!F16</f>
-        <v>3.2864720003999537</v>
-      </c>
-      <c r="G16" s="5">
-        <f>Monthly_Op!G16-Monthly_Dev!G16</f>
+      <c r="O16" s="8">
+        <f>Monthly_Op!O16-Monthly_Dev!O16</f>
+        <v>5.0022208597511053E-11</v>
+      </c>
+      <c r="P16" s="8">
+        <f>Monthly_Op!P16-Monthly_Dev!P16</f>
+        <v>-6.210029823705554E-8</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>Monthly_Op!Q16-Monthly_Dev!Q16</f>
         <v>5.2188988775014877E-6</v>
       </c>
-      <c r="H16" s="5">
-        <f>Monthly_Op!H16-Monthly_Dev!H16</f>
+      <c r="R16" s="8">
+        <f>Monthly_Op!R16-Monthly_Dev!R16</f>
         <v>-1.0506482794880867E-8</v>
       </c>
-      <c r="I16" s="5">
-        <f>Monthly_Op!I16-Monthly_Dev!I16</f>
+      <c r="S16" s="8">
+        <f>Monthly_Op!S16-Monthly_Dev!S16</f>
         <v>-2.0954757928848267E-9</v>
       </c>
-      <c r="J16" s="5">
-        <f>Monthly_Op!J16-Monthly_Dev!J16</f>
+      <c r="T16" s="8">
+        <f>Monthly_Op!T16-Monthly_Dev!T16</f>
         <v>-4.0199665818363428E-8</v>
       </c>
-      <c r="K16" s="5">
-        <f>Monthly_Op!K16-Monthly_Dev!K16</f>
+      <c r="U16" s="8">
+        <f>Monthly_Op!U16-Monthly_Dev!U16</f>
         <v>5.2359973778948188E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44469</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <f>Monthly_Op!C17-Monthly_Dev!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
+        <v>-3.7821587698090298E-3</v>
+      </c>
+      <c r="D17" s="8">
         <f>Monthly_Op!D17-Monthly_Dev!D17</f>
+        <v>-1.9643111700133886E-3</v>
+      </c>
+      <c r="E17" s="8">
+        <f>Monthly_Op!E17-Monthly_Dev!E17</f>
+        <v>-1.42268663807954E-3</v>
+      </c>
+      <c r="F17" s="8">
+        <f>Monthly_Op!F17-Monthly_Dev!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f>Monthly_Op!G17-Monthly_Dev!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <f>Monthly_Op!H17-Monthly_Dev!H17</f>
+        <v>-0.39250703620996319</v>
+      </c>
+      <c r="I17" s="10">
+        <f>Monthly_Op!I17-Monthly_Dev!I17</f>
+        <v>0.24524400036749228</v>
+      </c>
+      <c r="J17" s="8">
+        <f>Monthly_Op!J17-Monthly_Dev!J17</f>
+        <v>1.2882540503937889E-3</v>
+      </c>
+      <c r="K17" s="8">
+        <f>Monthly_Op!K17-Monthly_Dev!K17</f>
+        <v>-9.9203134595882148E-10</v>
+      </c>
+      <c r="L17" s="10">
+        <f>Monthly_Op!L17-Monthly_Dev!L17</f>
+        <v>0.30233428500105219</v>
+      </c>
+      <c r="M17" s="8">
+        <f>Monthly_Op!M17-Monthly_Dev!M17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <f>Monthly_Op!N17-Monthly_Dev!N17</f>
         <v>3.3367496698701871E-3</v>
       </c>
-      <c r="E17" s="5">
-        <f>Monthly_Op!E17-Monthly_Dev!E17</f>
-        <v>3.935477472009552E-2</v>
-      </c>
-      <c r="F17" s="5">
-        <f>Monthly_Op!F17-Monthly_Dev!F17</f>
-        <v>3.2782527004001167</v>
-      </c>
-      <c r="G17" s="5">
-        <f>Monthly_Op!G17-Monthly_Dev!G17</f>
+      <c r="O17" s="8">
+        <f>Monthly_Op!O17-Monthly_Dev!O17</f>
+        <v>-8.5992724052630365E-10</v>
+      </c>
+      <c r="P17" s="8">
+        <f>Monthly_Op!P17-Monthly_Dev!P17</f>
+        <v>-1.0949952411465347E-7</v>
+      </c>
+      <c r="Q17" s="8">
+        <f>Monthly_Op!Q17-Monthly_Dev!Q17</f>
         <v>5.1780370995402336E-6</v>
       </c>
-      <c r="H17" s="5">
-        <f>Monthly_Op!H17-Monthly_Dev!H17</f>
+      <c r="R17" s="8">
+        <f>Monthly_Op!R17-Monthly_Dev!R17</f>
         <v>-8.1025063991546631E-8</v>
       </c>
-      <c r="I17" s="5">
-        <f>Monthly_Op!I17-Monthly_Dev!I17</f>
+      <c r="S17" s="8">
+        <f>Monthly_Op!S17-Monthly_Dev!S17</f>
         <v>9.720679372549057E-8</v>
       </c>
-      <c r="J17" s="5">
-        <f>Monthly_Op!J17-Monthly_Dev!J17</f>
+      <c r="T17" s="8">
+        <f>Monthly_Op!T17-Monthly_Dev!T17</f>
         <v>-5.1899405661970377E-8</v>
       </c>
-      <c r="K17" s="5">
-        <f>Monthly_Op!K17-Monthly_Dev!K17</f>
+      <c r="U17" s="8">
+        <f>Monthly_Op!U17-Monthly_Dev!U17</f>
         <v>5.1690003601834178E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44500</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <f>Monthly_Op!C18-Monthly_Dev!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
+        <v>1.8018011196545558E-3</v>
+      </c>
+      <c r="D18" s="8">
         <f>Monthly_Op!D18-Monthly_Dev!D18</f>
+        <v>1.6919025659944964E-3</v>
+      </c>
+      <c r="E18" s="8">
+        <f>Monthly_Op!E18-Monthly_Dev!E18</f>
+        <v>5.0034235300699947E-4</v>
+      </c>
+      <c r="F18" s="8">
+        <f>Monthly_Op!F18-Monthly_Dev!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f>Monthly_Op!G18-Monthly_Dev!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f>Monthly_Op!H18-Monthly_Dev!H18</f>
+        <v>-0.39651661559992135</v>
+      </c>
+      <c r="I18" s="10">
+        <f>Monthly_Op!I18-Monthly_Dev!I18</f>
+        <v>0.24524400036299454</v>
+      </c>
+      <c r="J18" s="8">
+        <f>Monthly_Op!J18-Monthly_Dev!J18</f>
+        <v>3.3924978256010263E-3</v>
+      </c>
+      <c r="K18" s="8">
+        <f>Monthly_Op!K18-Monthly_Dev!K18</f>
+        <v>5.9799276641570032E-10</v>
+      </c>
+      <c r="L18" s="10">
+        <f>Monthly_Op!L18-Monthly_Dev!L18</f>
+        <v>0.3016898231999221</v>
+      </c>
+      <c r="M18" s="8">
+        <f>Monthly_Op!M18-Monthly_Dev!M18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <f>Monthly_Op!N18-Monthly_Dev!N18</f>
         <v>3.3562921098564402E-3</v>
       </c>
-      <c r="E18" s="5">
-        <f>Monthly_Op!E18-Monthly_Dev!E18</f>
-        <v>3.9048945800004731E-2</v>
-      </c>
-      <c r="F18" s="5">
-        <f>Monthly_Op!F18-Monthly_Dev!F18</f>
-        <v>3.2723017107000487</v>
-      </c>
-      <c r="G18" s="5">
-        <f>Monthly_Op!G18-Monthly_Dev!G18</f>
+      <c r="O18" s="8">
+        <f>Monthly_Op!O18-Monthly_Dev!O18</f>
+        <v>-1.4899796951794997E-9</v>
+      </c>
+      <c r="P18" s="8">
+        <f>Monthly_Op!P18-Monthly_Dev!P18</f>
+        <v>-7.289963832590729E-8</v>
+      </c>
+      <c r="Q18" s="8">
+        <f>Monthly_Op!Q18-Monthly_Dev!Q18</f>
         <v>5.5402051657438278E-7</v>
       </c>
-      <c r="H18" s="5">
-        <f>Monthly_Op!H18-Monthly_Dev!H18</f>
+      <c r="R18" s="8">
+        <f>Monthly_Op!R18-Monthly_Dev!R18</f>
         <v>-6.8976078182458878E-8</v>
       </c>
-      <c r="I18" s="5">
-        <f>Monthly_Op!I18-Monthly_Dev!I18</f>
+      <c r="S18" s="8">
+        <f>Monthly_Op!S18-Monthly_Dev!S18</f>
         <v>6.7899236455559731E-8</v>
       </c>
-      <c r="J18" s="5">
-        <f>Monthly_Op!J18-Monthly_Dev!J18</f>
+      <c r="T18" s="8">
+        <f>Monthly_Op!T18-Monthly_Dev!T18</f>
         <v>2.5102053768932819E-8</v>
       </c>
-      <c r="K18" s="5">
-        <f>Monthly_Op!K18-Monthly_Dev!K18</f>
+      <c r="U18" s="8">
+        <f>Monthly_Op!U18-Monthly_Dev!U18</f>
         <v>1.7329875845462084E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44530</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <f>Monthly_Op!C19-Monthly_Dev!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
+        <v>-2.2369278099176881E-3</v>
+      </c>
+      <c r="D19" s="8">
         <f>Monthly_Op!D19-Monthly_Dev!D19</f>
+        <v>-5.3733480179971593E-3</v>
+      </c>
+      <c r="E19" s="8">
+        <f>Monthly_Op!E19-Monthly_Dev!E19</f>
+        <v>-2.6185480498952529E-4</v>
+      </c>
+      <c r="F19" s="8">
+        <f>Monthly_Op!F19-Monthly_Dev!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f>Monthly_Op!G19-Monthly_Dev!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f>Monthly_Op!H19-Monthly_Dev!H19</f>
+        <v>-0.391237710130099</v>
+      </c>
+      <c r="I19" s="10">
+        <f>Monthly_Op!I19-Monthly_Dev!I19</f>
+        <v>0.24524400033249805</v>
+      </c>
+      <c r="J19" s="8">
+        <f>Monthly_Op!J19-Monthly_Dev!J19</f>
+        <v>7.3103753095438151E-5</v>
+      </c>
+      <c r="K19" s="8">
+        <f>Monthly_Op!K19-Monthly_Dev!K19</f>
+        <v>7.8603079600725323E-10</v>
+      </c>
+      <c r="L19" s="10">
+        <f>Monthly_Op!L19-Monthly_Dev!L19</f>
+        <v>0.30107866090111202</v>
+      </c>
+      <c r="M19" s="8">
+        <f>Monthly_Op!M19-Monthly_Dev!M19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <f>Monthly_Op!N19-Monthly_Dev!N19</f>
         <v>3.3856165500765201E-3</v>
       </c>
-      <c r="E19" s="5">
-        <f>Monthly_Op!E19-Monthly_Dev!E19</f>
-        <v>3.8978497240123033E-2</v>
-      </c>
-      <c r="F19" s="5">
-        <f>Monthly_Op!F19-Monthly_Dev!F19</f>
-        <v>3.2663979962999292</v>
-      </c>
-      <c r="G19" s="5">
-        <f>Monthly_Op!G19-Monthly_Dev!G19</f>
+      <c r="O19" s="8">
+        <f>Monthly_Op!O19-Monthly_Dev!O19</f>
+        <v>-5.9799276641570032E-11</v>
+      </c>
+      <c r="P19" s="8">
+        <f>Monthly_Op!P19-Monthly_Dev!P19</f>
+        <v>-7.7499862527474761E-8</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>Monthly_Op!Q19-Monthly_Dev!Q19</f>
         <v>4.6009663492441177E-6</v>
       </c>
-      <c r="H19" s="5">
-        <f>Monthly_Op!H19-Monthly_Dev!H19</f>
+      <c r="R19" s="8">
+        <f>Monthly_Op!R19-Monthly_Dev!R19</f>
         <v>1.7986167222261429E-8</v>
       </c>
-      <c r="I19" s="5">
-        <f>Monthly_Op!I19-Monthly_Dev!I19</f>
+      <c r="S19" s="8">
+        <f>Monthly_Op!S19-Monthly_Dev!S19</f>
         <v>-5.6097633205354214E-8</v>
       </c>
-      <c r="J19" s="5">
-        <f>Monthly_Op!J19-Monthly_Dev!J19</f>
+      <c r="T19" s="8">
+        <f>Monthly_Op!T19-Monthly_Dev!T19</f>
         <v>4.1000021155923605E-9</v>
       </c>
-      <c r="K19" s="5">
-        <f>Monthly_Op!K19-Monthly_Dev!K19</f>
+      <c r="U19" s="8">
+        <f>Monthly_Op!U19-Monthly_Dev!U19</f>
         <v>5.0280068535357714E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44561</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <f>Monthly_Op!C20-Monthly_Dev!C20</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
+        <v>4.0895281799748773E-3</v>
+      </c>
+      <c r="D20" s="8">
         <f>Monthly_Op!D20-Monthly_Dev!D20</f>
+        <v>-1.4469417669999984E-3</v>
+      </c>
+      <c r="E20" s="8">
+        <f>Monthly_Op!E20-Monthly_Dev!E20</f>
+        <v>-2.7959052890764724E-3</v>
+      </c>
+      <c r="F20" s="8">
+        <f>Monthly_Op!F20-Monthly_Dev!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <f>Monthly_Op!G20-Monthly_Dev!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <f>Monthly_Op!H20-Monthly_Dev!H20</f>
+        <v>-0.39819603267983439</v>
+      </c>
+      <c r="I20" s="10">
+        <f>Monthly_Op!I20-Monthly_Dev!I20</f>
+        <v>0.24524400035249982</v>
+      </c>
+      <c r="J20" s="8">
+        <f>Monthly_Op!J20-Monthly_Dev!J20</f>
+        <v>4.7110409855974922E-3</v>
+      </c>
+      <c r="K20" s="8">
+        <f>Monthly_Op!K20-Monthly_Dev!K20</f>
+        <v>-7.6403239290812053E-10</v>
+      </c>
+      <c r="L20" s="10">
+        <f>Monthly_Op!L20-Monthly_Dev!L20</f>
+        <v>0.30058506419845799</v>
+      </c>
+      <c r="M20" s="8">
+        <f>Monthly_Op!M20-Monthly_Dev!M20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <f>Monthly_Op!N20-Monthly_Dev!N20</f>
         <v>3.4262257299815246E-3</v>
       </c>
-      <c r="E20" s="5">
-        <f>Monthly_Op!E20-Monthly_Dev!E20</f>
-        <v>3.8513506019853594E-2</v>
-      </c>
-      <c r="F20" s="5">
-        <f>Monthly_Op!F20-Monthly_Dev!F20</f>
-        <v>3.2613235762000841</v>
-      </c>
-      <c r="G20" s="5">
-        <f>Monthly_Op!G20-Monthly_Dev!G20</f>
+      <c r="O20" s="8">
+        <f>Monthly_Op!O20-Monthly_Dev!O20</f>
+        <v>-3.2014213502407074E-10</v>
+      </c>
+      <c r="P20" s="8">
+        <f>Monthly_Op!P20-Monthly_Dev!P20</f>
+        <v>-1.4080069377087057E-7</v>
+      </c>
+      <c r="Q20" s="8">
+        <f>Monthly_Op!Q20-Monthly_Dev!Q20</f>
         <v>4.4703483581542969E-7</v>
       </c>
-      <c r="H20" s="5">
-        <f>Monthly_Op!H20-Monthly_Dev!H20</f>
+      <c r="R20" s="8">
+        <f>Monthly_Op!R20-Monthly_Dev!R20</f>
         <v>-8.7908119894564152E-8</v>
       </c>
-      <c r="I20" s="5">
-        <f>Monthly_Op!I20-Monthly_Dev!I20</f>
+      <c r="S20" s="8">
+        <f>Monthly_Op!S20-Monthly_Dev!S20</f>
         <v>-1.4988472685217857E-9</v>
       </c>
-      <c r="J20" s="5">
-        <f>Monthly_Op!J20-Monthly_Dev!J20</f>
+      <c r="T20" s="8">
+        <f>Monthly_Op!T20-Monthly_Dev!T20</f>
         <v>2.0008883439004421E-9</v>
       </c>
-      <c r="K20" s="5">
-        <f>Monthly_Op!K20-Monthly_Dev!K20</f>
+      <c r="U20" s="8">
+        <f>Monthly_Op!U20-Monthly_Dev!U20</f>
         <v>2.5899498723447323E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44592</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <f>Monthly_Op!C21-Monthly_Dev!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
+        <v>1.0974555202665215E-3</v>
+      </c>
+      <c r="D21" s="8">
         <f>Monthly_Op!D21-Monthly_Dev!D21</f>
+        <v>-4.2789498230035861E-3</v>
+      </c>
+      <c r="E21" s="8">
+        <f>Monthly_Op!E21-Monthly_Dev!E21</f>
+        <v>-1.0759332419638667E-3</v>
+      </c>
+      <c r="F21" s="8">
+        <f>Monthly_Op!F21-Monthly_Dev!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f>Monthly_Op!G21-Monthly_Dev!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f>Monthly_Op!H21-Monthly_Dev!H21</f>
+        <v>-0.39023288777002563</v>
+      </c>
+      <c r="I21" s="10">
+        <f>Monthly_Op!I21-Monthly_Dev!I21</f>
+        <v>0.24524400036499827</v>
+      </c>
+      <c r="J21" s="8">
+        <f>Monthly_Op!J21-Monthly_Dev!J21</f>
+        <v>-1.9984270530954973E-3</v>
+      </c>
+      <c r="K21" s="8">
+        <f>Monthly_Op!K21-Monthly_Dev!K21</f>
+        <v>7.2003558670985512E-10</v>
+      </c>
+      <c r="L21" s="10">
+        <f>Monthly_Op!L21-Monthly_Dev!L21</f>
+        <v>0.30041220980092476</v>
+      </c>
+      <c r="M21" s="8">
+        <f>Monthly_Op!M21-Monthly_Dev!M21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <f>Monthly_Op!N21-Monthly_Dev!N21</f>
         <v>3.5103207701467909E-3</v>
       </c>
-      <c r="E21" s="5">
-        <f>Monthly_Op!E21-Monthly_Dev!E21</f>
-        <v>3.7760540270028287E-2</v>
-      </c>
-      <c r="F21" s="5">
-        <f>Monthly_Op!F21-Monthly_Dev!F21</f>
-        <v>3.2572241499001393</v>
-      </c>
-      <c r="G21" s="5">
-        <f>Monthly_Op!G21-Monthly_Dev!G21</f>
+      <c r="O21" s="8">
+        <f>Monthly_Op!O21-Monthly_Dev!O21</f>
+        <v>-6.4005689637269825E-10</v>
+      </c>
+      <c r="P21" s="8">
+        <f>Monthly_Op!P21-Monthly_Dev!P21</f>
+        <v>-1.0549956641625613E-7</v>
+      </c>
+      <c r="Q21" s="8">
+        <f>Monthly_Op!Q21-Monthly_Dev!Q21</f>
         <v>-5.6709977798163891E-6</v>
       </c>
-      <c r="H21" s="5">
-        <f>Monthly_Op!H21-Monthly_Dev!H21</f>
+      <c r="R21" s="8">
+        <f>Monthly_Op!R21-Monthly_Dev!R21</f>
         <v>-8.1505277194082737E-8</v>
       </c>
-      <c r="I21" s="5">
-        <f>Monthly_Op!I21-Monthly_Dev!I21</f>
+      <c r="S21" s="8">
+        <f>Monthly_Op!S21-Monthly_Dev!S21</f>
         <v>-1.0379881132394075E-7</v>
       </c>
-      <c r="J21" s="5">
-        <f>Monthly_Op!J21-Monthly_Dev!J21</f>
+      <c r="T21" s="8">
+        <f>Monthly_Op!T21-Monthly_Dev!T21</f>
         <v>2.9995135264471173E-9</v>
       </c>
-      <c r="K21" s="5">
-        <f>Monthly_Op!K21-Monthly_Dev!K21</f>
+      <c r="U21" s="8">
+        <f>Monthly_Op!U21-Monthly_Dev!U21</f>
         <v>-4.560992238111794E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44620</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <f>Monthly_Op!C22-Monthly_Dev!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
+        <v>4.6290200602925324E-3</v>
+      </c>
+      <c r="D22" s="8">
         <f>Monthly_Op!D22-Monthly_Dev!D22</f>
+        <v>-1.8036694140022291E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <f>Monthly_Op!E22-Monthly_Dev!E22</f>
+        <v>-4.2500563199610042E-3</v>
+      </c>
+      <c r="F22" s="8">
+        <f>Monthly_Op!F22-Monthly_Dev!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <f>Monthly_Op!G22-Monthly_Dev!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <f>Monthly_Op!H22-Monthly_Dev!H22</f>
+        <v>-0.39652144604997375</v>
+      </c>
+      <c r="I22" s="10">
+        <f>Monthly_Op!I22-Monthly_Dev!I22</f>
+        <v>0.24524400035910077</v>
+      </c>
+      <c r="J22" s="8">
+        <f>Monthly_Op!J22-Monthly_Dev!J22</f>
+        <v>3.1178125080089103E-4</v>
+      </c>
+      <c r="K22" s="8">
+        <f>Monthly_Op!K22-Monthly_Dev!K22</f>
+        <v>9.1199581220280379E-10</v>
+      </c>
+      <c r="L22" s="10">
+        <f>Monthly_Op!L22-Monthly_Dev!L22</f>
+        <v>0.3002178709502914</v>
+      </c>
+      <c r="M22" s="8">
+        <f>Monthly_Op!M22-Monthly_Dev!M22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <f>Monthly_Op!N22-Monthly_Dev!N22</f>
         <v>3.5678729500432382E-3</v>
       </c>
-      <c r="E22" s="5">
-        <f>Monthly_Op!E22-Monthly_Dev!E22</f>
-        <v>3.7268357179982559E-2</v>
-      </c>
-      <c r="F22" s="5">
-        <f>Monthly_Op!F22-Monthly_Dev!F22</f>
-        <v>3.2535276331000205</v>
-      </c>
-      <c r="G22" s="5">
-        <f>Monthly_Op!G22-Monthly_Dev!G22</f>
+      <c r="O22" s="8">
+        <f>Monthly_Op!O22-Monthly_Dev!O22</f>
+        <v>-2.0600054995156825E-9</v>
+      </c>
+      <c r="P22" s="8">
+        <f>Monthly_Op!P22-Monthly_Dev!P22</f>
+        <v>-1.281005097553134E-7</v>
+      </c>
+      <c r="Q22" s="8">
+        <f>Monthly_Op!Q22-Monthly_Dev!Q22</f>
         <v>6.7101791501045227E-7</v>
       </c>
-      <c r="H22" s="5">
-        <f>Monthly_Op!H22-Monthly_Dev!H22</f>
+      <c r="R22" s="8">
+        <f>Monthly_Op!R22-Monthly_Dev!R22</f>
         <v>3.66999302059412E-8</v>
       </c>
-      <c r="I22" s="5">
-        <f>Monthly_Op!I22-Monthly_Dev!I22</f>
+      <c r="S22" s="8">
+        <f>Monthly_Op!S22-Monthly_Dev!S22</f>
         <v>-4.2018655221909285E-9</v>
       </c>
-      <c r="J22" s="5">
-        <f>Monthly_Op!J22-Monthly_Dev!J22</f>
+      <c r="T22" s="8">
+        <f>Monthly_Op!T22-Monthly_Dev!T22</f>
         <v>1.2005330063402653E-9</v>
       </c>
-      <c r="K22" s="5">
-        <f>Monthly_Op!K22-Monthly_Dev!K22</f>
+      <c r="U22" s="8">
+        <f>Monthly_Op!U22-Monthly_Dev!U22</f>
         <v>3.3702235668897629E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44651</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <f>Monthly_Op!C23-Monthly_Dev!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
+        <v>-4.3809307499032002E-3</v>
+      </c>
+      <c r="D23" s="8">
         <f>Monthly_Op!D23-Monthly_Dev!D23</f>
+        <v>-2.0054260950104208E-3</v>
+      </c>
+      <c r="E23" s="8">
+        <f>Monthly_Op!E23-Monthly_Dev!E23</f>
+        <v>3.3192924229297205E-3</v>
+      </c>
+      <c r="F23" s="8">
+        <f>Monthly_Op!F23-Monthly_Dev!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <f>Monthly_Op!G23-Monthly_Dev!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <f>Monthly_Op!H23-Monthly_Dev!H23</f>
+        <v>-0.3964980993100653</v>
+      </c>
+      <c r="I23" s="10">
+        <f>Monthly_Op!I23-Monthly_Dev!I23</f>
+        <v>0.24524400030740168</v>
+      </c>
+      <c r="J23" s="8">
+        <f>Monthly_Op!J23-Monthly_Dev!J23</f>
+        <v>-1.2467131409721333E-4</v>
+      </c>
+      <c r="K23" s="8">
+        <f>Monthly_Op!K23-Monthly_Dev!K23</f>
+        <v>-1.0095391189679503E-10</v>
+      </c>
+      <c r="L23" s="10">
+        <f>Monthly_Op!L23-Monthly_Dev!L23</f>
+        <v>0.29988782576947415</v>
+      </c>
+      <c r="M23" s="8">
+        <f>Monthly_Op!M23-Monthly_Dev!M23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <f>Monthly_Op!N23-Monthly_Dev!N23</f>
         <v>3.6151575900476018E-3</v>
       </c>
-      <c r="E23" s="5">
-        <f>Monthly_Op!E23-Monthly_Dev!E23</f>
-        <v>3.7444116989945542E-2</v>
-      </c>
-      <c r="F23" s="5">
-        <f>Monthly_Op!F23-Monthly_Dev!F23</f>
-        <v>3.2494006135002564</v>
-      </c>
-      <c r="G23" s="5">
-        <f>Monthly_Op!G23-Monthly_Dev!G23</f>
+      <c r="O23" s="8">
+        <f>Monthly_Op!O23-Monthly_Dev!O23</f>
+        <v>-2.4099335860228166E-9</v>
+      </c>
+      <c r="P23" s="8">
+        <f>Monthly_Op!P23-Monthly_Dev!P23</f>
+        <v>-7.2399416239932179E-8</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>Monthly_Op!Q23-Monthly_Dev!Q23</f>
         <v>1.49488914757967E-6</v>
       </c>
-      <c r="H23" s="5">
-        <f>Monthly_Op!H23-Monthly_Dev!H23</f>
+      <c r="R23" s="8">
+        <f>Monthly_Op!R23-Monthly_Dev!R23</f>
         <v>-3.300374373793602E-8</v>
       </c>
-      <c r="I23" s="5">
-        <f>Monthly_Op!I23-Monthly_Dev!I23</f>
+      <c r="S23" s="8">
+        <f>Monthly_Op!S23-Monthly_Dev!S23</f>
         <v>2.3006577976047993E-8</v>
       </c>
-      <c r="J23" s="5">
-        <f>Monthly_Op!J23-Monthly_Dev!J23</f>
+      <c r="T23" s="8">
+        <f>Monthly_Op!T23-Monthly_Dev!T23</f>
         <v>-4.3000909499824047E-9</v>
       </c>
-      <c r="K23" s="5">
-        <f>Monthly_Op!K23-Monthly_Dev!K23</f>
+      <c r="U23" s="8">
+        <f>Monthly_Op!U23-Monthly_Dev!U23</f>
         <v>5.4002157412469387E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44681</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <f>Monthly_Op!C24-Monthly_Dev!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
+        <v>2.7508927041708375E-4</v>
+      </c>
+      <c r="D24" s="8">
         <f>Monthly_Op!D24-Monthly_Dev!D24</f>
+        <v>-1.5944000220002863E-3</v>
+      </c>
+      <c r="E24" s="8">
+        <f>Monthly_Op!E24-Monthly_Dev!E24</f>
+        <v>3.2185410569809392E-3</v>
+      </c>
+      <c r="F24" s="8">
+        <f>Monthly_Op!F24-Monthly_Dev!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <f>Monthly_Op!G24-Monthly_Dev!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f>Monthly_Op!H24-Monthly_Dev!H24</f>
+        <v>-0.38964407217986263</v>
+      </c>
+      <c r="I24" s="10">
+        <f>Monthly_Op!I24-Monthly_Dev!I24</f>
+        <v>0.24524400035510041</v>
+      </c>
+      <c r="J24" s="8">
+        <f>Monthly_Op!J24-Monthly_Dev!J24</f>
+        <v>-4.3470864520003261E-3</v>
+      </c>
+      <c r="K24" s="8">
+        <f>Monthly_Op!K24-Monthly_Dev!K24</f>
+        <v>5.779838829766959E-10</v>
+      </c>
+      <c r="L24" s="10">
+        <f>Monthly_Op!L24-Monthly_Dev!L24</f>
+        <v>0.29937388813050347</v>
+      </c>
+      <c r="M24" s="8">
+        <f>Monthly_Op!M24-Monthly_Dev!M24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <f>Monthly_Op!N24-Monthly_Dev!N24</f>
         <v>3.5681171698342951E-3</v>
       </c>
-      <c r="E24" s="5">
-        <f>Monthly_Op!E24-Monthly_Dev!E24</f>
-        <v>3.786024534997523E-2</v>
-      </c>
-      <c r="F24" s="5">
-        <f>Monthly_Op!F24-Monthly_Dev!F24</f>
-        <v>3.2442288986003405</v>
-      </c>
-      <c r="G24" s="5">
-        <f>Monthly_Op!G24-Monthly_Dev!G24</f>
+      <c r="O24" s="8">
+        <f>Monthly_Op!O24-Monthly_Dev!O24</f>
+        <v>-2.5002009351737797E-9</v>
+      </c>
+      <c r="P24" s="8">
+        <f>Monthly_Op!P24-Monthly_Dev!P24</f>
+        <v>-1.8050013750325888E-7</v>
+      </c>
+      <c r="Q24" s="8">
+        <f>Monthly_Op!Q24-Monthly_Dev!Q24</f>
         <v>9.1659952886402607E-5</v>
       </c>
-      <c r="H24" s="5">
-        <f>Monthly_Op!H24-Monthly_Dev!H24</f>
+      <c r="R24" s="8">
+        <f>Monthly_Op!R24-Monthly_Dev!R24</f>
         <v>4.9767550081014633E-9</v>
       </c>
-      <c r="I24" s="5">
-        <f>Monthly_Op!I24-Monthly_Dev!I24</f>
+      <c r="S24" s="8">
+        <f>Monthly_Op!S24-Monthly_Dev!S24</f>
         <v>-7.8696757555007935E-8</v>
       </c>
-      <c r="J24" s="5">
-        <f>Monthly_Op!J24-Monthly_Dev!J24</f>
+      <c r="T24" s="8">
+        <f>Monthly_Op!T24-Monthly_Dev!T24</f>
         <v>6.6800566855818033E-8</v>
       </c>
-      <c r="K24" s="5">
-        <f>Monthly_Op!K24-Monthly_Dev!K24</f>
+      <c r="U24" s="8">
+        <f>Monthly_Op!U24-Monthly_Dev!U24</f>
         <v>4.900200292468071E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44712</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <f>Monthly_Op!C25-Monthly_Dev!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
+        <v>3.5047356595896417E-3</v>
+      </c>
+      <c r="D25" s="8">
         <f>Monthly_Op!D25-Monthly_Dev!D25</f>
+        <v>2.1696493689944418E-3</v>
+      </c>
+      <c r="E25" s="8">
+        <f>Monthly_Op!E25-Monthly_Dev!E25</f>
+        <v>4.3733057569852463E-3</v>
+      </c>
+      <c r="F25" s="8">
+        <f>Monthly_Op!F25-Monthly_Dev!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <f>Monthly_Op!G25-Monthly_Dev!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f>Monthly_Op!H25-Monthly_Dev!H25</f>
+        <v>-0.39017189482001413</v>
+      </c>
+      <c r="I25" s="10">
+        <f>Monthly_Op!I25-Monthly_Dev!I25</f>
+        <v>0.2452440003724945</v>
+      </c>
+      <c r="J25" s="8">
+        <f>Monthly_Op!J25-Monthly_Dev!J25</f>
+        <v>-3.8890571839971244E-3</v>
+      </c>
+      <c r="K25" s="8">
+        <f>Monthly_Op!K25-Monthly_Dev!K25</f>
+        <v>-7.3987393989227712E-10</v>
+      </c>
+      <c r="L25" s="10">
+        <f>Monthly_Op!L25-Monthly_Dev!L25</f>
+        <v>0.29878504619955493</v>
+      </c>
+      <c r="M25" s="8">
+        <f>Monthly_Op!M25-Monthly_Dev!M25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <f>Monthly_Op!N25-Monthly_Dev!N25</f>
         <v>3.2808860696604825E-3</v>
       </c>
-      <c r="E25" s="5">
-        <f>Monthly_Op!E25-Monthly_Dev!E25</f>
-        <v>3.8312843450057699E-2</v>
-      </c>
-      <c r="F25" s="5">
-        <f>Monthly_Op!F25-Monthly_Dev!F25</f>
-        <v>3.2382015684015641</v>
-      </c>
-      <c r="G25" s="5">
-        <f>Monthly_Op!G25-Monthly_Dev!G25</f>
+      <c r="O25" s="8">
+        <f>Monthly_Op!O25-Monthly_Dev!O25</f>
+        <v>-2.6498128136154264E-9</v>
+      </c>
+      <c r="P25" s="8">
+        <f>Monthly_Op!P25-Monthly_Dev!P25</f>
+        <v>-1.8059836293105036E-7</v>
+      </c>
+      <c r="Q25" s="8">
+        <f>Monthly_Op!Q25-Monthly_Dev!Q25</f>
         <v>9.9680619314312935E-6</v>
       </c>
-      <c r="H25" s="5">
-        <f>Monthly_Op!H25-Monthly_Dev!H25</f>
+      <c r="R25" s="8">
+        <f>Monthly_Op!R25-Monthly_Dev!R25</f>
         <v>-2.5000190362334251E-8</v>
       </c>
-      <c r="I25" s="5">
-        <f>Monthly_Op!I25-Monthly_Dev!I25</f>
+      <c r="S25" s="8">
+        <f>Monthly_Op!S25-Monthly_Dev!S25</f>
         <v>7.3006958700716496E-8</v>
       </c>
-      <c r="J25" s="5">
-        <f>Monthly_Op!J25-Monthly_Dev!J25</f>
+      <c r="T25" s="8">
+        <f>Monthly_Op!T25-Monthly_Dev!T25</f>
         <v>-1.9397702999413013E-8</v>
       </c>
-      <c r="K25" s="5">
-        <f>Monthly_Op!K25-Monthly_Dev!K25</f>
+      <c r="U25" s="8">
+        <f>Monthly_Op!U25-Monthly_Dev!U25</f>
         <v>3.8699363358318806E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44742</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <f>Monthly_Op!C26-Monthly_Dev!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
+        <v>4.9187964900738734E-3</v>
+      </c>
+      <c r="D26" s="8">
         <f>Monthly_Op!D26-Monthly_Dev!D26</f>
+        <v>-1.7645905450081045E-3</v>
+      </c>
+      <c r="E26" s="8">
+        <f>Monthly_Op!E26-Monthly_Dev!E26</f>
+        <v>1.263929944911979E-3</v>
+      </c>
+      <c r="F26" s="8">
+        <f>Monthly_Op!F26-Monthly_Dev!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <f>Monthly_Op!G26-Monthly_Dev!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <f>Monthly_Op!H26-Monthly_Dev!H26</f>
+        <v>-0.38852442069992321</v>
+      </c>
+      <c r="I26" s="10">
+        <f>Monthly_Op!I26-Monthly_Dev!I26</f>
+        <v>0.24524400034638916</v>
+      </c>
+      <c r="J26" s="8">
+        <f>Monthly_Op!J26-Monthly_Dev!J26</f>
+        <v>-2.2439827809961344E-3</v>
+      </c>
+      <c r="K26" s="8">
+        <f>Monthly_Op!K26-Monthly_Dev!K26</f>
+        <v>7.7002368925604969E-9</v>
+      </c>
+      <c r="L26" s="10">
+        <f>Monthly_Op!L26-Monthly_Dev!L26</f>
+        <v>0.29792568609991577</v>
+      </c>
+      <c r="M26" s="8">
+        <f>Monthly_Op!M26-Monthly_Dev!M26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <f>Monthly_Op!N26-Monthly_Dev!N26</f>
         <v>3.021335769972211E-3</v>
       </c>
-      <c r="E26" s="5">
-        <f>Monthly_Op!E26-Monthly_Dev!E26</f>
-        <v>3.8711262919832734E-2</v>
-      </c>
-      <c r="F26" s="5">
-        <f>Monthly_Op!F26-Monthly_Dev!F26</f>
-        <v>3.2308419750006578</v>
-      </c>
-      <c r="G26" s="5">
-        <f>Monthly_Op!G26-Monthly_Dev!G26</f>
+      <c r="O26" s="8">
+        <f>Monthly_Op!O26-Monthly_Dev!O26</f>
+        <v>-1.740090738167055E-9</v>
+      </c>
+      <c r="P26" s="8">
+        <f>Monthly_Op!P26-Monthly_Dev!P26</f>
+        <v>-1.7439924704376608E-7</v>
+      </c>
+      <c r="Q26" s="8">
+        <f>Monthly_Op!Q26-Monthly_Dev!Q26</f>
         <v>-5.7065044529736042E-5</v>
       </c>
-      <c r="H26" s="5">
-        <f>Monthly_Op!H26-Monthly_Dev!H26</f>
+      <c r="R26" s="8">
+        <f>Monthly_Op!R26-Monthly_Dev!R26</f>
         <v>-7.8100129030644894E-8</v>
       </c>
-      <c r="I26" s="5">
-        <f>Monthly_Op!I26-Monthly_Dev!I26</f>
+      <c r="S26" s="8">
+        <f>Monthly_Op!S26-Monthly_Dev!S26</f>
         <v>-1.0090298019349575E-7</v>
       </c>
-      <c r="J26" s="5">
-        <f>Monthly_Op!J26-Monthly_Dev!J26</f>
+      <c r="T26" s="8">
+        <f>Monthly_Op!T26-Monthly_Dev!T26</f>
         <v>7.9002347774803638E-8</v>
       </c>
-      <c r="K26" s="5">
-        <f>Monthly_Op!K26-Monthly_Dev!K26</f>
+      <c r="U26" s="8">
+        <f>Monthly_Op!U26-Monthly_Dev!U26</f>
         <v>-4.4910120777785778E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44773</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <f>Monthly_Op!C27-Monthly_Dev!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
+        <v>1.708177090222307E-3</v>
+      </c>
+      <c r="D27" s="8">
         <f>Monthly_Op!D27-Monthly_Dev!D27</f>
+        <v>-4.2905260650059063E-3</v>
+      </c>
+      <c r="E27" s="8">
+        <f>Monthly_Op!E27-Monthly_Dev!E27</f>
+        <v>2.0433454619706026E-3</v>
+      </c>
+      <c r="F27" s="8">
+        <f>Monthly_Op!F27-Monthly_Dev!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f>Monthly_Op!G27-Monthly_Dev!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f>Monthly_Op!H27-Monthly_Dev!H27</f>
+        <v>-0.39448138728994309</v>
+      </c>
+      <c r="I27" s="10">
+        <f>Monthly_Op!I27-Monthly_Dev!I27</f>
+        <v>0.24524400031369709</v>
+      </c>
+      <c r="J27" s="8">
+        <f>Monthly_Op!J27-Monthly_Dev!J27</f>
+        <v>1.7639954670016778E-3</v>
+      </c>
+      <c r="K27" s="8">
+        <f>Monthly_Op!K27-Monthly_Dev!K27</f>
+        <v>3.8289726944640279E-10</v>
+      </c>
+      <c r="L27" s="10">
+        <f>Monthly_Op!L27-Monthly_Dev!L27</f>
+        <v>0.29689708019941463</v>
+      </c>
+      <c r="M27" s="8">
+        <f>Monthly_Op!M27-Monthly_Dev!M27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <f>Monthly_Op!N27-Monthly_Dev!N27</f>
         <v>3.0031663500267314E-3</v>
       </c>
-      <c r="E27" s="5">
-        <f>Monthly_Op!E27-Monthly_Dev!E27</f>
-        <v>3.8600622980084154E-2</v>
-      </c>
-      <c r="F27" s="5">
-        <f>Monthly_Op!F27-Monthly_Dev!F27</f>
-        <v>3.221608100900994</v>
-      </c>
-      <c r="G27" s="5">
-        <f>Monthly_Op!G27-Monthly_Dev!G27</f>
+      <c r="O27" s="8">
+        <f>Monthly_Op!O27-Monthly_Dev!O27</f>
+        <v>-3.2498519431101158E-9</v>
+      </c>
+      <c r="P27" s="8">
+        <f>Monthly_Op!P27-Monthly_Dev!P27</f>
+        <v>-1.6549893189221621E-7</v>
+      </c>
+      <c r="Q27" s="8">
+        <f>Monthly_Op!Q27-Monthly_Dev!Q27</f>
         <v>4.9488968215882778E-5</v>
       </c>
-      <c r="H27" s="5">
-        <f>Monthly_Op!H27-Monthly_Dev!H27</f>
+      <c r="R27" s="8">
+        <f>Monthly_Op!R27-Monthly_Dev!R27</f>
         <v>-9.9105818662792444E-8</v>
       </c>
-      <c r="I27" s="5">
-        <f>Monthly_Op!I27-Monthly_Dev!I27</f>
+      <c r="S27" s="8">
+        <f>Monthly_Op!S27-Monthly_Dev!S27</f>
         <v>8.0501195043325424E-8</v>
       </c>
-      <c r="J27" s="5">
-        <f>Monthly_Op!J27-Monthly_Dev!J27</f>
+      <c r="T27" s="8">
+        <f>Monthly_Op!T27-Monthly_Dev!T27</f>
         <v>7.890048436820507E-8</v>
       </c>
-      <c r="K27" s="5">
-        <f>Monthly_Op!K27-Monthly_Dev!K27</f>
+      <c r="U27" s="8">
+        <f>Monthly_Op!U27-Monthly_Dev!U27</f>
         <v>4.8996997065842152E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44804</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <f>Monthly_Op!C28-Monthly_Dev!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
+        <v>-2.9000860099586134E-3</v>
+      </c>
+      <c r="D28" s="8">
         <f>Monthly_Op!D28-Monthly_Dev!D28</f>
+        <v>1.3397638099377218E-4</v>
+      </c>
+      <c r="E28" s="8">
+        <f>Monthly_Op!E28-Monthly_Dev!E28</f>
+        <v>-2.9365905809299875E-3</v>
+      </c>
+      <c r="F28" s="8">
+        <f>Monthly_Op!F28-Monthly_Dev!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <f>Monthly_Op!G28-Monthly_Dev!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <f>Monthly_Op!H28-Monthly_Dev!H28</f>
+        <v>-0.39096348738007691</v>
+      </c>
+      <c r="I28" s="10">
+        <f>Monthly_Op!I28-Monthly_Dev!I28</f>
+        <v>0.24524400036509064</v>
+      </c>
+      <c r="J28" s="8">
+        <f>Monthly_Op!J28-Monthly_Dev!J28</f>
+        <v>1.7780563782991976E-3</v>
+      </c>
+      <c r="K28" s="8">
+        <f>Monthly_Op!K28-Monthly_Dev!K28</f>
+        <v>-1.6802914615254849E-10</v>
+      </c>
+      <c r="L28" s="10">
+        <f>Monthly_Op!L28-Monthly_Dev!L28</f>
+        <v>0.29587518130028911</v>
+      </c>
+      <c r="M28" s="8">
+        <f>Monthly_Op!M28-Monthly_Dev!M28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
+        <f>Monthly_Op!N28-Monthly_Dev!N28</f>
         <v>3.0489869600387465E-3</v>
       </c>
-      <c r="E28" s="5">
-        <f>Monthly_Op!E28-Monthly_Dev!E28</f>
-        <v>3.8293169709959329E-2</v>
-      </c>
-      <c r="F28" s="5">
-        <f>Monthly_Op!F28-Monthly_Dev!F28</f>
-        <v>3.2118691406994913</v>
-      </c>
-      <c r="G28" s="5">
-        <f>Monthly_Op!G28-Monthly_Dev!G28</f>
+      <c r="O28" s="8">
+        <f>Monthly_Op!O28-Monthly_Dev!O28</f>
+        <v>-2.5600002118153498E-9</v>
+      </c>
+      <c r="P28" s="8">
+        <f>Monthly_Op!P28-Monthly_Dev!P28</f>
+        <v>-1.7840102373156697E-7</v>
+      </c>
+      <c r="Q28" s="8">
+        <f>Monthly_Op!Q28-Monthly_Dev!Q28</f>
         <v>4.9270456656813622E-6</v>
       </c>
-      <c r="H28" s="5">
-        <f>Monthly_Op!H28-Monthly_Dev!H28</f>
+      <c r="R28" s="8">
+        <f>Monthly_Op!R28-Monthly_Dev!R28</f>
         <v>-9.9105818662792444E-8</v>
       </c>
-      <c r="I28" s="5">
-        <f>Monthly_Op!I28-Monthly_Dev!I28</f>
+      <c r="S28" s="8">
+        <f>Monthly_Op!S28-Monthly_Dev!S28</f>
         <v>8.0501195043325424E-8</v>
       </c>
-      <c r="J28" s="5">
-        <f>Monthly_Op!J28-Monthly_Dev!J28</f>
+      <c r="T28" s="8">
+        <f>Monthly_Op!T28-Monthly_Dev!T28</f>
         <v>1.8997525330632925E-8</v>
       </c>
-      <c r="K28" s="5">
-        <f>Monthly_Op!K28-Monthly_Dev!K28</f>
+      <c r="U28" s="8">
+        <f>Monthly_Op!U28-Monthly_Dev!U28</f>
         <v>5.2359973778948188E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44834</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <f>Monthly_Op!C29-Monthly_Dev!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
+        <v>-1.2117897399548383E-3</v>
+      </c>
+      <c r="D29" s="8">
         <f>Monthly_Op!D29-Monthly_Dev!D29</f>
+        <v>-4.8630355440195672E-3</v>
+      </c>
+      <c r="E29" s="8">
+        <f>Monthly_Op!E29-Monthly_Dev!E29</f>
+        <v>5.9353683900553733E-4</v>
+      </c>
+      <c r="F29" s="8">
+        <f>Monthly_Op!F29-Monthly_Dev!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <f>Monthly_Op!G29-Monthly_Dev!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <f>Monthly_Op!H29-Monthly_Dev!H29</f>
+        <v>-0.39302326029996948</v>
+      </c>
+      <c r="I29" s="10">
+        <f>Monthly_Op!I29-Monthly_Dev!I29</f>
+        <v>0.24524400032979798</v>
+      </c>
+      <c r="J29" s="8">
+        <f>Monthly_Op!J29-Monthly_Dev!J29</f>
+        <v>-1.1645597236054073E-3</v>
+      </c>
+      <c r="K29" s="8">
+        <f>Monthly_Op!K29-Monthly_Dev!K29</f>
+        <v>7.9705841926624998E-10</v>
+      </c>
+      <c r="L29" s="10">
+        <f>Monthly_Op!L29-Monthly_Dev!L29</f>
+        <v>0.29493309210010921</v>
+      </c>
+      <c r="M29" s="8">
+        <f>Monthly_Op!M29-Monthly_Dev!M29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <f>Monthly_Op!N29-Monthly_Dev!N29</f>
         <v>3.0639122301181487E-3</v>
       </c>
-      <c r="E29" s="5">
-        <f>Monthly_Op!E29-Monthly_Dev!E29</f>
-        <v>3.8305592750020878E-2</v>
-      </c>
-      <c r="F29" s="5">
-        <f>Monthly_Op!F29-Monthly_Dev!F29</f>
-        <v>3.20387966439921</v>
-      </c>
-      <c r="G29" s="5">
-        <f>Monthly_Op!G29-Monthly_Dev!G29</f>
+      <c r="O29" s="8">
+        <f>Monthly_Op!O29-Monthly_Dev!O29</f>
+        <v>-8.2013684732373804E-10</v>
+      </c>
+      <c r="P29" s="8">
+        <f>Monthly_Op!P29-Monthly_Dev!P29</f>
+        <v>-1.7869933799374849E-7</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>Monthly_Op!Q29-Monthly_Dev!Q29</f>
         <v>4.5680208131670952E-6</v>
       </c>
-      <c r="H29" s="5">
-        <f>Monthly_Op!H29-Monthly_Dev!H29</f>
+      <c r="R29" s="8">
+        <f>Monthly_Op!R29-Monthly_Dev!R29</f>
         <v>7.0140231400728226E-9</v>
       </c>
-      <c r="I29" s="5">
-        <f>Monthly_Op!I29-Monthly_Dev!I29</f>
+      <c r="S29" s="8">
+        <f>Monthly_Op!S29-Monthly_Dev!S29</f>
         <v>-5.2197719924151897E-8</v>
       </c>
-      <c r="J29" s="5">
-        <f>Monthly_Op!J29-Monthly_Dev!J29</f>
+      <c r="T29" s="8">
+        <f>Monthly_Op!T29-Monthly_Dev!T29</f>
         <v>4.4001353671774268E-8</v>
       </c>
-      <c r="K29" s="5">
-        <f>Monthly_Op!K29-Monthly_Dev!K29</f>
+      <c r="U29" s="8">
+        <f>Monthly_Op!U29-Monthly_Dev!U29</f>
         <v>5.1690003601834178E-6</v>
       </c>
     </row>
